--- a/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
+++ b/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3821D5F-C53D-4D61-89B0-94CBE93CB950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4916A0F9-7849-4683-91EE-59037570388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7946" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7945" uniqueCount="1490">
   <si>
     <t>■</t>
   </si>
@@ -4801,10 +4801,6 @@
   </si>
   <si>
     <t>XXX\src\main\resources\data-source.xml</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Common</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5774,6 +5770,18 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <border>
@@ -5947,18 +5955,6 @@
       <border>
         <top style="thin">
           <color rgb="FFFFFFFF"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
         </top>
         <vertical/>
         <horizontal/>
@@ -13695,7 +13691,7 @@
         <v>1404</v>
       </c>
       <c r="W7" s="36" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="X7" s="25" t="s">
         <v>44</v>
@@ -16416,7 +16412,7 @@
         <v>201</v>
       </c>
       <c r="X45" s="25" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -18605,7 +18601,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" ht="108" x14ac:dyDescent="0.15">
       <c r="A76" s="21">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -18678,7 +18674,7 @@
       </c>
       <c r="X76" s="25"/>
     </row>
-    <row r="77" spans="1:24" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" ht="108" x14ac:dyDescent="0.15">
       <c r="A77" s="21">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -18751,7 +18747,7 @@
       </c>
       <c r="X77" s="25"/>
     </row>
-    <row r="78" spans="1:24" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:24" ht="108" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -18822,7 +18818,7 @@
       </c>
       <c r="X78" s="25"/>
     </row>
-    <row r="79" spans="1:24" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:24" ht="108" x14ac:dyDescent="0.15">
       <c r="A79" s="21">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -18962,7 +18958,7 @@
       </c>
       <c r="X80" s="25"/>
     </row>
-    <row r="81" spans="1:24" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:24" ht="108" x14ac:dyDescent="0.15">
       <c r="A81" s="21">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19035,7 +19031,7 @@
       </c>
       <c r="X81" s="25"/>
     </row>
-    <row r="82" spans="1:24" ht="54" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19383,7 +19379,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:24" ht="108" x14ac:dyDescent="0.15">
       <c r="A88" s="21">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -19436,7 +19432,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:24" ht="108" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -19511,7 +19507,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:24" ht="108" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -23556,7 +23552,7 @@
         <v>1325</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>544</v>
@@ -23565,10 +23561,10 @@
         <v>545</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="R147" s="35" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="S147" s="34" t="s">
         <v>1420</v>
@@ -23580,7 +23576,7 @@
         <v>1421</v>
       </c>
       <c r="V147" s="23" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="W147" s="36" t="s">
         <v>1268</v>
@@ -23623,7 +23619,7 @@
         <v>1325</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>544</v>
@@ -23635,7 +23631,7 @@
         <v>1419</v>
       </c>
       <c r="R148" s="35" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="S148" s="34" t="s">
         <v>1422</v>
@@ -23647,7 +23643,7 @@
         <v>1423</v>
       </c>
       <c r="V148" s="23" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="W148" s="36" t="s">
         <v>1269</v>
@@ -23690,7 +23686,7 @@
         <v>1325</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>1252</v>
@@ -23702,7 +23698,7 @@
         <v>1419</v>
       </c>
       <c r="R149" s="35" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="S149" s="34" t="s">
         <v>1424</v>
@@ -23714,7 +23710,7 @@
         <v>1425</v>
       </c>
       <c r="V149" s="23" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="W149" s="36" t="s">
         <v>1270</v>
@@ -23757,7 +23753,7 @@
         <v>1325</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>544</v>
@@ -23769,7 +23765,7 @@
         <v>1419</v>
       </c>
       <c r="R150" s="35" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="S150" s="34" t="s">
         <v>1426</v>
@@ -23781,7 +23777,7 @@
         <v>1427</v>
       </c>
       <c r="V150" s="23" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="W150" s="36" t="s">
         <v>549</v>
@@ -23824,7 +23820,7 @@
         <v>1325</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>544</v>
@@ -23836,7 +23832,7 @@
         <v>1419</v>
       </c>
       <c r="R151" s="35" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="S151" s="34" t="s">
         <v>1428</v>
@@ -23848,10 +23844,10 @@
         <v>1429</v>
       </c>
       <c r="V151" s="23" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="W151" s="36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="X151" s="32"/>
     </row>
@@ -23860,9 +23856,7 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B152" s="22" t="s">
-        <v>1469</v>
-      </c>
+      <c r="B152" s="26"/>
       <c r="C152" s="34"/>
       <c r="D152" s="34"/>
       <c r="E152" s="34"/>
@@ -23879,7 +23873,7 @@
       <c r="L152" s="34"/>
       <c r="M152" s="34"/>
       <c r="N152" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>544</v>
@@ -23932,7 +23926,7 @@
       <c r="L153" s="34"/>
       <c r="M153" s="34"/>
       <c r="N153" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O153" s="2" t="s">
         <v>544</v>
@@ -23985,7 +23979,7 @@
       <c r="L154" s="34"/>
       <c r="M154" s="34"/>
       <c r="N154" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>1252</v>
@@ -24038,7 +24032,7 @@
       <c r="L155" s="34"/>
       <c r="M155" s="34"/>
       <c r="N155" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>544</v>
@@ -24091,7 +24085,7 @@
       <c r="L156" s="34"/>
       <c r="M156" s="34"/>
       <c r="N156" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>544</v>
@@ -24144,7 +24138,7 @@
       <c r="L157" s="34"/>
       <c r="M157" s="34"/>
       <c r="N157" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>544</v>
@@ -24197,7 +24191,7 @@
       <c r="L158" s="34"/>
       <c r="M158" s="34"/>
       <c r="N158" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>544</v>
@@ -24250,7 +24244,7 @@
       <c r="L159" s="34"/>
       <c r="M159" s="34"/>
       <c r="N159" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O159" s="2" t="s">
         <v>544</v>
@@ -24303,7 +24297,7 @@
       <c r="L160" s="34"/>
       <c r="M160" s="34"/>
       <c r="N160" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O160" s="2" t="s">
         <v>544</v>
@@ -24356,7 +24350,7 @@
       <c r="L161" s="34"/>
       <c r="M161" s="34"/>
       <c r="N161" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>544</v>
@@ -24393,13 +24387,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C162" s="23" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D162" s="23" t="s">
         <v>1482</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>1483</v>
       </c>
       <c r="E162" s="23" t="s">
         <v>1326</v>
@@ -24427,7 +24421,7 @@
         <v>1326</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="O162" s="2" t="s">
         <v>1254</v>
@@ -24466,7 +24460,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C163" s="23" t="s">
         <v>1325</v>
@@ -32298,7 +32292,7 @@
         <v>1395</v>
       </c>
       <c r="W272" s="36" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="X272" s="25" t="s">
         <v>1326</v>
@@ -40037,7 +40031,7 @@
       <c r="L386" s="70"/>
       <c r="M386" s="70"/>
       <c r="N386" s="68" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="O386" s="68" t="s">
         <v>1363</v>
@@ -40086,7 +40080,7 @@
       <c r="L387" s="70"/>
       <c r="M387" s="70"/>
       <c r="N387" s="68" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="O387" s="68" t="s">
         <v>1363</v>
@@ -40159,7 +40153,7 @@
         <v>1443</v>
       </c>
       <c r="N388" s="68" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="O388" s="68" t="s">
         <v>1443</v>
@@ -40177,13 +40171,13 @@
         <v>1444</v>
       </c>
       <c r="T388" s="70" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="U388" s="70" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="V388" s="70" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="W388" s="71" t="s">
         <v>1445</v>
@@ -40230,7 +40224,7 @@
         <v>1443</v>
       </c>
       <c r="N389" s="68" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="O389" s="68" t="s">
         <v>1443</v>
@@ -40248,13 +40242,13 @@
         <v>1446</v>
       </c>
       <c r="T389" s="70" t="s">
+        <v>1476</v>
+      </c>
+      <c r="U389" s="70" t="s">
         <v>1477</v>
       </c>
-      <c r="U389" s="70" t="s">
-        <v>1478</v>
-      </c>
       <c r="V389" s="70" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="W389" s="71" t="s">
         <v>1447</v>
@@ -40301,7 +40295,7 @@
         <v>1443</v>
       </c>
       <c r="N390" s="68" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="O390" s="68" t="s">
         <v>1443</v>
@@ -40319,10 +40313,10 @@
         <v>1448</v>
       </c>
       <c r="T390" s="70" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="U390" s="70" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="V390" s="70"/>
       <c r="W390" s="71"/>
@@ -40368,7 +40362,7 @@
         <v>1443</v>
       </c>
       <c r="N391" s="68" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="O391" s="68" t="s">
         <v>1443</v>
@@ -40386,10 +40380,10 @@
         <v>1449</v>
       </c>
       <c r="T391" s="70" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="U391" s="70" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="V391" s="70"/>
       <c r="W391" s="71"/>
@@ -40402,2383 +40396,2383 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N203:N207 B203:B207 N256:N260 B256:B260 N125:N142 B125:B142 N262:N271 N85:N88 B262:B271 N144:N146 B144:B146 N273:N276 B273:B276 N345:N348 N321:N326 N280:N309 N17:N31 B4:B11 B17:B31 B33:B74 N33:N74 B150 N150 N92:N105 N108:N123 B108:B123 N198:N199 B198:B199 N185:N191 B185:B191 N170:N183 B170:B183 B166:B168 N164:N168 N193:N196 B193:B196 N209:N229 B209:B229 N77:N82 B77:B83 N232:N248 N251:N254 B251:B254 N4:N11 B232:B249 B85:B88 B92:B105">
-    <cfRule type="cellIs" dxfId="537" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="834" operator="equal">
       <formula>$N3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q203:Q207 Q256:Q260 Q125:Q142 Q262:Q271 Q144:Q146 Q273:Q276 Q345:Q348 Q321:Q326 Q17:Q31 Q4:Q10 Q279:Q309 Q33:Q74 Q149:Q150 Q99:Q105 Q108:Q123 Q198:Q199 Q185:Q191 Q170:Q183 Q164:Q168 Q193:Q196 Q209:Q229 Q77:Q82 Q232:Q248 Q251:Q254 Q85:Q88 Q92:Q97">
-    <cfRule type="cellIs" dxfId="536" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="831" operator="equal">
       <formula>$Q3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R203:R207 R256:R260 R125:R142 R262:R271 R144:R146 R273:R276 R345:R348 R321:R326 R4:R10 R279:R309 R33:R74 R149:R150 R99:R105 R108:R123 R198:R199 R185:R191 R170:R183 R164:R168 R193:R196 R209:R229 R77:R82 R232:R248 R251:R254 R17:R31 R85:R88 R92:R97">
-    <cfRule type="cellIs" dxfId="535" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="830" operator="equal">
       <formula>$R3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N124 B124">
-    <cfRule type="cellIs" dxfId="534" priority="841" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="842" operator="equal">
       <formula>$N97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q124">
-    <cfRule type="cellIs" dxfId="533" priority="847" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="848" operator="equal">
       <formula>$Q97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R124">
-    <cfRule type="cellIs" dxfId="532" priority="850" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="851" operator="equal">
       <formula>$R97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N143 B143">
-    <cfRule type="cellIs" dxfId="531" priority="859" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="860" operator="equal">
       <formula>$N123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q98">
-    <cfRule type="cellIs" dxfId="530" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="867" operator="equal">
       <formula>$Q142</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q143">
-    <cfRule type="cellIs" dxfId="529" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="868" operator="equal">
       <formula>$Q123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R98">
-    <cfRule type="cellIs" dxfId="528" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="871" operator="equal">
       <formula>$R142</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R143">
-    <cfRule type="cellIs" dxfId="527" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="872" operator="equal">
       <formula>$R123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91">
-    <cfRule type="cellIs" dxfId="526" priority="823" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="824" operator="equal">
       <formula>$N135</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N272 B272">
-    <cfRule type="cellIs" dxfId="525" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="878" operator="equal">
       <formula>$N31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q272">
-    <cfRule type="cellIs" dxfId="524" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="888" operator="equal">
       <formula>$Q31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R272">
-    <cfRule type="cellIs" dxfId="523" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="891" operator="equal">
       <formula>$R31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q202">
-    <cfRule type="cellIs" dxfId="522" priority="904" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="905" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R202">
-    <cfRule type="cellIs" dxfId="521" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="909" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="520" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="916" operator="equal">
       <formula>$N254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q208">
-    <cfRule type="cellIs" dxfId="519" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="926" operator="equal">
       <formula>$Q74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R208">
-    <cfRule type="cellIs" dxfId="518" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="929" operator="equal">
       <formula>$R74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3 B3">
-    <cfRule type="cellIs" dxfId="517" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="958" operator="equal">
       <formula>$N207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="516" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="961" operator="equal">
       <formula>$Q207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="cellIs" dxfId="515" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="962" operator="equal">
       <formula>$R207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="cellIs" dxfId="514" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="965" operator="equal">
       <formula>$N254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q75">
-    <cfRule type="cellIs" dxfId="513" priority="974" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="975" operator="equal">
       <formula>$Q254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R75">
-    <cfRule type="cellIs" dxfId="512" priority="977" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="978" operator="equal">
       <formula>$R254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208 N208">
-    <cfRule type="cellIs" dxfId="511" priority="1020" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="1021" operator="equal">
       <formula>$N74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N255 B255">
-    <cfRule type="cellIs" dxfId="510" priority="1023" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="1024" operator="equal">
       <formula>$N82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q255">
-    <cfRule type="cellIs" dxfId="509" priority="1032" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="1033" operator="equal">
       <formula>$Q82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R255">
-    <cfRule type="cellIs" dxfId="508" priority="1035" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="1036" operator="equal">
       <formula>$R82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N162">
-    <cfRule type="cellIs" dxfId="507" priority="1040" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="1041" operator="equal">
       <formula>$N75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q162">
-    <cfRule type="cellIs" dxfId="506" priority="1043" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="1044" operator="equal">
       <formula>$Q75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R162">
-    <cfRule type="cellIs" dxfId="505" priority="1044" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="1045" operator="equal">
       <formula>$R75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N277 B277">
-    <cfRule type="cellIs" dxfId="504" priority="1047" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="1048" operator="equal">
       <formula>$N260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q277">
-    <cfRule type="cellIs" dxfId="503" priority="1056" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="1057" operator="equal">
       <formula>$Q260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R277">
-    <cfRule type="cellIs" dxfId="502" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="1060" operator="equal">
       <formula>$R260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N84 B84">
-    <cfRule type="cellIs" dxfId="501" priority="1092" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="1093" operator="equal">
       <formula>$N271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q84">
-    <cfRule type="cellIs" dxfId="500" priority="1108" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="1109" operator="equal">
       <formula>$Q271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R84">
-    <cfRule type="cellIs" dxfId="499" priority="1114" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="1115" operator="equal">
       <formula>$R271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N169 B169">
-    <cfRule type="cellIs" dxfId="498" priority="1140" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="1141" operator="equal">
       <formula>$N146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q169">
-    <cfRule type="cellIs" dxfId="497" priority="1143" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="1144" operator="equal">
       <formula>$Q146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R169">
-    <cfRule type="cellIs" dxfId="496" priority="1144" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="1145" operator="equal">
       <formula>$R146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32 B32">
-    <cfRule type="cellIs" dxfId="495" priority="1153" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="1154" operator="equal">
       <formula>$N276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="cellIs" dxfId="494" priority="1156" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="1157" operator="equal">
       <formula>$Q276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="493" priority="1157" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="1158" operator="equal">
       <formula>$R276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N261 B261">
-    <cfRule type="cellIs" dxfId="492" priority="1160" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="1161" operator="equal">
       <formula>$N277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q261">
-    <cfRule type="cellIs" dxfId="491" priority="1163" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="1164" operator="equal">
       <formula>$Q277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R261">
-    <cfRule type="cellIs" dxfId="490" priority="1164" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="1165" operator="equal">
       <formula>$R277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N200:N201 B200:B201">
-    <cfRule type="cellIs" dxfId="489" priority="1185" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="1186" operator="equal">
       <formula>$N191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N192 B192">
-    <cfRule type="cellIs" dxfId="488" priority="1186" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="1187" operator="equal">
       <formula>$N200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q200:Q201">
-    <cfRule type="cellIs" dxfId="487" priority="1194" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="1195" operator="equal">
       <formula>$Q191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q192">
-    <cfRule type="cellIs" dxfId="486" priority="1195" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="1196" operator="equal">
       <formula>$Q200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R200:R201">
-    <cfRule type="cellIs" dxfId="485" priority="1197" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="1198" operator="equal">
       <formula>$R191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R192">
-    <cfRule type="cellIs" dxfId="484" priority="1198" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="1199" operator="equal">
       <formula>$R200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P203:P207 P256:P260 P125:P142 P262:P271 P144:P146 P273:P276 P345:P348 P321:P326 P4:P10 P17:P31 P279:P309 P33:P74 P149:P150 P99:P105 P108:P123 P198:P199 P185:P191 P170:P183 P164:P168 P193:P196 P209:P229 P77:P82 P232:P248 P251:P254 P85:P88 P92:P97">
-    <cfRule type="cellIs" dxfId="483" priority="1202" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="1203" operator="equal">
       <formula>$P3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P124">
-    <cfRule type="cellIs" dxfId="482" priority="1217" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="1218" operator="equal">
       <formula>$P97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P98">
-    <cfRule type="cellIs" dxfId="481" priority="1218" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="1219" operator="equal">
       <formula>$P142</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P143">
-    <cfRule type="cellIs" dxfId="480" priority="1219" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="1220" operator="equal">
       <formula>$P123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P272">
-    <cfRule type="cellIs" dxfId="479" priority="1220" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="1221" operator="equal">
       <formula>$P31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P202">
-    <cfRule type="cellIs" dxfId="478" priority="1221" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="1222" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P208">
-    <cfRule type="cellIs" dxfId="477" priority="1222" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="1223" operator="equal">
       <formula>$P74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="476" priority="1223" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="1224" operator="equal">
       <formula>$P207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75">
-    <cfRule type="cellIs" dxfId="475" priority="1224" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="1225" operator="equal">
       <formula>$P254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P255">
-    <cfRule type="cellIs" dxfId="474" priority="1225" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="1226" operator="equal">
       <formula>$P82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P162">
-    <cfRule type="cellIs" dxfId="473" priority="1226" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="1227" operator="equal">
       <formula>$P75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P277">
-    <cfRule type="cellIs" dxfId="472" priority="1227" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="1228" operator="equal">
       <formula>$P260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P84">
-    <cfRule type="cellIs" dxfId="471" priority="1229" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="1230" operator="equal">
       <formula>$P271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="cellIs" dxfId="470" priority="1231" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="1232" operator="equal">
       <formula>$P276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P261">
-    <cfRule type="cellIs" dxfId="469" priority="1232" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="1233" operator="equal">
       <formula>$P277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P200:P201">
-    <cfRule type="cellIs" dxfId="468" priority="1234" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="1235" operator="equal">
       <formula>$P191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P192">
-    <cfRule type="cellIs" dxfId="467" priority="1235" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="1236" operator="equal">
       <formula>$P200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X74 X4:X10 X150 X108:X146 X198:X201 X166:X168 X185:X196 X203:X229 X77:X83 X232:X248 X251:X277 X85:X87 X92:X106 X170:X183">
-    <cfRule type="cellIs" dxfId="466" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="823" operator="equal">
       <formula>$X3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N278">
-    <cfRule type="cellIs" dxfId="465" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="822" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N279">
-    <cfRule type="cellIs" dxfId="464" priority="820" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="821" operator="equal">
       <formula>$N278</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N327">
-    <cfRule type="cellIs" dxfId="463" priority="813" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="814" operator="equal">
       <formula>$N326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q327">
-    <cfRule type="cellIs" dxfId="462" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="812" operator="equal">
       <formula>$Q326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R327">
-    <cfRule type="cellIs" dxfId="461" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="811" operator="equal">
       <formula>$R326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P327">
-    <cfRule type="cellIs" dxfId="460" priority="814" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="815" operator="equal">
       <formula>$P326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N344">
-    <cfRule type="cellIs" dxfId="459" priority="1236" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="1237" operator="equal">
       <formula>$N326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q344">
-    <cfRule type="cellIs" dxfId="458" priority="1238" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="1239" operator="equal">
       <formula>$Q326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R344">
-    <cfRule type="cellIs" dxfId="457" priority="1239" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="1240" operator="equal">
       <formula>$R326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P344">
-    <cfRule type="cellIs" dxfId="456" priority="1240" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="1241" operator="equal">
       <formula>$P326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N328">
-    <cfRule type="cellIs" dxfId="455" priority="808" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="809" operator="equal">
       <formula>$N327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q328">
-    <cfRule type="cellIs" dxfId="454" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="807" operator="equal">
       <formula>$Q327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R328">
-    <cfRule type="cellIs" dxfId="453" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="806" operator="equal">
       <formula>$R327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P328">
-    <cfRule type="cellIs" dxfId="452" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="810" operator="equal">
       <formula>$P327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N338">
-    <cfRule type="cellIs" dxfId="451" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="804" operator="equal">
       <formula>$N328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q338">
-    <cfRule type="cellIs" dxfId="450" priority="801" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="802" operator="equal">
       <formula>$Q328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R338">
-    <cfRule type="cellIs" dxfId="449" priority="800" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="801" operator="equal">
       <formula>$R328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P338">
-    <cfRule type="cellIs" dxfId="448" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="805" operator="equal">
       <formula>$P328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N329 N107 N197 B197 B165 N231 B106:B107 B230:B231 N250 B250">
-    <cfRule type="cellIs" dxfId="447" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="799" operator="equal">
       <formula>$N104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q329 Q107 Q197 Q231 Q250">
-    <cfRule type="cellIs" dxfId="446" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="797" operator="equal">
       <formula>$Q105</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R329 R107 R197 R231 R250">
-    <cfRule type="cellIs" dxfId="445" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="796" operator="equal">
       <formula>$R105</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P329 P107 P197 P231 P250">
-    <cfRule type="cellIs" dxfId="444" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="800" operator="equal">
       <formula>$P105</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N335 N16 B16">
-    <cfRule type="cellIs" dxfId="443" priority="793" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="794" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q335 Q16">
-    <cfRule type="cellIs" dxfId="442" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="792" operator="equal">
       <formula>$Q10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R335 R16">
-    <cfRule type="cellIs" dxfId="441" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="791" operator="equal">
       <formula>$R10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P335 P16">
-    <cfRule type="cellIs" dxfId="440" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="795" operator="equal">
       <formula>$P10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N336">
-    <cfRule type="cellIs" dxfId="439" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="789" operator="equal">
       <formula>$N335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q336">
-    <cfRule type="cellIs" dxfId="438" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="787" operator="equal">
       <formula>$Q335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R336">
-    <cfRule type="cellIs" dxfId="437" priority="785" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="786" operator="equal">
       <formula>$R335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P336">
-    <cfRule type="cellIs" dxfId="436" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="790" operator="equal">
       <formula>$P335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N337">
-    <cfRule type="cellIs" dxfId="435" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="784" operator="equal">
       <formula>$N335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q337">
-    <cfRule type="cellIs" dxfId="434" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="782" operator="equal">
       <formula>$Q335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R337">
-    <cfRule type="cellIs" dxfId="433" priority="780" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="781" operator="equal">
       <formula>$R335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P337">
-    <cfRule type="cellIs" dxfId="432" priority="784" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="785" operator="equal">
       <formula>$P335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N330">
-    <cfRule type="cellIs" dxfId="431" priority="778" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="779" operator="equal">
       <formula>$N326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q330">
-    <cfRule type="cellIs" dxfId="430" priority="776" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="777" operator="equal">
       <formula>$Q326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R330">
-    <cfRule type="cellIs" dxfId="429" priority="775" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="776" operator="equal">
       <formula>$R326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P330">
-    <cfRule type="cellIs" dxfId="428" priority="779" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="780" operator="equal">
       <formula>$P326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N331">
-    <cfRule type="cellIs" dxfId="427" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="774" operator="equal">
       <formula>$N330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q331">
-    <cfRule type="cellIs" dxfId="426" priority="771" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="772" operator="equal">
       <formula>$Q330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R331">
-    <cfRule type="cellIs" dxfId="425" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="771" operator="equal">
       <formula>$R330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P331">
-    <cfRule type="cellIs" dxfId="424" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="775" operator="equal">
       <formula>$P330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N332">
-    <cfRule type="cellIs" dxfId="423" priority="768" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="769" operator="equal">
       <formula>$N330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q332">
-    <cfRule type="cellIs" dxfId="422" priority="766" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="767" operator="equal">
       <formula>$Q330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R332">
-    <cfRule type="cellIs" dxfId="421" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="766" operator="equal">
       <formula>$R330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P332">
-    <cfRule type="cellIs" dxfId="420" priority="769" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="770" operator="equal">
       <formula>$P330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N333">
-    <cfRule type="cellIs" dxfId="419" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="764" operator="equal">
       <formula>$N332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q333">
-    <cfRule type="cellIs" dxfId="418" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="762" operator="equal">
       <formula>$Q332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R333">
-    <cfRule type="cellIs" dxfId="417" priority="760" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="761" operator="equal">
       <formula>$R332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P333">
-    <cfRule type="cellIs" dxfId="416" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="765" operator="equal">
       <formula>$P332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N334">
-    <cfRule type="cellIs" dxfId="415" priority="758" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="759" operator="equal">
       <formula>$N332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q334">
-    <cfRule type="cellIs" dxfId="414" priority="756" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="757" operator="equal">
       <formula>$Q332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R334">
-    <cfRule type="cellIs" dxfId="413" priority="755" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="756" operator="equal">
       <formula>$R332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P334">
-    <cfRule type="cellIs" dxfId="412" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="760" operator="equal">
       <formula>$P332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N339">
-    <cfRule type="cellIs" dxfId="411" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="754" operator="equal">
       <formula>$N329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q339">
-    <cfRule type="cellIs" dxfId="410" priority="751" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="752" operator="equal">
       <formula>$Q329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R339">
-    <cfRule type="cellIs" dxfId="409" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="751" operator="equal">
       <formula>$R329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P339">
-    <cfRule type="cellIs" dxfId="408" priority="754" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="755" operator="equal">
       <formula>$P329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N342">
-    <cfRule type="cellIs" dxfId="407" priority="748" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="749" operator="equal">
       <formula>$N330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q342">
-    <cfRule type="cellIs" dxfId="406" priority="746" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="747" operator="equal">
       <formula>$Q330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R342">
-    <cfRule type="cellIs" dxfId="405" priority="745" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="746" operator="equal">
       <formula>$R330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342">
-    <cfRule type="cellIs" dxfId="404" priority="749" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="750" operator="equal">
       <formula>$P330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N343">
-    <cfRule type="cellIs" dxfId="403" priority="743" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="744" operator="equal">
       <formula>$N331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q343">
-    <cfRule type="cellIs" dxfId="402" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="742" operator="equal">
       <formula>$Q331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R343">
-    <cfRule type="cellIs" dxfId="401" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="741" operator="equal">
       <formula>$R331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P343">
-    <cfRule type="cellIs" dxfId="400" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="745" operator="equal">
       <formula>$P331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N340">
-    <cfRule type="cellIs" dxfId="399" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="739" operator="equal">
       <formula>$N328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q340">
-    <cfRule type="cellIs" dxfId="398" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="737" operator="equal">
       <formula>$Q328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R340">
-    <cfRule type="cellIs" dxfId="397" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="736" operator="equal">
       <formula>$R328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P340">
-    <cfRule type="cellIs" dxfId="396" priority="739" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="740" operator="equal">
       <formula>$P328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N341">
-    <cfRule type="cellIs" dxfId="395" priority="733" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="734" operator="equal">
       <formula>$N329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q341">
-    <cfRule type="cellIs" dxfId="394" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="732" operator="equal">
       <formula>$Q329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R341">
-    <cfRule type="cellIs" dxfId="393" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="731" operator="equal">
       <formula>$R329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P341">
-    <cfRule type="cellIs" dxfId="392" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="735" operator="equal">
       <formula>$P329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N319:N320">
-    <cfRule type="cellIs" dxfId="391" priority="725" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="726" operator="equal">
       <formula>$N308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q319:Q320">
-    <cfRule type="cellIs" dxfId="390" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="728" operator="equal">
       <formula>$Q308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R319:R320">
-    <cfRule type="cellIs" dxfId="389" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="729" operator="equal">
       <formula>$R308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P319:P320">
-    <cfRule type="cellIs" dxfId="388" priority="729" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="730" operator="equal">
       <formula>$P308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N318">
-    <cfRule type="cellIs" dxfId="387" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="724" operator="equal">
       <formula>$N307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q318">
-    <cfRule type="cellIs" dxfId="386" priority="721" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="722" operator="equal">
       <formula>$Q307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R318">
-    <cfRule type="cellIs" dxfId="385" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="721" operator="equal">
       <formula>$R307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P318">
-    <cfRule type="cellIs" dxfId="384" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="725" operator="equal">
       <formula>$P307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N317">
-    <cfRule type="cellIs" dxfId="383" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="716" operator="equal">
       <formula>$N306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q317">
-    <cfRule type="cellIs" dxfId="382" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="718" operator="equal">
       <formula>$Q306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R317">
-    <cfRule type="cellIs" dxfId="381" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="719" operator="equal">
       <formula>$R306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P317">
-    <cfRule type="cellIs" dxfId="380" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="720" operator="equal">
       <formula>$P306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N311">
-    <cfRule type="cellIs" dxfId="379" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="714" operator="equal">
       <formula>$N305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q311">
-    <cfRule type="cellIs" dxfId="378" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="712" operator="equal">
       <formula>$Q305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R311">
-    <cfRule type="cellIs" dxfId="377" priority="710" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="711" operator="equal">
       <formula>$R305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P311">
-    <cfRule type="cellIs" dxfId="376" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="715" operator="equal">
       <formula>$P305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P312">
-    <cfRule type="cellIs" dxfId="375" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="705" operator="equal">
       <formula>$P306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N312">
-    <cfRule type="cellIs" dxfId="374" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="704" operator="equal">
       <formula>$N306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q312">
-    <cfRule type="cellIs" dxfId="373" priority="701" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="702" operator="equal">
       <formula>$Q306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R312">
-    <cfRule type="cellIs" dxfId="372" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="701" operator="equal">
       <formula>$R306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N313">
-    <cfRule type="cellIs" dxfId="371" priority="698" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="699" operator="equal">
       <formula>$N307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q313">
-    <cfRule type="cellIs" dxfId="370" priority="696" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="697" operator="equal">
       <formula>$Q307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R313">
-    <cfRule type="cellIs" dxfId="369" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="696" operator="equal">
       <formula>$R307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P313">
-    <cfRule type="cellIs" dxfId="368" priority="699" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="700" operator="equal">
       <formula>$P307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N314">
-    <cfRule type="cellIs" dxfId="367" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="694" operator="equal">
       <formula>$N308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q314">
-    <cfRule type="cellIs" dxfId="366" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="692" operator="equal">
       <formula>$Q308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R314">
-    <cfRule type="cellIs" dxfId="365" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="691" operator="equal">
       <formula>$R308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P314">
-    <cfRule type="cellIs" dxfId="364" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="695" operator="equal">
       <formula>$P308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N316">
-    <cfRule type="cellIs" dxfId="363" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="689" operator="equal">
       <formula>$N309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q316">
-    <cfRule type="cellIs" dxfId="362" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="687" operator="equal">
       <formula>$Q309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R316">
-    <cfRule type="cellIs" dxfId="361" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="686" operator="equal">
       <formula>$R309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P316">
-    <cfRule type="cellIs" dxfId="360" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="690" operator="equal">
       <formula>$P309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N315">
-    <cfRule type="cellIs" dxfId="359" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="684" operator="equal">
       <formula>$N308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q315">
-    <cfRule type="cellIs" dxfId="358" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="682" operator="equal">
       <formula>$Q308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R315">
-    <cfRule type="cellIs" dxfId="357" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="681" operator="equal">
       <formula>$R308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P315">
-    <cfRule type="cellIs" dxfId="356" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="685" operator="equal">
       <formula>$P308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P310">
-    <cfRule type="cellIs" dxfId="355" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="680" operator="equal">
       <formula>$P309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q310">
-    <cfRule type="cellIs" dxfId="354" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="679" operator="equal">
       <formula>$Q309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R310">
-    <cfRule type="cellIs" dxfId="353" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="678" operator="equal">
       <formula>$R309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N310">
-    <cfRule type="cellIs" dxfId="352" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="676" operator="equal">
       <formula>$N309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X184">
-    <cfRule type="cellIs" dxfId="351" priority="1262" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="1263" operator="equal">
       <formula>$X179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N184 B184 B15">
-    <cfRule type="cellIs" dxfId="350" priority="1265" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="1266" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q184">
-    <cfRule type="cellIs" dxfId="349" priority="1268" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="1269" operator="equal">
       <formula>$Q179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R184">
-    <cfRule type="cellIs" dxfId="348" priority="1269" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="1270" operator="equal">
       <formula>$R179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P184">
-    <cfRule type="cellIs" dxfId="347" priority="1270" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="1271" operator="equal">
       <formula>$P179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12 P91">
-    <cfRule type="cellIs" dxfId="346" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="668" operator="equal">
       <formula>$P9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="cellIs" dxfId="345" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="643" operator="equal">
       <formula>$R10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="cellIs" dxfId="344" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="639" operator="equal">
       <formula>$R12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="cellIs" dxfId="343" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="638" operator="equal">
       <formula>$R13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="342" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="637" operator="equal">
       <formula>$R14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12 X197 X165 X231 X250">
-    <cfRule type="cellIs" dxfId="341" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="636" operator="equal">
       <formula>$X10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="340" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="635" operator="equal">
       <formula>$X12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="339" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="634" operator="equal">
       <formula>$X13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="338" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="633" operator="equal">
       <formula>$X14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="cellIs" dxfId="337" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="632" operator="equal">
       <formula>$P12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="cellIs" dxfId="336" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="631" operator="equal">
       <formula>$P13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="cellIs" dxfId="335" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="630" operator="equal">
       <formula>$P14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="334" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="629" operator="equal">
       <formula>$Q10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="cellIs" dxfId="333" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="628" operator="equal">
       <formula>$Q12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="332" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="627" operator="equal">
       <formula>$Q13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="cellIs" dxfId="331" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="626" operator="equal">
       <formula>$Q14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="330" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="619" operator="equal">
       <formula>$N10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="cellIs" dxfId="329" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="618" operator="equal">
       <formula>$N12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="328" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="617" operator="equal">
       <formula>$N13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="327" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="616" operator="equal">
       <formula>$N14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="326" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="615" operator="equal">
       <formula>$N6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="325" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="614" operator="equal">
       <formula>$N7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="324" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="613" operator="equal">
       <formula>$N8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q278">
-    <cfRule type="cellIs" dxfId="323" priority="1278" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="1279" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R278">
-    <cfRule type="cellIs" dxfId="322" priority="1280" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="1281" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P278">
-    <cfRule type="cellIs" dxfId="321" priority="1282" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="1283" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P169">
-    <cfRule type="cellIs" dxfId="320" priority="1292" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="1293" operator="equal">
       <formula>$P146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X202">
-    <cfRule type="cellIs" dxfId="319" priority="1294" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="1295" operator="equal">
       <formula>$X146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X107">
-    <cfRule type="cellIs" dxfId="318" priority="1306" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="1307" operator="equal">
       <formula>$X105</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149">
-    <cfRule type="cellIs" dxfId="317" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="566" operator="equal">
       <formula>$N147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N147">
-    <cfRule type="cellIs" dxfId="316" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="564" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P147">
-    <cfRule type="cellIs" dxfId="315" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="565" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X147">
-    <cfRule type="cellIs" dxfId="314" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="573" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X149">
-    <cfRule type="cellIs" dxfId="313" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="574" operator="equal">
       <formula>$X147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148:Q150">
-    <cfRule type="cellIs" dxfId="312" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="559" operator="equal">
       <formula>$Q147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R147:R150">
-    <cfRule type="cellIs" dxfId="311" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="558" operator="equal">
       <formula>$R146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P147:P150">
-    <cfRule type="cellIs" dxfId="310" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="560" operator="equal">
       <formula>$P146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N148:N149">
-    <cfRule type="cellIs" dxfId="309" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="557" operator="equal">
       <formula>$N147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148:Q150">
-    <cfRule type="cellIs" dxfId="308" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="555" operator="equal">
       <formula>$Q147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R147:R150">
-    <cfRule type="cellIs" dxfId="307" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="554" operator="equal">
       <formula>$R146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="cellIs" dxfId="306" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="553" operator="equal">
       <formula>$Q147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R147:R148">
-    <cfRule type="cellIs" dxfId="305" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="552" operator="equal">
       <formula>$R146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="cellIs" dxfId="304" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="551" operator="equal">
       <formula>$Q147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R147:R148">
-    <cfRule type="cellIs" dxfId="303" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="550" operator="equal">
       <formula>$R146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X162">
-    <cfRule type="cellIs" dxfId="302" priority="1310" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="1311" operator="equal">
       <formula>$X277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="cellIs" dxfId="301" priority="1317" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="1318" operator="equal">
       <formula>$N3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N163">
-    <cfRule type="cellIs" dxfId="300" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="477" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P163">
-    <cfRule type="cellIs" dxfId="299" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="478" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B164">
-    <cfRule type="cellIs" dxfId="298" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="475" operator="equal">
       <formula>$N63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X163">
-    <cfRule type="cellIs" dxfId="297" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="486" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X164">
-    <cfRule type="cellIs" dxfId="296" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="474" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q163">
-    <cfRule type="cellIs" dxfId="295" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="488" operator="equal">
       <formula>$Q271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R163">
-    <cfRule type="cellIs" dxfId="294" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="489" operator="equal">
       <formula>$R271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P163">
-    <cfRule type="cellIs" dxfId="293" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="490" operator="equal">
       <formula>$P271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X75">
-    <cfRule type="cellIs" dxfId="292" priority="1323" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="1324" operator="equal">
       <formula>$X74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X84">
-    <cfRule type="cellIs" dxfId="291" priority="1345" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="1346" operator="equal">
       <formula>$X82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N83">
-    <cfRule type="cellIs" dxfId="290" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="408" operator="equal">
       <formula>$N82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q83">
-    <cfRule type="cellIs" dxfId="289" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="406" operator="equal">
       <formula>$Q82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R83">
-    <cfRule type="cellIs" dxfId="288" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="405" operator="equal">
       <formula>$R82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P83">
-    <cfRule type="cellIs" dxfId="287" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="409" operator="equal">
       <formula>$P82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="cellIs" dxfId="286" priority="1346" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="1347" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="cellIs" dxfId="285" priority="1348" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="1349" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2 B2">
-    <cfRule type="cellIs" dxfId="284" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="382" operator="equal">
       <formula>$N289</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="cellIs" dxfId="283" priority="1359" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="1360" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N106">
-    <cfRule type="cellIs" dxfId="282" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="380" operator="equal">
       <formula>$N104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q106">
-    <cfRule type="cellIs" dxfId="281" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="378" operator="equal">
       <formula>$Q104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R106">
-    <cfRule type="cellIs" dxfId="280" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="377" operator="equal">
       <formula>$R104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P106">
-    <cfRule type="cellIs" dxfId="279" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="381" operator="equal">
       <formula>$P104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q151">
-    <cfRule type="cellIs" dxfId="278" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="365" operator="equal">
       <formula>$Q150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q151">
-    <cfRule type="cellIs" dxfId="277" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="364" operator="equal">
       <formula>$Q150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q151">
-    <cfRule type="cellIs" dxfId="276" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="363" operator="equal">
       <formula>$Q150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P151">
-    <cfRule type="cellIs" dxfId="275" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="360" operator="equal">
       <formula>$P150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P151">
-    <cfRule type="cellIs" dxfId="274" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="359" operator="equal">
       <formula>$P150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N151">
-    <cfRule type="cellIs" dxfId="273" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="356" operator="equal">
       <formula>$N150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N230">
-    <cfRule type="cellIs" dxfId="272" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="351" operator="equal">
       <formula>$N228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q230">
-    <cfRule type="cellIs" dxfId="271" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="349" operator="equal">
       <formula>$Q228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R230">
-    <cfRule type="cellIs" dxfId="270" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="348" operator="equal">
       <formula>$R228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P230">
-    <cfRule type="cellIs" dxfId="269" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="352" operator="equal">
       <formula>$P228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X230">
-    <cfRule type="cellIs" dxfId="268" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="353" operator="equal">
       <formula>$X228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="267" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="347" operator="equal">
       <formula>$N169</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="cellIs" dxfId="266" priority="1437" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="1438" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q76">
-    <cfRule type="cellIs" dxfId="265" priority="1441" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="1442" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R76">
-    <cfRule type="cellIs" dxfId="264" priority="1443" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="1444" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P76">
-    <cfRule type="cellIs" dxfId="263" priority="1450" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="1451" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X76">
-    <cfRule type="cellIs" dxfId="262" priority="1452" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="1453" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R149">
-    <cfRule type="cellIs" dxfId="261" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="346" operator="equal">
       <formula>$R148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R149">
-    <cfRule type="cellIs" dxfId="260" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="345" operator="equal">
       <formula>$R148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R150">
-    <cfRule type="cellIs" dxfId="259" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="344" operator="equal">
       <formula>$R149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R150">
-    <cfRule type="cellIs" dxfId="258" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="343" operator="equal">
       <formula>$R149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N249">
-    <cfRule type="cellIs" dxfId="257" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="333" operator="equal">
       <formula>$N248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q249">
-    <cfRule type="cellIs" dxfId="256" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="331" operator="equal">
       <formula>$Q248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R249">
-    <cfRule type="cellIs" dxfId="255" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="330" operator="equal">
       <formula>$R248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P249">
-    <cfRule type="cellIs" dxfId="254" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="334" operator="equal">
       <formula>$P248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X249">
-    <cfRule type="cellIs" dxfId="253" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="329" operator="equal">
       <formula>$X248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R352:R371">
-    <cfRule type="cellIs" dxfId="252" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="294" operator="equal">
       <formula>$R351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N349">
-    <cfRule type="cellIs" dxfId="251" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="317" operator="equal">
       <formula>$N348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q349">
-    <cfRule type="cellIs" dxfId="250" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="315" operator="equal">
       <formula>$Q348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R349">
-    <cfRule type="cellIs" dxfId="249" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="314" operator="equal">
       <formula>$R348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P349">
-    <cfRule type="cellIs" dxfId="248" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="318" operator="equal">
       <formula>$P348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q352:Q371">
-    <cfRule type="cellIs" dxfId="247" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="295" operator="equal">
       <formula>$Q351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P352:P371">
-    <cfRule type="cellIs" dxfId="246" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="297" operator="equal">
       <formula>$P351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N351">
-    <cfRule type="cellIs" dxfId="245" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="305" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q351">
-    <cfRule type="cellIs" dxfId="244" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="303" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R351">
-    <cfRule type="cellIs" dxfId="243" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="302" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P351">
-    <cfRule type="cellIs" dxfId="242" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="306" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N350">
-    <cfRule type="cellIs" dxfId="241" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="301" operator="equal">
       <formula>$N349</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R372">
-    <cfRule type="cellIs" dxfId="240" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="290" operator="equal">
       <formula>$R371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q372">
-    <cfRule type="cellIs" dxfId="239" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="291" operator="equal">
       <formula>$Q371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P372">
-    <cfRule type="cellIs" dxfId="238" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="293" operator="equal">
       <formula>$P371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R373">
-    <cfRule type="cellIs" dxfId="237" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="286" operator="equal">
       <formula>$R372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q373">
-    <cfRule type="cellIs" dxfId="236" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="287" operator="equal">
       <formula>$Q372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P373">
-    <cfRule type="cellIs" dxfId="235" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="289" operator="equal">
       <formula>$P372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R375">
-    <cfRule type="cellIs" dxfId="234" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="282" operator="equal">
       <formula>$R373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q375">
-    <cfRule type="cellIs" dxfId="233" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="283" operator="equal">
       <formula>$Q373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P375">
-    <cfRule type="cellIs" dxfId="232" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="285" operator="equal">
       <formula>$P373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R374">
-    <cfRule type="cellIs" dxfId="231" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="278" operator="equal">
       <formula>$R372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q374">
-    <cfRule type="cellIs" dxfId="230" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="279" operator="equal">
       <formula>$Q372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P374">
-    <cfRule type="cellIs" dxfId="229" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="281" operator="equal">
       <formula>$P372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N352:N375">
-    <cfRule type="cellIs" dxfId="228" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="277" operator="equal">
       <formula>$N351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O203:O207 O256:O260 O125:O142 O262:O271 O144:O146 O273:O276 O345:O348 O321:O326 O4:O10 O17:O31 O279:O309 O33:O74 O148:O150 O99:O105 O108:O123 O198:O199 O185:O191 O170:O183 O164:O168 O193:O196 O209:O229 O77:O82 O232:O248 O251:O254 O85:O88 O92:O97">
-    <cfRule type="cellIs" dxfId="227" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="250" operator="equal">
       <formula>$O3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O202">
-    <cfRule type="cellIs" dxfId="226" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="251" operator="equal">
       <formula>$O2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O124">
-    <cfRule type="cellIs" dxfId="225" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="252" operator="equal">
       <formula>$O97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O98">
-    <cfRule type="cellIs" dxfId="224" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="253" operator="equal">
       <formula>$O142</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O143">
-    <cfRule type="cellIs" dxfId="223" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="254" operator="equal">
       <formula>$O123</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O272">
-    <cfRule type="cellIs" dxfId="222" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="255" operator="equal">
       <formula>$O31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O208">
-    <cfRule type="cellIs" dxfId="221" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="256" operator="equal">
       <formula>$O74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="220" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="257" operator="equal">
       <formula>$O207</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O75">
-    <cfRule type="cellIs" dxfId="219" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="258" operator="equal">
       <formula>$O254</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O255">
-    <cfRule type="cellIs" dxfId="218" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="259" operator="equal">
       <formula>$O82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O162">
-    <cfRule type="cellIs" dxfId="217" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="260" operator="equal">
       <formula>$O75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O277">
-    <cfRule type="cellIs" dxfId="216" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="261" operator="equal">
       <formula>$O260</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O84">
-    <cfRule type="cellIs" dxfId="215" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="262" operator="equal">
       <formula>$O271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O169">
-    <cfRule type="cellIs" dxfId="214" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="263" operator="equal">
       <formula>$O146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="cellIs" dxfId="213" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="264" operator="equal">
       <formula>$O276</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O261">
-    <cfRule type="cellIs" dxfId="212" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="265" operator="equal">
       <formula>$O277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O200:O201">
-    <cfRule type="cellIs" dxfId="211" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="266" operator="equal">
       <formula>$O191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O192">
-    <cfRule type="cellIs" dxfId="210" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="267" operator="equal">
       <formula>$O200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O327">
-    <cfRule type="cellIs" dxfId="209" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="249" operator="equal">
       <formula>$O326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O344">
-    <cfRule type="cellIs" dxfId="208" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="268" operator="equal">
       <formula>$O326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O328">
-    <cfRule type="cellIs" dxfId="207" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="248" operator="equal">
       <formula>$O327</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O338">
-    <cfRule type="cellIs" dxfId="206" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="247" operator="equal">
       <formula>$O328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O329 O107 O197 O231 O250">
-    <cfRule type="cellIs" dxfId="205" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="246" operator="equal">
       <formula>$O105</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O335 O16">
-    <cfRule type="cellIs" dxfId="204" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="245" operator="equal">
       <formula>$O10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O336">
-    <cfRule type="cellIs" dxfId="203" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="244" operator="equal">
       <formula>$O335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O337">
-    <cfRule type="cellIs" dxfId="202" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="243" operator="equal">
       <formula>$O335</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O330">
-    <cfRule type="cellIs" dxfId="201" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="242" operator="equal">
       <formula>$O326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O331">
-    <cfRule type="cellIs" dxfId="200" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="241" operator="equal">
       <formula>$O330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O332">
-    <cfRule type="cellIs" dxfId="199" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="240" operator="equal">
       <formula>$O330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O333">
-    <cfRule type="cellIs" dxfId="198" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="239" operator="equal">
       <formula>$O332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O334">
-    <cfRule type="cellIs" dxfId="197" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="238" operator="equal">
       <formula>$O332</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O339">
-    <cfRule type="cellIs" dxfId="196" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="237" operator="equal">
       <formula>$O329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O342">
-    <cfRule type="cellIs" dxfId="195" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="236" operator="equal">
       <formula>$O330</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O343">
-    <cfRule type="cellIs" dxfId="194" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="235" operator="equal">
       <formula>$O331</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O340">
-    <cfRule type="cellIs" dxfId="193" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="234" operator="equal">
       <formula>$O328</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O341">
-    <cfRule type="cellIs" dxfId="192" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="233" operator="equal">
       <formula>$O329</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O319:O320">
-    <cfRule type="cellIs" dxfId="191" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="232" operator="equal">
       <formula>$O308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O318">
-    <cfRule type="cellIs" dxfId="190" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="231" operator="equal">
       <formula>$O307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O317">
-    <cfRule type="cellIs" dxfId="189" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="230" operator="equal">
       <formula>$O306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O311">
-    <cfRule type="cellIs" dxfId="188" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="229" operator="equal">
       <formula>$O305</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O312">
-    <cfRule type="cellIs" dxfId="187" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="228" operator="equal">
       <formula>$O306</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O313">
-    <cfRule type="cellIs" dxfId="186" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="227" operator="equal">
       <formula>$O307</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O314">
-    <cfRule type="cellIs" dxfId="185" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="226" operator="equal">
       <formula>$O308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O316">
-    <cfRule type="cellIs" dxfId="184" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="225" operator="equal">
       <formula>$O309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O315">
-    <cfRule type="cellIs" dxfId="183" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="224" operator="equal">
       <formula>$O308</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O310">
-    <cfRule type="cellIs" dxfId="182" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="223" operator="equal">
       <formula>$O309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O184">
-    <cfRule type="cellIs" dxfId="181" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="269" operator="equal">
       <formula>$O179</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="180" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="222" operator="equal">
       <formula>$O10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" dxfId="179" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="221" operator="equal">
       <formula>$O12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" dxfId="178" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="220" operator="equal">
       <formula>$O13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="177" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="219" operator="equal">
       <formula>$O14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O278">
-    <cfRule type="cellIs" dxfId="176" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="270" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O147">
-    <cfRule type="cellIs" dxfId="175" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="218" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O149">
-    <cfRule type="cellIs" dxfId="174" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="216" operator="equal">
       <formula>$O148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O148:O149">
-    <cfRule type="cellIs" dxfId="173" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="217" operator="equal">
       <formula>$O147</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O147">
-    <cfRule type="cellIs" dxfId="172" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="215" operator="equal">
       <formula>$O146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O147">
-    <cfRule type="cellIs" dxfId="171" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="214" operator="equal">
       <formula>$O146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O163">
-    <cfRule type="cellIs" dxfId="170" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="213" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O163">
-    <cfRule type="cellIs" dxfId="169" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="212" operator="equal">
       <formula>$O271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O163">
-    <cfRule type="cellIs" dxfId="168" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="211" operator="equal">
       <formula>$O271</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O83">
-    <cfRule type="cellIs" dxfId="167" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="210" operator="equal">
       <formula>$O82</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O106">
-    <cfRule type="cellIs" dxfId="166" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="209" operator="equal">
       <formula>$O104</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O151">
-    <cfRule type="cellIs" dxfId="165" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="208" operator="equal">
       <formula>$O150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O230">
-    <cfRule type="cellIs" dxfId="164" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="207" operator="equal">
       <formula>$O228</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O76">
-    <cfRule type="cellIs" dxfId="163" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="271" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O249">
-    <cfRule type="cellIs" dxfId="162" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="206" operator="equal">
       <formula>$O248</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O349">
-    <cfRule type="cellIs" dxfId="161" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="203" operator="equal">
       <formula>$O348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O351">
-    <cfRule type="cellIs" dxfId="160" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="202" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O352:O371">
-    <cfRule type="cellIs" dxfId="159" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="201" operator="equal">
       <formula>$O351</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O372">
-    <cfRule type="cellIs" dxfId="158" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="200" operator="equal">
       <formula>$O371</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O373">
-    <cfRule type="cellIs" dxfId="157" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="199" operator="equal">
       <formula>$O372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O375">
-    <cfRule type="cellIs" dxfId="156" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="198" operator="equal">
       <formula>$O373</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O374">
-    <cfRule type="cellIs" dxfId="155" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="197" operator="equal">
       <formula>$O372</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q350">
-    <cfRule type="cellIs" dxfId="154" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="193" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R350">
-    <cfRule type="cellIs" dxfId="153" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="192" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P350">
-    <cfRule type="cellIs" dxfId="152" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="194" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O350">
-    <cfRule type="cellIs" dxfId="151" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="195" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="cellIs" dxfId="150" priority="1455" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="1456" operator="equal">
       <formula>$X10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="149" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="190" operator="equal">
       <formula>$O10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="cellIs" dxfId="148" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="189" operator="equal">
       <formula>$Q10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="147" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="188" operator="equal">
       <formula>$R10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="146" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="191" operator="equal">
       <formula>$P10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="145" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="187" operator="equal">
       <formula>$X10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N376">
-    <cfRule type="cellIs" dxfId="144" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="160" operator="equal">
       <formula>$N359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q376">
-    <cfRule type="cellIs" dxfId="143" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="161" operator="equal">
       <formula>$Q359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R376">
-    <cfRule type="cellIs" dxfId="142" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="162" operator="equal">
       <formula>$R359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P376">
-    <cfRule type="cellIs" dxfId="141" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="163" operator="equal">
       <formula>$P359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O376">
-    <cfRule type="cellIs" dxfId="140" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="159" operator="equal">
       <formula>$O359</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X382">
-    <cfRule type="cellIs" dxfId="139" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="155" operator="equal">
       <formula>$X381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O384:O385">
-    <cfRule type="cellIs" dxfId="138" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="153" operator="equal">
       <formula>$O383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q384:Q385">
-    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="152" operator="equal">
       <formula>$Q383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R384:R385">
-    <cfRule type="cellIs" dxfId="136" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="151" operator="equal">
       <formula>$R383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O383">
-    <cfRule type="cellIs" dxfId="135" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="149" operator="equal">
       <formula>$O381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q383">
-    <cfRule type="cellIs" dxfId="134" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="148" operator="equal">
       <formula>$Q381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R378:R379">
-    <cfRule type="cellIs" dxfId="133" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="147" operator="equal">
       <formula>$R377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R380">
-    <cfRule type="cellIs" dxfId="132" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="146" operator="equal">
       <formula>$R379</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N377">
-    <cfRule type="cellIs" dxfId="131" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="144" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N386:N387">
-    <cfRule type="cellIs" dxfId="130" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="141" operator="equal">
       <formula>$N385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O386:O387">
-    <cfRule type="cellIs" dxfId="129" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="140" operator="equal">
       <formula>$O385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q386:Q387">
-    <cfRule type="cellIs" dxfId="128" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="139" operator="equal">
       <formula>$Q385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R386:R387">
-    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="138" operator="equal">
       <formula>$R385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P386:P387">
-    <cfRule type="cellIs" dxfId="126" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="142" operator="equal">
       <formula>$P385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R382:R383">
-    <cfRule type="cellIs" dxfId="125" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="137" operator="equal">
       <formula>$R381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B377">
-    <cfRule type="cellIs" dxfId="124" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>$N385</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O382">
-    <cfRule type="cellIs" dxfId="123" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1457" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q382">
-    <cfRule type="cellIs" dxfId="122" priority="1457" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="1458" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N378">
-    <cfRule type="cellIs" dxfId="121" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="133" operator="equal">
       <formula>$N377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N379">
-    <cfRule type="cellIs" dxfId="120" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
       <formula>$N378</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N380">
-    <cfRule type="cellIs" dxfId="119" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="131" operator="equal">
       <formula>$N379</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N381">
-    <cfRule type="cellIs" dxfId="118" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
       <formula>$N380</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N382">
-    <cfRule type="cellIs" dxfId="117" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="129" operator="equal">
       <formula>$N381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N383">
-    <cfRule type="cellIs" dxfId="116" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="128" operator="equal">
       <formula>$N382</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N384">
-    <cfRule type="cellIs" dxfId="115" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="127" operator="equal">
       <formula>$N383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N385">
-    <cfRule type="cellIs" dxfId="114" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
       <formula>$N384</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P381">
-    <cfRule type="cellIs" dxfId="113" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="122" operator="equal">
       <formula>$P379</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P383">
-    <cfRule type="cellIs" dxfId="112" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="121" operator="equal">
       <formula>$P382</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P382">
-    <cfRule type="cellIs" dxfId="111" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="120" operator="equal">
       <formula>$P381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P384">
-    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="119" operator="equal">
       <formula>$P383</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P385">
-    <cfRule type="cellIs" dxfId="109" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="118" operator="equal">
       <formula>$P384</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="108" priority="1459" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="1460" operator="equal">
       <formula>$N88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q91">
-    <cfRule type="cellIs" dxfId="107" priority="1462" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1463" operator="equal">
       <formula>$Q88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R91">
-    <cfRule type="cellIs" dxfId="106" priority="1465" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="1466" operator="equal">
       <formula>$R88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X91">
-    <cfRule type="cellIs" dxfId="105" priority="1478" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1479" operator="equal">
       <formula>$X88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O91">
-    <cfRule type="cellIs" dxfId="104" priority="1482" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1483" operator="equal">
       <formula>$O88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O89">
-    <cfRule type="cellIs" dxfId="103" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="116" operator="equal">
       <formula>$O88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R90">
-    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="115" operator="equal">
       <formula>$R88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R89">
-    <cfRule type="cellIs" dxfId="101" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="114" operator="equal">
       <formula>$R286</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q89">
-    <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="113" operator="equal">
       <formula>$Q286</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P89">
-    <cfRule type="cellIs" dxfId="99" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="112" operator="equal">
       <formula>$P286</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N89">
-    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="111" operator="equal">
       <formula>$N286</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q90">
-    <cfRule type="cellIs" dxfId="97" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="110" operator="equal">
       <formula>$Q89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P90">
-    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="109" operator="equal">
       <formula>$P89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O90">
-    <cfRule type="cellIs" dxfId="95" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="108" operator="equal">
       <formula>$O89</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X88">
-    <cfRule type="cellIs" dxfId="94" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="104" operator="equal">
       <formula>$X87</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q153:Q156">
-    <cfRule type="cellIs" dxfId="93" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
       <formula>$Q152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R153:R156">
-    <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="98" operator="equal">
       <formula>$R152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P153:P156">
-    <cfRule type="cellIs" dxfId="91" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="100" operator="equal">
       <formula>$P152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:B156 N155:N156">
-    <cfRule type="cellIs" dxfId="90" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="83" operator="equal">
       <formula>$N154</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O153:O156">
-    <cfRule type="cellIs" dxfId="89" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
       <formula>$O152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X155:X156">
-    <cfRule type="cellIs" dxfId="88" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
       <formula>$X154</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157 N157">
-    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="79" operator="equal">
       <formula>$N155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O157">
-    <cfRule type="cellIs" dxfId="86" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
       <formula>$O155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q157">
-    <cfRule type="cellIs" dxfId="85" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="77" operator="equal">
       <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R157">
-    <cfRule type="cellIs" dxfId="84" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P157">
-    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159 N159">
-    <cfRule type="cellIs" dxfId="82" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
       <formula>$N155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O159">
-    <cfRule type="cellIs" dxfId="81" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
       <formula>$O155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q159">
-    <cfRule type="cellIs" dxfId="80" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
       <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R159">
-    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="71" operator="equal">
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P159">
-    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N160 B160">
-    <cfRule type="cellIs" dxfId="77" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="84" operator="equal">
       <formula>$N155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O160">
-    <cfRule type="cellIs" dxfId="76" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="85" operator="equal">
       <formula>$O155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q160">
-    <cfRule type="cellIs" dxfId="75" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="86" operator="equal">
       <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R160">
-    <cfRule type="cellIs" dxfId="74" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P160">
-    <cfRule type="cellIs" dxfId="73" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="88" operator="equal">
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P158">
-    <cfRule type="cellIs" dxfId="72" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="70" operator="equal">
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X157">
-    <cfRule type="cellIs" dxfId="71" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
       <formula>$X155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="cellIs" dxfId="70" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
       <formula>$N152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X152">
-    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X154">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
       <formula>$X152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O154">
-    <cfRule type="cellIs" dxfId="67" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
       <formula>$O153</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N153:N154">
-    <cfRule type="cellIs" dxfId="66" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="61" operator="equal">
       <formula>$N152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O153:O154">
-    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="60" operator="equal">
       <formula>$O152</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="89" operator="equal">
       <formula>$N13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="63" priority="89" operator="equal">
+  <conditionalFormatting sqref="B161">
+    <cfRule type="cellIs" dxfId="63" priority="91" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="62" priority="90" operator="equal">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="Q161:Q162">
+    <cfRule type="cellIs" dxfId="62" priority="56" operator="equal">
+      <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q161:Q162">
@@ -42791,9 +42785,9 @@
       <formula>$Q155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q161:Q162">
+  <conditionalFormatting sqref="P161:P162">
     <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
-      <formula>$Q155</formula>
+      <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P161:P162">
@@ -42801,19 +42795,19 @@
       <formula>$P155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P161:P162">
+  <conditionalFormatting sqref="O161:O162">
     <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
-      <formula>$P155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O161:O162">
+      <formula>$O155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N161:N162">
     <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
-      <formula>$O155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N161:N162">
+      <formula>$N155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R154">
     <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
-      <formula>$N155</formula>
+      <formula>$R153</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R154">
@@ -42821,9 +42815,9 @@
       <formula>$R153</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R154">
+  <conditionalFormatting sqref="R161:R162">
     <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
-      <formula>$R153</formula>
+      <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R161:R162">
@@ -42841,179 +42835,179 @@
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R161:R162">
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+  <conditionalFormatting sqref="N158 B158">
+    <cfRule type="cellIs" dxfId="49" priority="92" operator="equal">
+      <formula>$N155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O158">
+    <cfRule type="cellIs" dxfId="48" priority="93" operator="equal">
+      <formula>$O155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q158">
+    <cfRule type="cellIs" dxfId="47" priority="94" operator="equal">
+      <formula>$Q155</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R158">
+    <cfRule type="cellIs" dxfId="46" priority="95" operator="equal">
       <formula>$R155</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158 B158">
-    <cfRule type="cellIs" dxfId="48" priority="91" operator="equal">
-      <formula>$N155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O158">
-    <cfRule type="cellIs" dxfId="47" priority="92" operator="equal">
-      <formula>$O155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q158">
-    <cfRule type="cellIs" dxfId="46" priority="93" operator="equal">
-      <formula>$Q155</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R158">
-    <cfRule type="cellIs" dxfId="45" priority="94" operator="equal">
-      <formula>$R155</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="X159">
-    <cfRule type="cellIs" dxfId="44" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="96" operator="equal">
       <formula>$X155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X158">
-    <cfRule type="cellIs" dxfId="43" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="97" operator="equal">
       <formula>$X155</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R152">
-    <cfRule type="cellIs" dxfId="42" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="102" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X160">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+      <formula>$X156</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X161:X162">
     <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>$X156</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X161:X162">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>$X157</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N388:N389">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+      <formula>$N387</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O388:O389">
     <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
-      <formula>$N387</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O388:O389">
+      <formula>$O387</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q388:Q389">
     <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
-      <formula>$O387</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q388:Q389">
+      <formula>$Q387</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R388:R389">
     <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
-      <formula>$Q387</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R388:R389">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
       <formula>$R387</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P388:P389">
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
       <formula>$P387</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N391">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>$N388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O391">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
       <formula>$O388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q391">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>$Q388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R391">
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>$R388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P391">
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>$P388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N390">
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
       <formula>$N388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O390">
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
       <formula>$O388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q390">
-    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>$Q388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R390">
-    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>$R388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P390">
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
       <formula>$P388</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X90">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>$X89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>$X89</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N90">
+      <formula>$N89</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>$N88</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>$N89</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
-      <formula>$N88</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="Q147">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>$N89</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q147">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X169">
-    <cfRule type="cellIs" dxfId="19" priority="1485" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1486" operator="equal">
       <formula>$X162</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X148">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X148">
+      <formula>$X147</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X151">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>$X147</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X151">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>$X150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X153">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>$X152</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R149">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>$X152</formula>
+      <formula>$R148</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R149">
@@ -43021,9 +43015,9 @@
       <formula>$R148</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R149">
+  <conditionalFormatting sqref="R150">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>$R148</formula>
+      <formula>$R149</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R150">
@@ -43031,9 +43025,9 @@
       <formula>$R149</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R150">
+  <conditionalFormatting sqref="R151">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>$R149</formula>
+      <formula>$R150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R151">
@@ -43051,19 +43045,19 @@
       <formula>$R150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R151">
+  <conditionalFormatting sqref="N152">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>$R150</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N152">
+      <formula>$N151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O152">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>$N151</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O152">
+      <formula>$O151</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P152">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>$O151</formula>
+      <formula>$P151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P152">
@@ -43071,9 +43065,9 @@
       <formula>$P151</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P152">
+  <conditionalFormatting sqref="Q152">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$P151</formula>
+      <formula>$Q151</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q152">
@@ -43086,9 +43080,9 @@
       <formula>$Q151</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q152">
+  <conditionalFormatting sqref="B152">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>$Q151</formula>
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
+++ b/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4916A0F9-7849-4683-91EE-59037570388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAEA0F8-A509-4FDA-A925-EAFB36E4195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7945" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7945" uniqueCount="1491">
   <si>
     <t>■</t>
   </si>
@@ -4659,9 +4659,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nablarch.db.minimumIdle</t>
-  </si>
-  <si>
     <t>connectionTimeout</t>
   </si>
   <si>
@@ -4770,26 +4767,6 @@
   </si>
   <si>
     <t>minimumIdle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Maximum size that the pool is allowed to reach</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Maximum number of milliseconds that a client will wait for a connection from the pool.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Maximum amount of time (in milliseconds) that a connection is allowed to sit idle in the pool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Maximum lifetime of a connection in the pool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Maximum number of milliseconds that the pool will wait for a connection to be validated as alive</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4880,11 +4857,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>XXX\src\main\resources\data-source.xml(JSR352-compliant batch project, Nablarch batch project, JSR352-compliant batch project)
-XXX\src\env\dev\resources\db-for-webui_dev.xml(Web project, RESTful Web service project)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>file:./src/main/format(Web project)
 file:./src/main/jib/var/nablarch/format(Web project for Container)</t>
     <phoneticPr fontId="1"/>
@@ -4896,6 +4868,39 @@
   </si>
   <si>
     <t>Web</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web, RESTful Web service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nablarch.db.minimumIdle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXX\src\main\resources\data-source.xml(JSR352-compliant batch project, Nablarch batch project, Nablarch batch project for Container)
+XXX\src\env\dev\resources\db-for-webui_dev.xml(Web project, RESTful Web service project)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Minimum idle connection size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maximum number of time that a client will wait for a connection from the pool (milliseconds)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maximum amount of time that a connection is allowed to sit idle in the pool (milliseconds)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maximum lifetime of a connection in the pool (milliseconds)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maximum number of time that the pool will wait for a connection to be validated as alive (milliseconds)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12383,7 +12388,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D4" s="61"/>
       <c r="E4" s="61"/>
@@ -12416,7 +12421,7 @@
       <c r="A5" s="61"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
@@ -13203,8 +13208,8 @@
   </sheetPr>
   <dimension ref="A1:X391"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="15" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
       <selection pane="bottomRight"/>
@@ -13214,9 +13219,9 @@
   <cols>
     <col min="1" max="1" width="4.75" style="11" customWidth="1" outlineLevel="1"/>
     <col min="2" max="2" width="14" style="54" customWidth="1"/>
-    <col min="3" max="7" width="6.375" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="13" width="6.375" style="54" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="39.375" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="13" width="6.375" style="54" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="39.375" style="54" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="29.375" style="11" customWidth="1"/>
     <col min="16" max="16" width="26.75" style="11" customWidth="1"/>
     <col min="17" max="17" width="33.375" style="11" customWidth="1"/>
@@ -13691,7 +13696,7 @@
         <v>1404</v>
       </c>
       <c r="W7" s="36" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="X7" s="25" t="s">
         <v>44</v>
@@ -16412,7 +16417,7 @@
         <v>201</v>
       </c>
       <c r="X45" s="25" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -19399,13 +19404,13 @@
       <c r="L88" s="23"/>
       <c r="M88" s="23"/>
       <c r="N88" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>1229</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>197</v>
@@ -19429,7 +19434,7 @@
         <v>1286</v>
       </c>
       <c r="X88" s="32" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="108" x14ac:dyDescent="0.15">
@@ -19474,13 +19479,13 @@
         <v>1325</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>1410</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>1411</v>
@@ -19492,7 +19497,7 @@
         <v>1413</v>
       </c>
       <c r="T89" s="34" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="U89" s="34" t="s">
         <v>1414</v>
@@ -19549,13 +19554,13 @@
         <v>1325</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>1229</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>1416</v>
@@ -19577,7 +19582,7 @@
         <v>1286</v>
       </c>
       <c r="X90" s="32" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -23270,7 +23275,7 @@
         <v>1325</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="O143" s="2" t="s">
         <v>524</v>
@@ -23552,7 +23557,7 @@
         <v>1325</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>544</v>
@@ -23561,10 +23566,10 @@
         <v>545</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="R147" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="S147" s="34" t="s">
         <v>1420</v>
@@ -23576,7 +23581,7 @@
         <v>1421</v>
       </c>
       <c r="V147" s="23" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="W147" s="36" t="s">
         <v>1268</v>
@@ -23619,7 +23624,7 @@
         <v>1325</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>544</v>
@@ -23631,7 +23636,7 @@
         <v>1419</v>
       </c>
       <c r="R148" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="S148" s="34" t="s">
         <v>1422</v>
@@ -23643,7 +23648,7 @@
         <v>1423</v>
       </c>
       <c r="V148" s="23" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="W148" s="36" t="s">
         <v>1269</v>
@@ -23686,7 +23691,7 @@
         <v>1325</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>1252</v>
@@ -23698,7 +23703,7 @@
         <v>1419</v>
       </c>
       <c r="R149" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="S149" s="34" t="s">
         <v>1424</v>
@@ -23710,7 +23715,7 @@
         <v>1425</v>
       </c>
       <c r="V149" s="23" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="W149" s="36" t="s">
         <v>1270</v>
@@ -23753,7 +23758,7 @@
         <v>1325</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>544</v>
@@ -23765,7 +23770,7 @@
         <v>1419</v>
       </c>
       <c r="R150" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="S150" s="34" t="s">
         <v>1426</v>
@@ -23777,7 +23782,7 @@
         <v>1427</v>
       </c>
       <c r="V150" s="23" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="W150" s="36" t="s">
         <v>549</v>
@@ -23820,7 +23825,7 @@
         <v>1325</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>544</v>
@@ -23832,7 +23837,7 @@
         <v>1419</v>
       </c>
       <c r="R151" s="35" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="S151" s="34" t="s">
         <v>1428</v>
@@ -23844,10 +23849,10 @@
         <v>1429</v>
       </c>
       <c r="V151" s="23" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="W151" s="36" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="X151" s="32"/>
     </row>
@@ -23873,7 +23878,7 @@
       <c r="L152" s="34"/>
       <c r="M152" s="34"/>
       <c r="N152" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>544</v>
@@ -23885,7 +23890,7 @@
         <v>1419</v>
       </c>
       <c r="R152" s="35" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="S152" s="34" t="s">
         <v>1420</v>
@@ -23897,7 +23902,7 @@
         <v>1421</v>
       </c>
       <c r="V152" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="W152" s="36" t="s">
         <v>1268</v>
@@ -23926,7 +23931,7 @@
       <c r="L153" s="34"/>
       <c r="M153" s="34"/>
       <c r="N153" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O153" s="2" t="s">
         <v>544</v>
@@ -23938,7 +23943,7 @@
         <v>1419</v>
       </c>
       <c r="R153" s="35" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="S153" s="34" t="s">
         <v>1422</v>
@@ -23950,7 +23955,7 @@
         <v>1423</v>
       </c>
       <c r="V153" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="W153" s="36" t="s">
         <v>1269</v>
@@ -23979,7 +23984,7 @@
       <c r="L154" s="34"/>
       <c r="M154" s="34"/>
       <c r="N154" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>1252</v>
@@ -23991,7 +23996,7 @@
         <v>1419</v>
       </c>
       <c r="R154" s="35" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="S154" s="34" t="s">
         <v>1424</v>
@@ -24003,7 +24008,7 @@
         <v>1425</v>
       </c>
       <c r="V154" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="W154" s="36" t="s">
         <v>1270</v>
@@ -24032,7 +24037,7 @@
       <c r="L155" s="34"/>
       <c r="M155" s="34"/>
       <c r="N155" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>544</v>
@@ -24044,7 +24049,7 @@
         <v>1419</v>
       </c>
       <c r="R155" s="35" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="S155" s="34" t="s">
         <v>1426</v>
@@ -24056,7 +24061,7 @@
         <v>1427</v>
       </c>
       <c r="V155" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="W155" s="36" t="s">
         <v>549</v>
@@ -24085,7 +24090,7 @@
       <c r="L156" s="34"/>
       <c r="M156" s="34"/>
       <c r="N156" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>544</v>
@@ -24097,7 +24102,7 @@
         <v>1419</v>
       </c>
       <c r="R156" s="35" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="S156" s="34" t="s">
         <v>1428</v>
@@ -24109,7 +24114,7 @@
         <v>1429</v>
       </c>
       <c r="V156" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="W156" s="36" t="s">
         <v>1279</v>
@@ -24138,7 +24143,7 @@
       <c r="L157" s="34"/>
       <c r="M157" s="34"/>
       <c r="N157" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>544</v>
@@ -24150,19 +24155,19 @@
         <v>1419</v>
       </c>
       <c r="R157" s="35" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="S157" s="34" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="T157" s="34" t="s">
-        <v>1461</v>
+        <v>1486</v>
       </c>
       <c r="U157" s="34" t="s">
-        <v>1430</v>
+        <v>1484</v>
       </c>
       <c r="V157" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="W157" s="36" t="s">
         <v>1279</v>
@@ -24191,7 +24196,7 @@
       <c r="L158" s="34"/>
       <c r="M158" s="34"/>
       <c r="N158" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>544</v>
@@ -24203,22 +24208,22 @@
         <v>1419</v>
       </c>
       <c r="R158" s="35" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="S158" s="34" t="s">
+        <v>1430</v>
+      </c>
+      <c r="T158" s="34" t="s">
+        <v>1487</v>
+      </c>
+      <c r="U158" s="34" t="s">
         <v>1431</v>
       </c>
-      <c r="T158" s="34" t="s">
-        <v>1462</v>
-      </c>
-      <c r="U158" s="34" t="s">
+      <c r="V158" s="34" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W158" s="36" t="s">
         <v>1432</v>
-      </c>
-      <c r="V158" s="34" t="s">
-        <v>1459</v>
-      </c>
-      <c r="W158" s="36" t="s">
-        <v>1433</v>
       </c>
       <c r="X158" s="32"/>
     </row>
@@ -24244,7 +24249,7 @@
       <c r="L159" s="34"/>
       <c r="M159" s="34"/>
       <c r="N159" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O159" s="2" t="s">
         <v>544</v>
@@ -24256,19 +24261,19 @@
         <v>1419</v>
       </c>
       <c r="R159" s="35" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="S159" s="34" t="s">
+        <v>1433</v>
+      </c>
+      <c r="T159" s="34" t="s">
+        <v>1488</v>
+      </c>
+      <c r="U159" s="34" t="s">
         <v>1434</v>
       </c>
-      <c r="T159" s="34" t="s">
-        <v>1463</v>
-      </c>
-      <c r="U159" s="34" t="s">
-        <v>1435</v>
-      </c>
       <c r="V159" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="W159" s="36" t="s">
         <v>1318</v>
@@ -24297,7 +24302,7 @@
       <c r="L160" s="34"/>
       <c r="M160" s="34"/>
       <c r="N160" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O160" s="2" t="s">
         <v>544</v>
@@ -24309,22 +24314,22 @@
         <v>1419</v>
       </c>
       <c r="R160" s="35" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="S160" s="34" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T160" s="34" t="s">
+        <v>1489</v>
+      </c>
+      <c r="U160" s="34" t="s">
         <v>1436</v>
       </c>
-      <c r="T160" s="34" t="s">
-        <v>1464</v>
-      </c>
-      <c r="U160" s="34" t="s">
+      <c r="V160" s="34" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W160" s="36" t="s">
         <v>1437</v>
-      </c>
-      <c r="V160" s="34" t="s">
-        <v>1459</v>
-      </c>
-      <c r="W160" s="36" t="s">
-        <v>1438</v>
       </c>
       <c r="X160" s="32"/>
     </row>
@@ -24350,7 +24355,7 @@
       <c r="L161" s="34"/>
       <c r="M161" s="34"/>
       <c r="N161" s="2" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>544</v>
@@ -24362,22 +24367,22 @@
         <v>1419</v>
       </c>
       <c r="R161" s="35" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="S161" s="34" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T161" s="34" t="s">
+        <v>1490</v>
+      </c>
+      <c r="U161" s="34" t="s">
         <v>1439</v>
       </c>
-      <c r="T161" s="34" t="s">
-        <v>1465</v>
-      </c>
-      <c r="U161" s="34" t="s">
+      <c r="V161" s="34" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W161" s="36" t="s">
         <v>1440</v>
-      </c>
-      <c r="V161" s="34" t="s">
-        <v>1459</v>
-      </c>
-      <c r="W161" s="36" t="s">
-        <v>1441</v>
       </c>
       <c r="X161" s="32"/>
     </row>
@@ -24387,13 +24392,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="22" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="E162" s="23" t="s">
         <v>1326</v>
@@ -24421,7 +24426,7 @@
         <v>1326</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="O162" s="2" t="s">
         <v>1254</v>
@@ -24448,7 +24453,7 @@
         <v>1404</v>
       </c>
       <c r="W162" s="36" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="X162" s="25" t="s">
         <v>1386</v>
@@ -24460,7 +24465,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="22" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="C163" s="23" t="s">
         <v>1325</v>
@@ -32292,7 +32297,7 @@
         <v>1395</v>
       </c>
       <c r="W272" s="36" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="X272" s="25" t="s">
         <v>1326</v>
@@ -40031,7 +40036,7 @@
       <c r="L386" s="70"/>
       <c r="M386" s="70"/>
       <c r="N386" s="68" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="O386" s="68" t="s">
         <v>1363</v>
@@ -40080,7 +40085,7 @@
       <c r="L387" s="70"/>
       <c r="M387" s="70"/>
       <c r="N387" s="68" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="O387" s="68" t="s">
         <v>1363</v>
@@ -40117,70 +40122,70 @@
         <v>386</v>
       </c>
       <c r="B388" s="69" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C388" s="70" t="s">
         <v>1442</v>
       </c>
-      <c r="C388" s="70" t="s">
+      <c r="D388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="M388" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="N388" s="68" t="s">
+        <v>1464</v>
+      </c>
+      <c r="O388" s="68" t="s">
+        <v>1442</v>
+      </c>
+      <c r="P388" s="68" t="s">
+        <v>1442</v>
+      </c>
+      <c r="Q388" s="68" t="s">
+        <v>1442</v>
+      </c>
+      <c r="R388" s="68" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S388" s="70" t="s">
         <v>1443</v>
       </c>
-      <c r="D388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="G388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="H388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="I388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="J388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="K388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="L388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="M388" s="70" t="s">
-        <v>1443</v>
-      </c>
-      <c r="N388" s="68" t="s">
-        <v>1470</v>
-      </c>
-      <c r="O388" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="P388" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Q388" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="R388" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="S388" s="70" t="s">
+      <c r="T388" s="70" t="s">
+        <v>1467</v>
+      </c>
+      <c r="U388" s="70" t="s">
+        <v>1471</v>
+      </c>
+      <c r="V388" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="W388" s="71" t="s">
         <v>1444</v>
-      </c>
-      <c r="T388" s="70" t="s">
-        <v>1473</v>
-      </c>
-      <c r="U388" s="70" t="s">
-        <v>1477</v>
-      </c>
-      <c r="V388" s="70" t="s">
-        <v>1472</v>
-      </c>
-      <c r="W388" s="71" t="s">
-        <v>1445</v>
       </c>
       <c r="X388" s="72"/>
     </row>
@@ -40191,67 +40196,67 @@
       </c>
       <c r="B389" s="75"/>
       <c r="C389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="K389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="L389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="M389" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="N389" s="68" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="O389" s="68" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="P389" s="68" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Q389" s="68" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="R389" s="68" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="S389" s="70" t="s">
+        <v>1445</v>
+      </c>
+      <c r="T389" s="70" t="s">
+        <v>1470</v>
+      </c>
+      <c r="U389" s="70" t="s">
+        <v>1471</v>
+      </c>
+      <c r="V389" s="70" t="s">
+        <v>1466</v>
+      </c>
+      <c r="W389" s="71" t="s">
         <v>1446</v>
-      </c>
-      <c r="T389" s="70" t="s">
-        <v>1476</v>
-      </c>
-      <c r="U389" s="70" t="s">
-        <v>1477</v>
-      </c>
-      <c r="V389" s="70" t="s">
-        <v>1472</v>
-      </c>
-      <c r="W389" s="71" t="s">
-        <v>1447</v>
       </c>
       <c r="X389" s="72"/>
     </row>
@@ -40262,61 +40267,61 @@
       </c>
       <c r="B390" s="75"/>
       <c r="C390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="K390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="L390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="M390" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="N390" s="68" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="O390" s="68" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="P390" s="68" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Q390" s="68" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="R390" s="68" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="S390" s="70" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="T390" s="70" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="U390" s="70" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="V390" s="70"/>
       <c r="W390" s="71"/>
@@ -40329,61 +40334,61 @@
       </c>
       <c r="B391" s="73"/>
       <c r="C391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="K391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="L391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="M391" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="N391" s="68" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O391" s="68" t="s">
+        <v>1442</v>
+      </c>
+      <c r="P391" s="68" t="s">
+        <v>1442</v>
+      </c>
+      <c r="Q391" s="68" t="s">
+        <v>1442</v>
+      </c>
+      <c r="R391" s="68" t="s">
+        <v>1442</v>
+      </c>
+      <c r="S391" s="70" t="s">
+        <v>1448</v>
+      </c>
+      <c r="T391" s="70" t="s">
         <v>1469</v>
       </c>
-      <c r="O391" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="P391" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Q391" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="R391" s="68" t="s">
-        <v>1443</v>
-      </c>
-      <c r="S391" s="70" t="s">
-        <v>1449</v>
-      </c>
-      <c r="T391" s="70" t="s">
-        <v>1475</v>
-      </c>
       <c r="U391" s="70" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="V391" s="70"/>
       <c r="W391" s="71"/>

--- a/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
+++ b/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D800A-BDBE-4291-B234-E7854A3D56D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FEC0BD-8185-4658-9902-0B73FEB2A5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="1800" windowWidth="34110" windowHeight="19095" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="960" windowWidth="34110" windowHeight="19095" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="how to use this document" sheetId="26" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'default-configuration'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7758,7 +7757,7 @@
   <dimension ref="A1:X404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="15" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
       <selection pane="bottomRight"/>

--- a/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
+++ b/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FEC0BD-8185-4658-9902-0B73FEB2A5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65076A-2530-443A-B7EF-E1F2B1B7B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="960" windowWidth="34110" windowHeight="19095" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="34110" windowHeight="19095" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="how to use this document" sheetId="26" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5447" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5442" uniqueCount="1536">
   <si>
     <t>■</t>
   </si>
@@ -4826,13 +4826,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sesshon seisei o bōshi suru kinō o yūkōnisuru ka dō ka no furagu
-28 / 5,000
-翻訳結果
-Flags for enabling features that prevent session generation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Package mapping</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5128,6 +5121,10 @@
   </si>
   <si>
     <t>Defined as a map attribute with nablarch.fixedBusinessDateProvider.defaultSegment as a key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flags for enabling features that prevent session generation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5249,7 +5246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -5428,13 +5425,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5689,6 +5712,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7757,7 +7792,7 @@
   <dimension ref="A1:X404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <pane xSplit="15" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="U1" sqref="U1:V1048576"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
       <selection pane="bottomRight"/>
@@ -7850,28 +7885,28 @@
         <v>30</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>1500</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>1501</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>1502</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>1503</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>1504</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>1505</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>1506</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>1507</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="15"/>
@@ -7949,7 +7984,7 @@
         <v>40</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8012,7 +8047,7 @@
         <v>44</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8075,7 +8110,7 @@
         <v>48</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8136,7 +8171,7 @@
         <v>51</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8191,7 +8226,7 @@
         <v>1414</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8246,7 +8281,7 @@
         <v>44</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8301,7 +8336,7 @@
         <v>56</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8354,7 +8389,7 @@
         <v>1209</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8709,7 +8744,7 @@
         <v>73</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8760,7 +8795,7 @@
         <v>77</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8811,7 +8846,7 @@
         <v>81</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8858,7 +8893,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="40"/>
       <c r="X20" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8907,7 +8942,7 @@
         <v>65</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9117,7 +9152,7 @@
         <v>109</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9178,7 +9213,7 @@
         <v>113</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9235,7 +9270,7 @@
         <v>109</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -9294,7 +9329,7 @@
         <v>1264</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -9353,7 +9388,7 @@
         <v>1265</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -9412,7 +9447,7 @@
         <v>1265</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -9471,7 +9506,7 @@
         <v>1266</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -9530,7 +9565,7 @@
         <v>1333</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -9603,7 +9638,7 @@
         <v>135</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -9676,7 +9711,7 @@
         <v>139</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -9749,7 +9784,7 @@
         <v>143</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -9822,7 +9857,7 @@
         <v>147</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="135" x14ac:dyDescent="0.15">
@@ -9895,7 +9930,7 @@
         <v>151</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -9968,7 +10003,7 @@
         <v>154</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10041,7 +10076,7 @@
         <v>143</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10114,7 +10149,7 @@
         <v>147</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10187,7 +10222,7 @@
         <v>162</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10260,7 +10295,7 @@
         <v>166</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10333,7 +10368,7 @@
         <v>154</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10406,7 +10441,7 @@
         <v>173</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -10479,7 +10514,7 @@
         <v>177</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="94.5" x14ac:dyDescent="0.15">
@@ -10603,7 +10638,7 @@
       <c r="V47" s="32"/>
       <c r="W47" s="40"/>
       <c r="X47" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10656,7 +10691,7 @@
         <v>201</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10707,7 +10742,7 @@
         <v>204</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10758,7 +10793,7 @@
         <v>208</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10807,7 +10842,7 @@
       <c r="V51" s="32"/>
       <c r="W51" s="40"/>
       <c r="X51" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -10854,7 +10889,7 @@
       <c r="V52" s="32"/>
       <c r="W52" s="40"/>
       <c r="X52" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -10907,7 +10942,7 @@
         <v>228</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -10958,7 +10993,7 @@
         <v>232</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11009,7 +11044,7 @@
         <v>235</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="56" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11060,7 +11095,7 @@
         <v>239</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11111,7 +11146,7 @@
         <v>243</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11162,7 +11197,7 @@
         <v>247</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11213,7 +11248,7 @@
         <v>251</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11264,7 +11299,7 @@
         <v>254</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11315,7 +11350,7 @@
         <v>232</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11366,7 +11401,7 @@
         <v>239</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11417,7 +11452,7 @@
         <v>247</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11468,7 +11503,7 @@
         <v>251</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11519,7 +11554,7 @@
         <v>261</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11570,7 +11605,7 @@
         <v>265</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11621,7 +11656,7 @@
         <v>268</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11672,7 +11707,7 @@
         <v>265</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11723,7 +11758,7 @@
         <v>100</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11774,7 +11809,7 @@
         <v>274</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11825,7 +11860,7 @@
         <v>232</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11876,7 +11911,7 @@
         <v>265</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11927,7 +11962,7 @@
         <v>279</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -11978,7 +12013,7 @@
         <v>239</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -12029,7 +12064,7 @@
         <v>265</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -12080,7 +12115,7 @@
         <v>284</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="108" x14ac:dyDescent="0.15">
@@ -12580,7 +12615,7 @@
         <v>1342</v>
       </c>
       <c r="W83" s="34" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="X83" s="2"/>
     </row>
@@ -12634,7 +12669,7 @@
         <v>339</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -12685,7 +12720,7 @@
         <v>342</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -12736,7 +12771,7 @@
         <v>162</v>
       </c>
       <c r="X86" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -12787,7 +12822,7 @@
         <v>339</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="108" x14ac:dyDescent="0.15">
@@ -13035,7 +13070,7 @@
       <c r="V91" s="32"/>
       <c r="W91" s="40"/>
       <c r="X91" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -13082,7 +13117,7 @@
       <c r="V92" s="32"/>
       <c r="W92" s="40"/>
       <c r="X92" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -13129,7 +13164,7 @@
       <c r="V93" s="32"/>
       <c r="W93" s="40"/>
       <c r="X93" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -13176,7 +13211,7 @@
       <c r="V94" s="32"/>
       <c r="W94" s="40"/>
       <c r="X94" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13358,7 +13393,7 @@
       <c r="V98" s="32"/>
       <c r="W98" s="40"/>
       <c r="X98" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -13405,7 +13440,7 @@
       <c r="V99" s="32"/>
       <c r="W99" s="40"/>
       <c r="X99" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -13452,7 +13487,7 @@
       <c r="V100" s="32"/>
       <c r="W100" s="40"/>
       <c r="X100" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -15239,7 +15274,7 @@
       <c r="V127" s="32"/>
       <c r="W127" s="40"/>
       <c r="X127" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="128" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15288,7 +15323,7 @@
       <c r="V128" s="32"/>
       <c r="W128" s="40"/>
       <c r="X128" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="129" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15339,7 +15374,7 @@
       </c>
       <c r="W129" s="34"/>
       <c r="X129" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="130" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15388,7 +15423,7 @@
       <c r="V130" s="32"/>
       <c r="W130" s="40"/>
       <c r="X130" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15435,7 +15470,7 @@
       <c r="V131" s="32"/>
       <c r="W131" s="40"/>
       <c r="X131" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="132" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15482,7 +15517,7 @@
       <c r="V132" s="32"/>
       <c r="W132" s="40"/>
       <c r="X132" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="133" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15529,7 +15564,7 @@
       <c r="V133" s="32"/>
       <c r="W133" s="40"/>
       <c r="X133" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="134" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15576,7 +15611,7 @@
       <c r="V134" s="32"/>
       <c r="W134" s="40"/>
       <c r="X134" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="135" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15623,7 +15658,7 @@
       <c r="V135" s="32"/>
       <c r="W135" s="40"/>
       <c r="X135" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15670,7 +15705,7 @@
       <c r="V136" s="32"/>
       <c r="W136" s="40"/>
       <c r="X136" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="137" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15717,7 +15752,7 @@
       <c r="V137" s="32"/>
       <c r="W137" s="40"/>
       <c r="X137" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="138" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15764,7 +15799,7 @@
       <c r="V138" s="32"/>
       <c r="W138" s="40"/>
       <c r="X138" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15811,7 +15846,7 @@
       <c r="V139" s="32"/>
       <c r="W139" s="40"/>
       <c r="X139" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="140" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15858,7 +15893,7 @@
       <c r="V140" s="32"/>
       <c r="W140" s="40"/>
       <c r="X140" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15905,7 +15940,7 @@
       <c r="V141" s="32"/>
       <c r="W141" s="40"/>
       <c r="X141" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15952,7 +15987,7 @@
       <c r="V142" s="32"/>
       <c r="W142" s="40"/>
       <c r="X142" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="143" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -15999,7 +16034,7 @@
       <c r="V143" s="32"/>
       <c r="W143" s="40"/>
       <c r="X143" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="144" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -16046,7 +16081,7 @@
       <c r="V144" s="32"/>
       <c r="W144" s="40"/>
       <c r="X144" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -16093,7 +16128,7 @@
       <c r="V145" s="32"/>
       <c r="W145" s="40"/>
       <c r="X145" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="146" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -17345,10 +17380,10 @@
         <v>525</v>
       </c>
       <c r="S166" s="33" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="T166" s="33" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="U166" s="36" t="s">
         <v>50</v>
@@ -17358,7 +17393,7 @@
         <v>1219</v>
       </c>
       <c r="X166" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="167" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
@@ -17551,7 +17586,7 @@
         <v>525</v>
       </c>
       <c r="S170" s="33" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="T170" s="33" t="s">
         <v>529</v>
@@ -17778,7 +17813,7 @@
         <v>185</v>
       </c>
       <c r="X174" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -17833,7 +17868,7 @@
         <v>561</v>
       </c>
       <c r="X175" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -18269,9 +18304,7 @@
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
-      <c r="B184" s="26" t="s">
-        <v>520</v>
-      </c>
+      <c r="B184" s="26"/>
       <c r="C184" s="33" t="s">
         <v>1273</v>
       </c>
@@ -18320,9 +18353,7 @@
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
-      <c r="B185" s="26" t="s">
-        <v>520</v>
-      </c>
+      <c r="B185" s="26"/>
       <c r="C185" s="33" t="s">
         <v>1273</v>
       </c>
@@ -18375,9 +18406,7 @@
         <f t="shared" si="3"/>
         <v>184</v>
       </c>
-      <c r="B186" s="29" t="s">
-        <v>520</v>
-      </c>
+      <c r="B186" s="29"/>
       <c r="C186" s="33" t="s">
         <v>1273</v>
       </c>
@@ -18425,7 +18454,7 @@
       </c>
       <c r="X186" s="2"/>
     </row>
-    <row r="187" spans="1:24" ht="81" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:24" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <f t="shared" si="3"/>
         <v>185</v>
@@ -18463,7 +18492,7 @@
         <v>1451</v>
       </c>
       <c r="T187" s="33" t="s">
-        <v>1458</v>
+        <v>1535</v>
       </c>
       <c r="U187" s="14" t="s">
         <v>1409</v>
@@ -19280,7 +19309,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C204" s="33"/>
       <c r="D204" s="33" t="s">
@@ -19298,19 +19327,19 @@
       <c r="L204" s="33"/>
       <c r="M204" s="33"/>
       <c r="N204" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="O204" s="2" t="s">
         <v>611</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="Q204" s="2" t="s">
         <v>598</v>
       </c>
       <c r="R204" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="S204" s="33" t="s">
         <v>607</v>
@@ -19351,7 +19380,7 @@
       <c r="L205" s="33"/>
       <c r="M205" s="33"/>
       <c r="N205" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="O205" s="2" t="s">
         <v>611</v>
@@ -19363,16 +19392,16 @@
         <v>598</v>
       </c>
       <c r="R205" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="S205" s="33" t="s">
+        <v>1459</v>
+      </c>
+      <c r="T205" s="33" t="s">
+        <v>1461</v>
+      </c>
+      <c r="U205" s="33" t="s">
         <v>1460</v>
-      </c>
-      <c r="T205" s="33" t="s">
-        <v>1462</v>
-      </c>
-      <c r="U205" s="33" t="s">
-        <v>1461</v>
       </c>
       <c r="V205" s="41" t="s">
         <v>1339</v>
@@ -19388,7 +19417,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="70" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C206" s="71"/>
       <c r="D206" s="71"/>
@@ -19416,7 +19445,7 @@
         <v>1450</v>
       </c>
       <c r="R206" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="S206" s="71" t="s">
         <v>1451</v>
@@ -19439,7 +19468,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="73" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C207" s="71"/>
       <c r="D207" s="71"/>
@@ -19457,31 +19486,31 @@
       <c r="L207" s="71"/>
       <c r="M207" s="71"/>
       <c r="N207" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="P207" s="2" t="s">
         <v>599</v>
       </c>
       <c r="Q207" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="R207" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="S207" s="71" t="s">
         <v>1463</v>
       </c>
-      <c r="R207" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="S207" s="71" t="s">
+      <c r="T207" s="71" t="s">
         <v>1464</v>
       </c>
-      <c r="T207" s="71" t="s">
+      <c r="U207" s="71" t="s">
         <v>1465</v>
       </c>
-      <c r="U207" s="71" t="s">
+      <c r="V207" s="74" t="s">
         <v>1466</v>
-      </c>
-      <c r="V207" s="74" t="s">
-        <v>1467</v>
       </c>
       <c r="W207" s="72"/>
       <c r="X207" s="2"/>
@@ -19491,7 +19520,7 @@
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="B208" s="70"/>
+      <c r="B208" s="88"/>
       <c r="C208" s="71"/>
       <c r="D208" s="71"/>
       <c r="E208" s="71" t="s">
@@ -19511,22 +19540,22 @@
         <v>597</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="P208" s="2" t="s">
         <v>599</v>
       </c>
       <c r="Q208" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="R208" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="S208" s="71" t="s">
+        <v>1467</v>
+      </c>
+      <c r="T208" s="71" t="s">
         <v>1468</v>
-      </c>
-      <c r="T208" s="71" t="s">
-        <v>1469</v>
       </c>
       <c r="U208" s="14" t="s">
         <v>50</v>
@@ -19542,9 +19571,7 @@
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="B209" s="73" t="s">
-        <v>1473</v>
-      </c>
+      <c r="B209" s="87"/>
       <c r="C209" s="71"/>
       <c r="D209" s="71"/>
       <c r="E209" s="71"/>
@@ -19564,29 +19591,29 @@
         <v>597</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="P209" s="2" t="s">
         <v>599</v>
       </c>
       <c r="Q209" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="R209" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="S209" s="71" t="s">
         <v>1463</v>
       </c>
-      <c r="R209" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="S209" s="71" t="s">
+      <c r="T209" s="71" t="s">
         <v>1464</v>
-      </c>
-      <c r="T209" s="71" t="s">
-        <v>1465</v>
       </c>
       <c r="U209" s="14" t="s">
         <v>50</v>
       </c>
       <c r="V209" s="75"/>
       <c r="W209" s="39" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="X209" s="2"/>
     </row>
@@ -19595,7 +19622,7 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="B210" s="70"/>
+      <c r="B210" s="85"/>
       <c r="C210" s="71"/>
       <c r="D210" s="71"/>
       <c r="E210" s="71"/>
@@ -19615,22 +19642,22 @@
         <v>597</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="P210" s="2" t="s">
         <v>599</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="R210" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="S210" s="71" t="s">
+        <v>1467</v>
+      </c>
+      <c r="T210" s="71" t="s">
         <v>1468</v>
-      </c>
-      <c r="T210" s="71" t="s">
-        <v>1469</v>
       </c>
       <c r="U210" s="14" t="s">
         <v>50</v>
@@ -19646,9 +19673,7 @@
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="B211" s="73" t="s">
-        <v>1473</v>
-      </c>
+      <c r="B211" s="86"/>
       <c r="C211" s="71"/>
       <c r="D211" s="71"/>
       <c r="E211" s="71"/>
@@ -19668,28 +19693,28 @@
         <v>597</v>
       </c>
       <c r="O211" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="P211" s="2" t="s">
         <v>599</v>
       </c>
       <c r="Q211" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="R211" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="S211" s="71" t="s">
         <v>1463</v>
       </c>
-      <c r="R211" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="S211" s="71" t="s">
+      <c r="T211" s="71" t="s">
         <v>1464</v>
       </c>
-      <c r="T211" s="71" t="s">
+      <c r="U211" s="71" t="s">
         <v>1465</v>
       </c>
-      <c r="U211" s="71" t="s">
+      <c r="V211" s="74" t="s">
         <v>1466</v>
-      </c>
-      <c r="V211" s="74" t="s">
-        <v>1467</v>
       </c>
       <c r="W211" s="72"/>
       <c r="X211" s="2"/>
@@ -19719,22 +19744,22 @@
         <v>597</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="P212" s="2" t="s">
         <v>599</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="R212" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="S212" s="71" t="s">
+        <v>1467</v>
+      </c>
+      <c r="T212" s="71" t="s">
         <v>1468</v>
-      </c>
-      <c r="T212" s="71" t="s">
-        <v>1469</v>
       </c>
       <c r="U212" s="14" t="s">
         <v>50</v>
@@ -19751,7 +19776,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C213" s="42"/>
       <c r="D213" s="42"/>
@@ -19807,7 +19832,7 @@
         <v>330</v>
       </c>
       <c r="X213" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -19856,7 +19881,7 @@
       <c r="V214" s="55"/>
       <c r="W214" s="40"/>
       <c r="X214" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -19903,7 +19928,7 @@
       <c r="V215" s="32"/>
       <c r="W215" s="40"/>
       <c r="X215" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -19950,7 +19975,7 @@
       <c r="V216" s="55"/>
       <c r="W216" s="40"/>
       <c r="X216" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="217" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -19997,7 +20022,7 @@
       <c r="V217" s="55"/>
       <c r="W217" s="40"/>
       <c r="X217" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20058,7 +20083,7 @@
         <v>700</v>
       </c>
       <c r="X218" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="219" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20115,7 +20140,7 @@
         <v>709</v>
       </c>
       <c r="X219" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20168,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="X220" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20221,7 +20246,7 @@
         <v>1</v>
       </c>
       <c r="X221" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20274,7 +20299,7 @@
         <v>2</v>
       </c>
       <c r="X222" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20327,7 +20352,7 @@
         <v>0</v>
       </c>
       <c r="X223" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20380,7 +20405,7 @@
         <v>1</v>
       </c>
       <c r="X224" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="225" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20433,7 +20458,7 @@
         <v>2</v>
       </c>
       <c r="X225" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="226" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20488,7 +20513,7 @@
         <v>1228</v>
       </c>
       <c r="X226" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20543,7 +20568,7 @@
         <v>1229</v>
       </c>
       <c r="X227" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="228" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20598,7 +20623,7 @@
         <v>1230</v>
       </c>
       <c r="X228" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="229" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -20651,7 +20676,7 @@
         <v>199</v>
       </c>
       <c r="X229" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="230" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -20706,7 +20731,7 @@
         <v>742</v>
       </c>
       <c r="X230" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="231" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -20761,7 +20786,7 @@
         <v>746</v>
       </c>
       <c r="X231" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="232" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -20816,7 +20841,7 @@
         <v>750</v>
       </c>
       <c r="X232" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="233" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -20871,7 +20896,7 @@
         <v>754</v>
       </c>
       <c r="X233" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="234" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -20926,7 +20951,7 @@
         <v>758</v>
       </c>
       <c r="X234" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="235" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -20981,7 +21006,7 @@
         <v>762</v>
       </c>
       <c r="X235" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="236" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21036,7 +21061,7 @@
         <v>766</v>
       </c>
       <c r="X236" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="237" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21091,7 +21116,7 @@
         <v>770</v>
       </c>
       <c r="X237" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="238" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21146,7 +21171,7 @@
         <v>774</v>
       </c>
       <c r="X238" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="239" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21201,7 +21226,7 @@
         <v>778</v>
       </c>
       <c r="X239" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="240" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21256,7 +21281,7 @@
         <v>782</v>
       </c>
       <c r="X240" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="241" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21311,7 +21336,7 @@
         <v>786</v>
       </c>
       <c r="X241" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="242" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21366,7 +21391,7 @@
         <v>1231</v>
       </c>
       <c r="X242" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="243" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21421,7 +21446,7 @@
         <v>795</v>
       </c>
       <c r="X243" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="244" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21476,7 +21501,7 @@
         <v>746</v>
       </c>
       <c r="X244" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="245" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21531,7 +21556,7 @@
         <v>801</v>
       </c>
       <c r="X245" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21586,7 +21611,7 @@
         <v>805</v>
       </c>
       <c r="X246" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21641,7 +21666,7 @@
         <v>809</v>
       </c>
       <c r="X247" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21696,7 +21721,7 @@
         <v>815</v>
       </c>
       <c r="X248" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="249" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21751,7 +21776,7 @@
         <v>746</v>
       </c>
       <c r="X249" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21806,7 +21831,7 @@
         <v>801</v>
       </c>
       <c r="X250" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21861,7 +21886,7 @@
         <v>823</v>
       </c>
       <c r="X251" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21916,7 +21941,7 @@
         <v>827</v>
       </c>
       <c r="X252" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -21971,7 +21996,7 @@
         <v>831</v>
       </c>
       <c r="X253" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22026,7 +22051,7 @@
         <v>837</v>
       </c>
       <c r="X254" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="255" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22081,7 +22106,7 @@
         <v>841</v>
       </c>
       <c r="X255" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="256" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22136,7 +22161,7 @@
         <v>162</v>
       </c>
       <c r="X256" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="257" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22191,7 +22216,7 @@
         <v>750</v>
       </c>
       <c r="X257" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="258" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22246,7 +22271,7 @@
         <v>766</v>
       </c>
       <c r="X258" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="259" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22301,7 +22326,7 @@
         <v>782</v>
       </c>
       <c r="X259" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22354,7 +22379,7 @@
         <v>1232</v>
       </c>
       <c r="X260" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22405,7 +22430,7 @@
         <v>860</v>
       </c>
       <c r="X261" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22456,7 +22481,7 @@
         <v>864</v>
       </c>
       <c r="X262" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="263" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22507,7 +22532,7 @@
         <v>868</v>
       </c>
       <c r="X263" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="264" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22558,7 +22583,7 @@
         <v>872</v>
       </c>
       <c r="X264" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="265" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22609,7 +22634,7 @@
         <v>876</v>
       </c>
       <c r="X265" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="266" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22674,7 +22699,7 @@
         <v>885</v>
       </c>
       <c r="X266" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="267" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22727,7 +22752,7 @@
         <v>73</v>
       </c>
       <c r="X267" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="268" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22778,7 +22803,7 @@
         <v>77</v>
       </c>
       <c r="X268" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="269" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22829,7 +22854,7 @@
         <v>897</v>
       </c>
       <c r="X269" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22878,7 +22903,7 @@
         <v>898</v>
       </c>
       <c r="X270" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="271" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -22943,7 +22968,7 @@
         <v>700</v>
       </c>
       <c r="X271" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="272" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23000,7 +23025,7 @@
         <v>700</v>
       </c>
       <c r="X272" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23061,7 +23086,7 @@
         <v>872</v>
       </c>
       <c r="X273" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23118,7 +23143,7 @@
         <v>916</v>
       </c>
       <c r="X274" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23177,7 +23202,7 @@
         <v>73</v>
       </c>
       <c r="X275" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23236,7 +23261,7 @@
         <v>77</v>
       </c>
       <c r="X276" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23295,7 +23320,7 @@
         <v>928</v>
       </c>
       <c r="X277" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23352,7 +23377,7 @@
         <v>50</v>
       </c>
       <c r="X278" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23413,7 +23438,7 @@
         <v>939</v>
       </c>
       <c r="X279" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="280" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23472,7 +23497,7 @@
         <v>519</v>
       </c>
       <c r="X280" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="281" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23531,7 +23556,7 @@
         <v>946</v>
       </c>
       <c r="X281" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="282" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23590,7 +23615,7 @@
         <v>596</v>
       </c>
       <c r="X282" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="283" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23647,7 +23672,7 @@
         <v>1415</v>
       </c>
       <c r="X283" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="284" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23702,7 +23727,7 @@
         <v>958</v>
       </c>
       <c r="X284" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="285" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23757,7 +23782,7 @@
         <v>965</v>
       </c>
       <c r="X285" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="286" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23812,7 +23837,7 @@
         <v>969</v>
       </c>
       <c r="X286" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="287" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23867,7 +23892,7 @@
         <v>969</v>
       </c>
       <c r="X287" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="288" spans="1:24" ht="67.5" x14ac:dyDescent="0.15">
@@ -23924,7 +23949,7 @@
         <v>1233</v>
       </c>
       <c r="X288" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="289" spans="1:24" ht="27" x14ac:dyDescent="0.15">
@@ -24030,7 +24055,7 @@
       <c r="V290" s="32"/>
       <c r="W290" s="56"/>
       <c r="X290" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="291" spans="1:24" ht="13.5" x14ac:dyDescent="0.15">
@@ -24146,7 +24171,7 @@
         <v>1003</v>
       </c>
       <c r="X292" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="293" spans="1:24" ht="13.5" x14ac:dyDescent="0.15">
@@ -25518,7 +25543,7 @@
         <v>1070</v>
       </c>
       <c r="T318" s="33" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="U318" s="33" t="s">
         <v>1071</v>
@@ -25530,7 +25555,7 @@
         <v>1237</v>
       </c>
       <c r="X318" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="319" spans="1:24" ht="27" x14ac:dyDescent="0.15">
@@ -25573,7 +25598,7 @@
         <v>1070</v>
       </c>
       <c r="T319" s="33" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="U319" s="33" t="s">
         <v>1072</v>
@@ -25585,7 +25610,7 @@
         <v>1073</v>
       </c>
       <c r="X319" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="320" spans="1:24" ht="54" x14ac:dyDescent="0.15">
@@ -26140,7 +26165,7 @@
         <v>1078</v>
       </c>
       <c r="T330" s="33" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="U330" s="14" t="s">
         <v>50</v>
@@ -26453,17 +26478,17 @@
         <v>1060</v>
       </c>
       <c r="S336" s="33" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="T336" s="48" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="U336" s="14" t="s">
         <v>50</v>
       </c>
       <c r="V336" s="14"/>
       <c r="W336" s="14" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="X336" s="2"/>
     </row>
@@ -29554,7 +29579,7 @@
         <v>50</v>
       </c>
       <c r="V388" s="14" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="W388" s="14" t="s">
         <v>1173</v>
@@ -30115,29 +30140,29 @@
         <v>1403</v>
       </c>
       <c r="O400" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="P400" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="Q400" s="2" t="s">
         <v>1493</v>
-      </c>
-      <c r="P400" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="Q400" s="2" t="s">
-        <v>1494</v>
       </c>
       <c r="R400" s="2" t="s">
         <v>1313</v>
       </c>
       <c r="S400" s="80" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="T400" s="80" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="U400" s="14" t="s">
         <v>50</v>
       </c>
       <c r="V400" s="76"/>
       <c r="W400" s="77" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="X400" s="2"/>
     </row>

--- a/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
+++ b/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6FEAC7-C5DF-4FA9-9E71-A1BEFBE8A497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C703508-4715-4A3F-96CD-DA26D40B51D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="how to use this document" sheetId="26" r:id="rId1"/>
@@ -4274,12 +4274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JSR352-compliant batch project/env.properties
-Nablarch batch project/env.properties
-Nablarch batch project for Container/env.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Nablarch batch project/common.properties
 Nablarch batch project for Container/common.properties</t>
     <phoneticPr fontId="1"/>
@@ -4297,16 +4291,6 @@
   <si>
     <t>RESTful Web service/common.properties
 RESTful Web service for Container/common.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Web project/env.properties
-RESTful web service project/env.properties
-JSR352-compliant batch project/env.properties
-Nablarch batch project/env.properties
-Web project for Container/env.properties
-RESTful web service project for Container/env.properties
-Nablarch batch project for Container/env.properties</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4322,16 +4306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Web project/env.properties
-RESTful Web service project/env.properties
-JSR352-compliant batch project/env.properties
-Nablarch batch project/env.properties
-Web project for Container/env.properties
-RESTful Web service project for Container/env.properties
-Nablarch batch project for Container/env.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Web project/main/resources/messages.properties
 Web project for Container/main/resources/messages.properties</t>
     <phoneticPr fontId="1"/>
@@ -4342,46 +4316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Web project/common.properties
-RESTful Web service project/common.properties
-JSR352-compliant batch project/common.properties
-Nablarch batch project/common.properties
-Web project for Container/common.properties
-RESTful Web service project for Container/common.properties
-Nablarch batch project for Container/common.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Web project/env/dev/resources/log.properties
-RESTful Web service project /env/dev/resources/log.properties
-JSR352-compliant batch project /main/resources/app-log.properties
-Nablarch batch project /env/dev/resources/log.properties
-Web project for Container/env/dev/resources/log.properties
-RESTful Web service project for Container /env/dev/resources/log.properties
-Nablarch batch project for Container /env/dev/resources/log.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Web project/main/resources/app-log.properties
-RESTful Web service project/main/resources/app-log.properties
-JSR352-compliant batch project/main/resources/app-log.properties
-Nablarch batch project/main/resources/app-log.properties
-Web project for Container/main/resources/app-log.properties
-RESTful Web service project for Container/main/resources/app-log.properties
-Nablarch batch project for Container/main/resources/app-log.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Web project/main/resources/messages.properties
-RESTful Web service project/main/resources/messages.properties
-Nablarch batch project/main/resources/messages.properties
-JSR352-compliant batch project/main/resources/messages.properties
-Web project for Container/main/resources/messages.properties
-RESTful Web service project for Container/main/resources/messages.properties
-Nablarch batch project for Container/main/resources/messages.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>stringResourceLoader</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4584,10 +4518,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>JSR352-compliant batch project/env.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Path of the directory where the input files will be placed(for file input)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4624,14 +4554,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Web project/env.properties
-RESTful Web service project/env.properties
-JSR352-compliant batch project/env.properties
-Nablarch batch project/env.properties
-Nablarch batch project for Container/env.properties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>file:./src/main/format(Web project)
 file:./src/main/jib/var/nablarch/format(Web project for Container)</t>
     <phoneticPr fontId="1"/>
@@ -4654,11 +4576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>XXX\src\main\resources\data-source.xml(JSR352-compliant batch project, Nablarch batch project, Nablarch batch project for Container)
-XXX\src\env\dev\resources\db-for-webui_dev.xml(Web project, RESTful Web service project)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Minimum idle connection size</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4762,13 +4679,6 @@
   </si>
   <si>
     <t>Components used for DB connection to DB store</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10
-(JSR352-compliant batch project, Nablarch batch project, Nablarch batch project for Container)
-5
-(Web project, RESTful Web service project)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4983,11 +4893,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15(Web project, RESTful Web service, Web project for Container, RESTful Web service project for Container)
-0(JSR352-compliant batch project, Nablarch batch project, Nablarch batch project for Container)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Defined as map entry attribute in fileExtensions property</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5146,6 +5051,89 @@
   <si>
     <t>container-batch-dbless</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jakarta Batch-compliant batch project/env.properties
+Nablarch batch project/env.properties
+Nablarch batch project for Container/env.properties</t>
+  </si>
+  <si>
+    <t>Web project/env.properties
+RESTful web service project/env.properties
+Jakarta Batch-compliant batch project/env.properties
+Nablarch batch project/env.properties
+Web project for Container/env.properties
+RESTful web service project for Container/env.properties
+Nablarch batch project for Container/env.properties</t>
+  </si>
+  <si>
+    <t>Web project/common.properties
+RESTful Web service project/common.properties
+Jakarta Batch-compliant batch project/common.properties
+Nablarch batch project/common.properties
+Web project for Container/common.properties
+RESTful Web service project for Container/common.properties
+Nablarch batch project for Container/common.properties</t>
+  </si>
+  <si>
+    <t>15(Web project, RESTful Web service, Web project for Container, RESTful Web service project for Container)
+0(Jakarta Batch-compliant batch project, Nablarch batch project, Nablarch batch project for Container)</t>
+  </si>
+  <si>
+    <t>XXX\src\main\resources\data-source.xml(Jakarta Batch-compliant batch project, Nablarch batch project, Nablarch batch project for Container)
+XXX\src\env\dev\resources\db-for-webui_dev.xml(Web project, RESTful Web service project)</t>
+  </si>
+  <si>
+    <t>Web project/env.properties
+RESTful Web service project/env.properties
+Jakarta Batch-compliant batch project/env.properties
+Nablarch batch project/env.properties
+Nablarch batch project for Container/env.properties</t>
+  </si>
+  <si>
+    <t>10
+(Jakarta Batch-compliant batch project, Nablarch batch project, Nablarch batch project for Container)
+5
+(Web project, RESTful Web service project)</t>
+  </si>
+  <si>
+    <t>Web project/env.properties
+RESTful Web service project/env.properties
+Jakarta Batch-compliant batch project/env.properties
+Nablarch batch project/env.properties
+Web project for Container/env.properties
+RESTful Web service project for Container/env.properties
+Nablarch batch project for Container/env.properties</t>
+  </si>
+  <si>
+    <t>Web project/main/resources/app-log.properties
+RESTful Web service project/main/resources/app-log.properties
+Jakarta Batch-compliant batch project/main/resources/app-log.properties
+Nablarch batch project/main/resources/app-log.properties
+Web project for Container/main/resources/app-log.properties
+RESTful Web service project for Container/main/resources/app-log.properties
+Nablarch batch project for Container/main/resources/app-log.properties</t>
+  </si>
+  <si>
+    <t>Web project/env/dev/resources/log.properties
+RESTful Web service project /env/dev/resources/log.properties
+Jakarta Batch-compliant batch project /main/resources/app-log.properties
+Nablarch batch project /env/dev/resources/log.properties
+Web project for Container/env/dev/resources/log.properties
+RESTful Web service project for Container /env/dev/resources/log.properties
+Nablarch batch project for Container /env/dev/resources/log.properties</t>
+  </si>
+  <si>
+    <t>Web project/main/resources/messages.properties
+RESTful Web service project/main/resources/messages.properties
+Nablarch batch project/main/resources/messages.properties
+Jakarta Batch-compliant batch project/main/resources/messages.properties
+Web project for Container/main/resources/messages.properties
+RESTful Web service project for Container/main/resources/messages.properties
+Nablarch batch project for Container/main/resources/messages.properties</t>
+  </si>
+  <si>
+    <t>Jakarta Batch-compliant batch project/env.properties</t>
   </si>
 </sst>
 </file>
@@ -6991,7 +6979,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="57"/>
@@ -7024,7 +7012,7 @@
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
@@ -7907,34 +7895,34 @@
         <v>30</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="15"/>
@@ -8012,13 +8000,13 @@
         <v>39</v>
       </c>
       <c r="X3" s="23" t="s">
-        <v>1335</v>
+        <v>1527</v>
       </c>
       <c r="Y3" s="34" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8081,13 +8069,13 @@
         <v>43</v>
       </c>
       <c r="X4" s="23" t="s">
-        <v>1335</v>
+        <v>1527</v>
       </c>
       <c r="Y4" s="34" t="s">
         <v>44</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8150,13 +8138,13 @@
         <v>47</v>
       </c>
       <c r="X5" s="23" t="s">
-        <v>1335</v>
+        <v>1527</v>
       </c>
       <c r="Y5" s="34" t="s">
         <v>48</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8223,7 +8211,7 @@
         <v>51</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8274,13 +8262,13 @@
         <v>39</v>
       </c>
       <c r="X7" s="23" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="Y7" s="34" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8331,13 +8319,13 @@
         <v>43</v>
       </c>
       <c r="X8" s="23" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="Y8" s="34" t="s">
         <v>44</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8388,13 +8376,13 @@
         <v>55</v>
       </c>
       <c r="X9" s="23" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="Y9" s="34" t="s">
         <v>56</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8449,7 +8437,7 @@
         <v>1209</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8537,7 +8525,7 @@
         <v>58</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="U12" s="24" t="s">
         <v>59</v>
@@ -8590,20 +8578,20 @@
         <v>58</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="U13" s="24" t="s">
         <v>59</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="W13" s="14" t="s">
         <v>50</v>
       </c>
       <c r="X13" s="27"/>
       <c r="Y13" s="14" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="Z13" s="2"/>
     </row>
@@ -8643,13 +8631,13 @@
         <v>58</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="U14" s="24" t="s">
         <v>59</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="W14" s="14" t="s">
         <v>50</v>
@@ -8696,13 +8684,13 @@
         <v>58</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="U15" s="24" t="s">
         <v>59</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="W15" s="14" t="s">
         <v>50</v>
@@ -8749,13 +8737,13 @@
         <v>58</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="U16" s="24" t="s">
         <v>59</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>50</v>
@@ -8818,7 +8806,7 @@
         <v>73</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8871,7 +8859,7 @@
         <v>77</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8924,7 +8912,7 @@
         <v>81</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8973,7 +8961,7 @@
       <c r="X20" s="32"/>
       <c r="Y20" s="40"/>
       <c r="Z20" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9024,7 +9012,7 @@
         <v>65</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9246,7 +9234,7 @@
         <v>109</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9313,7 +9301,7 @@
         <v>113</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9372,7 +9360,7 @@
         <v>109</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9427,13 +9415,13 @@
         <v>117</v>
       </c>
       <c r="X28" s="32" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="Y28" s="40" t="s">
         <v>1264</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9488,13 +9476,13 @@
         <v>119</v>
       </c>
       <c r="X29" s="32" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="Y29" s="40" t="s">
         <v>1265</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9549,13 +9537,13 @@
         <v>122</v>
       </c>
       <c r="X30" s="32" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="Y30" s="40" t="s">
         <v>1265</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9610,13 +9598,13 @@
         <v>125</v>
       </c>
       <c r="X31" s="32" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="Y31" s="40" t="s">
         <v>1266</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9671,13 +9659,13 @@
         <v>129</v>
       </c>
       <c r="X32" s="32" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="Y32" s="40" t="s">
         <v>1333</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -9752,7 +9740,7 @@
         <v>135</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -9827,7 +9815,7 @@
         <v>139</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -9902,7 +9890,7 @@
         <v>143</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -9977,7 +9965,7 @@
         <v>147</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="135" x14ac:dyDescent="0.15">
@@ -10052,7 +10040,7 @@
         <v>151</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10127,7 +10115,7 @@
         <v>154</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10202,7 +10190,7 @@
         <v>143</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10277,7 +10265,7 @@
         <v>147</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10352,7 +10340,7 @@
         <v>162</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10427,7 +10415,7 @@
         <v>166</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10502,7 +10490,7 @@
         <v>154</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10577,7 +10565,7 @@
         <v>173</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -10652,7 +10640,7 @@
         <v>177</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="94.5" x14ac:dyDescent="0.15">
@@ -10723,13 +10711,13 @@
         <v>184</v>
       </c>
       <c r="X46" s="23" t="s">
-        <v>1340</v>
+        <v>1528</v>
       </c>
       <c r="Y46" s="34" t="s">
         <v>185</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10780,7 +10768,7 @@
       <c r="X47" s="32"/>
       <c r="Y47" s="40"/>
       <c r="Z47" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10835,7 +10823,7 @@
         <v>201</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10888,7 +10876,7 @@
         <v>204</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10941,7 +10929,7 @@
         <v>208</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10992,7 +10980,7 @@
       <c r="X51" s="32"/>
       <c r="Y51" s="40"/>
       <c r="Z51" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -11041,7 +11029,7 @@
       <c r="X52" s="32"/>
       <c r="Y52" s="40"/>
       <c r="Z52" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11096,7 +11084,7 @@
         <v>228</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11149,7 +11137,7 @@
         <v>232</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11202,7 +11190,7 @@
         <v>235</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11255,7 +11243,7 @@
         <v>239</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11308,7 +11296,7 @@
         <v>243</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11361,7 +11349,7 @@
         <v>247</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11414,7 +11402,7 @@
         <v>251</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11467,7 +11455,7 @@
         <v>254</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11520,7 +11508,7 @@
         <v>232</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11573,7 +11561,7 @@
         <v>239</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11626,7 +11614,7 @@
         <v>247</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11679,7 +11667,7 @@
         <v>251</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11732,7 +11720,7 @@
         <v>261</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11785,7 +11773,7 @@
         <v>265</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11838,7 +11826,7 @@
         <v>268</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11891,7 +11879,7 @@
         <v>265</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11944,7 +11932,7 @@
         <v>100</v>
       </c>
       <c r="Z69" s="2" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11997,7 +11985,7 @@
         <v>274</v>
       </c>
       <c r="Z70" s="2" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12050,7 +12038,7 @@
         <v>232</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12103,7 +12091,7 @@
         <v>265</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12156,7 +12144,7 @@
         <v>279</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12209,7 +12197,7 @@
         <v>239</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12262,7 +12250,7 @@
         <v>265</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12315,7 +12303,7 @@
         <v>284</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="108" x14ac:dyDescent="0.15">
@@ -12386,7 +12374,7 @@
         <v>292</v>
       </c>
       <c r="X77" s="23" t="s">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="Y77" s="34" t="s">
         <v>293</v>
@@ -12461,7 +12449,7 @@
         <v>301</v>
       </c>
       <c r="X78" s="23" t="s">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="Y78" s="34" t="s">
         <v>302</v>
@@ -12534,7 +12522,7 @@
         <v>306</v>
       </c>
       <c r="X79" s="23" t="s">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="Y79" s="34" t="s">
         <v>307</v>
@@ -12607,7 +12595,7 @@
         <v>313</v>
       </c>
       <c r="X80" s="23" t="s">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="Y80" s="34" t="s">
         <v>314</v>
@@ -12753,7 +12741,7 @@
         <v>325</v>
       </c>
       <c r="X82" s="23" t="s">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="Y82" s="34" t="s">
         <v>326</v>
@@ -12826,10 +12814,10 @@
         <v>329</v>
       </c>
       <c r="X83" s="32" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="Y83" s="34" t="s">
-        <v>1498</v>
+        <v>1530</v>
       </c>
       <c r="Z83" s="2"/>
     </row>
@@ -12885,7 +12873,7 @@
         <v>339</v>
       </c>
       <c r="Z84" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -12938,7 +12926,7 @@
         <v>342</v>
       </c>
       <c r="Z85" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -12991,7 +12979,7 @@
         <v>162</v>
       </c>
       <c r="Z86" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13044,7 +13032,7 @@
         <v>339</v>
       </c>
       <c r="Z87" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="108" x14ac:dyDescent="0.15">
@@ -13069,13 +13057,13 @@
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
       <c r="P88" s="2" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>1179</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>181</v>
@@ -13093,13 +13081,13 @@
         <v>348</v>
       </c>
       <c r="X88" s="33" t="s">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="Y88" s="34" t="s">
         <v>1234</v>
       </c>
       <c r="Z88" s="2" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="108" x14ac:dyDescent="0.15">
@@ -13150,31 +13138,31 @@
         <v>1273</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="U89" s="33" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="V89" s="33" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="W89" s="33" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="X89" s="33" t="s">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="Y89" s="34" t="s">
         <v>1265</v>
@@ -13229,35 +13217,35 @@
         <v>1273</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>1179</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="T90" s="2"/>
       <c r="U90" s="33" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="V90" s="23" t="s">
         <v>347</v>
       </c>
       <c r="W90" s="33" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="X90" s="33" t="s">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="Y90" s="34" t="s">
         <v>1234</v>
       </c>
       <c r="Z90" s="2" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13282,13 +13270,13 @@
       <c r="N91" s="23"/>
       <c r="O91" s="23"/>
       <c r="P91" s="2" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>349</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>351</v>
@@ -13308,7 +13296,7 @@
       <c r="X91" s="32"/>
       <c r="Y91" s="40"/>
       <c r="Z91" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13357,7 +13345,7 @@
       <c r="X92" s="32"/>
       <c r="Y92" s="40"/>
       <c r="Z92" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13406,7 +13394,7 @@
       <c r="X93" s="32"/>
       <c r="Y93" s="40"/>
       <c r="Z93" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13429,7 +13417,7 @@
       <c r="N94" s="23"/>
       <c r="O94" s="23"/>
       <c r="P94" s="2" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>357</v>
@@ -13455,7 +13443,7 @@
       <c r="X94" s="32"/>
       <c r="Y94" s="40"/>
       <c r="Z94" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13478,16 +13466,16 @@
       <c r="N95" s="33"/>
       <c r="O95" s="33"/>
       <c r="P95" s="2" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="R95" s="2" t="s">
         <v>350</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="T95" s="2" t="s">
         <v>352</v>
@@ -13499,7 +13487,7 @@
         <v>360</v>
       </c>
       <c r="W95" s="33" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="X95" s="33"/>
       <c r="Y95" s="34"/>
@@ -13525,16 +13513,16 @@
       <c r="N96" s="33"/>
       <c r="O96" s="33"/>
       <c r="P96" s="2" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="R96" s="2" t="s">
         <v>350</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>352</v>
@@ -13546,7 +13534,7 @@
         <v>363</v>
       </c>
       <c r="W96" s="33" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="X96" s="33"/>
       <c r="Y96" s="34"/>
@@ -13572,16 +13560,16 @@
       <c r="N97" s="33"/>
       <c r="O97" s="33"/>
       <c r="P97" s="2" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="R97" s="2" t="s">
         <v>350</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>352</v>
@@ -13593,7 +13581,7 @@
         <v>366</v>
       </c>
       <c r="W97" s="33" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="X97" s="33"/>
       <c r="Y97" s="34"/>
@@ -13645,7 +13633,7 @@
       <c r="X98" s="32"/>
       <c r="Y98" s="40"/>
       <c r="Z98" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -13694,7 +13682,7 @@
       <c r="X99" s="32"/>
       <c r="Y99" s="40"/>
       <c r="Z99" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13743,7 +13731,7 @@
       <c r="X100" s="32"/>
       <c r="Y100" s="40"/>
       <c r="Z100" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -15688,7 +15676,7 @@
       <c r="X127" s="32"/>
       <c r="Y127" s="40"/>
       <c r="Z127" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15739,7 +15727,7 @@
       <c r="X128" s="32"/>
       <c r="Y128" s="40"/>
       <c r="Z128" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15792,7 +15780,7 @@
       </c>
       <c r="Y129" s="34"/>
       <c r="Z129" s="2" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="130" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15843,7 +15831,7 @@
       <c r="X130" s="32"/>
       <c r="Y130" s="40"/>
       <c r="Z130" s="2" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15892,7 +15880,7 @@
       <c r="X131" s="32"/>
       <c r="Y131" s="40"/>
       <c r="Z131" s="2" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="132" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15941,7 +15929,7 @@
       <c r="X132" s="32"/>
       <c r="Y132" s="40"/>
       <c r="Z132" s="2" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="133" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15990,7 +15978,7 @@
       <c r="X133" s="32"/>
       <c r="Y133" s="40"/>
       <c r="Z133" s="2" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16039,7 +16027,7 @@
       <c r="X134" s="32"/>
       <c r="Y134" s="40"/>
       <c r="Z134" s="2" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16088,7 +16076,7 @@
       <c r="X135" s="32"/>
       <c r="Y135" s="40"/>
       <c r="Z135" s="2" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="136" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16137,7 +16125,7 @@
       <c r="X136" s="32"/>
       <c r="Y136" s="40"/>
       <c r="Z136" s="2" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="137" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16186,7 +16174,7 @@
       <c r="X137" s="32"/>
       <c r="Y137" s="40"/>
       <c r="Z137" s="2" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="138" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16235,7 +16223,7 @@
       <c r="X138" s="32"/>
       <c r="Y138" s="40"/>
       <c r="Z138" s="2" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="139" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16284,7 +16272,7 @@
       <c r="X139" s="32"/>
       <c r="Y139" s="40"/>
       <c r="Z139" s="2" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="140" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16333,7 +16321,7 @@
       <c r="X140" s="32"/>
       <c r="Y140" s="40"/>
       <c r="Z140" s="2" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="141" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16382,7 +16370,7 @@
       <c r="X141" s="32"/>
       <c r="Y141" s="40"/>
       <c r="Z141" s="2" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="142" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16431,7 +16419,7 @@
       <c r="X142" s="32"/>
       <c r="Y142" s="40"/>
       <c r="Z142" s="2" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="143" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16480,7 +16468,7 @@
       <c r="X143" s="32"/>
       <c r="Y143" s="40"/>
       <c r="Z143" s="2" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="144" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16529,7 +16517,7 @@
       <c r="X144" s="32"/>
       <c r="Y144" s="40"/>
       <c r="Z144" s="2" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="145" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16578,7 +16566,7 @@
       <c r="X145" s="32"/>
       <c r="Y145" s="40"/>
       <c r="Z145" s="2" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16625,7 +16613,7 @@
       </c>
       <c r="O146" s="23"/>
       <c r="P146" s="2" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>492</v>
@@ -16868,7 +16856,7 @@
         <v>510</v>
       </c>
       <c r="X149" s="23" t="s">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="Y149" s="34" t="s">
         <v>511</v>
@@ -16915,7 +16903,7 @@
       </c>
       <c r="O150" s="23"/>
       <c r="P150" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>512</v>
@@ -16924,22 +16912,22 @@
         <v>513</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>1419</v>
+        <v>1531</v>
       </c>
       <c r="U150" s="33" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="V150" s="33" t="s">
         <v>514</v>
       </c>
       <c r="W150" s="33" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="X150" s="23" t="s">
-        <v>1413</v>
+        <v>1532</v>
       </c>
       <c r="Y150" s="34" t="s">
         <v>1216</v>
@@ -16984,7 +16972,7 @@
       </c>
       <c r="O151" s="23"/>
       <c r="P151" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>512</v>
@@ -16993,22 +16981,22 @@
         <v>513</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T151" s="2" t="s">
-        <v>1419</v>
+        <v>1531</v>
       </c>
       <c r="U151" s="33" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="V151" s="33" t="s">
         <v>515</v>
       </c>
       <c r="W151" s="33" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="X151" s="23" t="s">
-        <v>1413</v>
+        <v>1532</v>
       </c>
       <c r="Y151" s="34" t="s">
         <v>1217</v>
@@ -17053,7 +17041,7 @@
       </c>
       <c r="O152" s="23"/>
       <c r="P152" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>1202</v>
@@ -17062,22 +17050,22 @@
         <v>513</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>1419</v>
+        <v>1531</v>
       </c>
       <c r="U152" s="33" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="V152" s="33" t="s">
         <v>516</v>
       </c>
       <c r="W152" s="33" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="X152" s="23" t="s">
-        <v>1413</v>
+        <v>1532</v>
       </c>
       <c r="Y152" s="34" t="s">
         <v>1218</v>
@@ -17122,7 +17110,7 @@
       </c>
       <c r="O153" s="23"/>
       <c r="P153" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>512</v>
@@ -17131,22 +17119,22 @@
         <v>513</v>
       </c>
       <c r="S153" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="U153" s="33" t="s">
         <v>1358</v>
-      </c>
-      <c r="T153" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="U153" s="33" t="s">
-        <v>1365</v>
       </c>
       <c r="V153" s="33" t="s">
         <v>515</v>
       </c>
       <c r="W153" s="33" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="X153" s="23" t="s">
-        <v>1413</v>
+        <v>1532</v>
       </c>
       <c r="Y153" s="34" t="s">
         <v>517</v>
@@ -17191,7 +17179,7 @@
       </c>
       <c r="O154" s="23"/>
       <c r="P154" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q154" s="2" t="s">
         <v>512</v>
@@ -17200,25 +17188,25 @@
         <v>513</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>1419</v>
+        <v>1531</v>
       </c>
       <c r="U154" s="33" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="V154" s="33" t="s">
         <v>518</v>
       </c>
       <c r="W154" s="33" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="X154" s="23" t="s">
-        <v>1413</v>
+        <v>1532</v>
       </c>
       <c r="Y154" s="34" t="s">
-        <v>1446</v>
+        <v>1533</v>
       </c>
       <c r="Z154" s="2"/>
     </row>
@@ -17246,7 +17234,7 @@
       <c r="N155" s="33"/>
       <c r="O155" s="33"/>
       <c r="P155" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q155" s="2" t="s">
         <v>512</v>
@@ -17255,22 +17243,22 @@
         <v>513</v>
       </c>
       <c r="S155" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T155" s="2" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="U155" s="33" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="V155" s="33" t="s">
         <v>514</v>
       </c>
       <c r="W155" s="33" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="X155" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y155" s="34" t="s">
         <v>1216</v>
@@ -17301,7 +17289,7 @@
       <c r="N156" s="33"/>
       <c r="O156" s="33"/>
       <c r="P156" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q156" s="2" t="s">
         <v>512</v>
@@ -17310,22 +17298,22 @@
         <v>513</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="U156" s="33" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="V156" s="33" t="s">
         <v>515</v>
       </c>
       <c r="W156" s="33" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="X156" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y156" s="34" t="s">
         <v>1217</v>
@@ -17356,7 +17344,7 @@
       <c r="N157" s="33"/>
       <c r="O157" s="33"/>
       <c r="P157" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q157" s="2" t="s">
         <v>1202</v>
@@ -17365,22 +17353,22 @@
         <v>513</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="U157" s="33" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="V157" s="33" t="s">
         <v>516</v>
       </c>
       <c r="W157" s="33" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="X157" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y157" s="34" t="s">
         <v>1218</v>
@@ -17411,7 +17399,7 @@
       <c r="N158" s="33"/>
       <c r="O158" s="33"/>
       <c r="P158" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q158" s="2" t="s">
         <v>512</v>
@@ -17420,22 +17408,22 @@
         <v>513</v>
       </c>
       <c r="S158" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="U158" s="33" t="s">
         <v>1358</v>
-      </c>
-      <c r="T158" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="U158" s="33" t="s">
-        <v>1365</v>
       </c>
       <c r="V158" s="33" t="s">
         <v>515</v>
       </c>
       <c r="W158" s="33" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="X158" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y158" s="34" t="s">
         <v>517</v>
@@ -17466,7 +17454,7 @@
       <c r="N159" s="33"/>
       <c r="O159" s="33"/>
       <c r="P159" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q159" s="2" t="s">
         <v>512</v>
@@ -17475,22 +17463,22 @@
         <v>513</v>
       </c>
       <c r="S159" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T159" s="2" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="U159" s="33" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="V159" s="33" t="s">
         <v>518</v>
       </c>
       <c r="W159" s="33" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="X159" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y159" s="34" t="s">
         <v>1227</v>
@@ -17521,7 +17509,7 @@
       <c r="N160" s="33"/>
       <c r="O160" s="33"/>
       <c r="P160" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q160" s="2" t="s">
         <v>512</v>
@@ -17530,22 +17518,22 @@
         <v>513</v>
       </c>
       <c r="S160" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T160" s="2" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="U160" s="33" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="V160" s="33" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="W160" s="33" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="X160" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y160" s="34" t="s">
         <v>1227</v>
@@ -17576,7 +17564,7 @@
       <c r="N161" s="33"/>
       <c r="O161" s="33"/>
       <c r="P161" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q161" s="2" t="s">
         <v>512</v>
@@ -17585,25 +17573,25 @@
         <v>513</v>
       </c>
       <c r="S161" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T161" s="2" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="U161" s="33" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="V161" s="33" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="W161" s="33" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="X161" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y161" s="34" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="Z161" s="2"/>
     </row>
@@ -17631,7 +17619,7 @@
       <c r="N162" s="33"/>
       <c r="O162" s="33"/>
       <c r="P162" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q162" s="2" t="s">
         <v>512</v>
@@ -17640,22 +17628,22 @@
         <v>513</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T162" s="2" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="U162" s="33" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="V162" s="33" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="W162" s="33" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="X162" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y162" s="34" t="s">
         <v>1266</v>
@@ -17686,7 +17674,7 @@
       <c r="N163" s="33"/>
       <c r="O163" s="33"/>
       <c r="P163" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q163" s="2" t="s">
         <v>512</v>
@@ -17695,25 +17683,25 @@
         <v>513</v>
       </c>
       <c r="S163" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T163" s="2" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="U163" s="33" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="V163" s="33" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="W163" s="33" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="X163" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y163" s="34" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="Z163" s="2"/>
     </row>
@@ -17741,7 +17729,7 @@
       <c r="N164" s="33"/>
       <c r="O164" s="33"/>
       <c r="P164" s="2" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="Q164" s="2" t="s">
         <v>512</v>
@@ -17750,25 +17738,25 @@
         <v>513</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="T164" s="2" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="U164" s="33" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="V164" s="33" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="W164" s="33" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="X164" s="33" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="Y164" s="34" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="Z164" s="2"/>
     </row>
@@ -17778,7 +17766,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="C165" s="23" t="s">
         <v>1273</v>
@@ -17798,7 +17786,7 @@
       <c r="N165" s="23"/>
       <c r="O165" s="23"/>
       <c r="P165" s="2" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="Q165" s="2" t="s">
         <v>1204</v>
@@ -17822,10 +17810,10 @@
         <v>536</v>
       </c>
       <c r="X165" s="23" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="Y165" s="34" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="Z165" s="2" t="s">
         <v>1334</v>
@@ -17837,7 +17825,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="C166" s="23" t="s">
         <v>1273</v>
@@ -17872,10 +17860,10 @@
         <v>525</v>
       </c>
       <c r="U166" s="33" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="V166" s="33" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="W166" s="36" t="s">
         <v>50</v>
@@ -17885,7 +17873,7 @@
         <v>1219</v>
       </c>
       <c r="Z166" s="2" t="s">
-        <v>1480</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -18086,7 +18074,7 @@
         <v>525</v>
       </c>
       <c r="U170" s="33" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
       <c r="V170" s="33" t="s">
         <v>529</v>
@@ -18203,7 +18191,7 @@
         <v>543</v>
       </c>
       <c r="X172" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y172" s="34" t="s">
         <v>1225</v>
@@ -18258,7 +18246,7 @@
         <v>547</v>
       </c>
       <c r="X173" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y173" s="34" t="s">
         <v>548</v>
@@ -18315,13 +18303,13 @@
         <v>556</v>
       </c>
       <c r="X174" s="23" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="Y174" s="34" t="s">
         <v>185</v>
       </c>
       <c r="Z174" s="2" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="175" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -18372,13 +18360,13 @@
         <v>560</v>
       </c>
       <c r="X175" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y175" s="34" t="s">
         <v>561</v>
       </c>
       <c r="Z175" s="2" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="176" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -18431,7 +18419,7 @@
         <v>569</v>
       </c>
       <c r="X176" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y176" s="34" t="s">
         <v>570</v>
@@ -18486,7 +18474,7 @@
         <v>573</v>
       </c>
       <c r="X177" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y177" s="34" t="s">
         <v>574</v>
@@ -18543,7 +18531,7 @@
         <v>581</v>
       </c>
       <c r="X178" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y178" s="34" t="s">
         <v>582</v>
@@ -18598,7 +18586,7 @@
         <v>585</v>
       </c>
       <c r="X179" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y179" s="34" t="s">
         <v>185</v>
@@ -18653,7 +18641,7 @@
         <v>588</v>
       </c>
       <c r="X180" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y180" s="34" t="s">
         <v>589</v>
@@ -18708,10 +18696,10 @@
         <v>592</v>
       </c>
       <c r="X181" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y181" s="34" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="Z181" s="2"/>
     </row>
@@ -18763,7 +18751,7 @@
         <v>595</v>
       </c>
       <c r="X182" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y182" s="34" t="s">
         <v>596</v>
@@ -18799,7 +18787,7 @@
         <v>597</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="R183" s="2" t="s">
         <v>599</v>
@@ -18808,7 +18796,7 @@
         <v>598</v>
       </c>
       <c r="T183" s="2" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="U183" s="33" t="s">
         <v>600</v>
@@ -18861,7 +18849,7 @@
         <v>598</v>
       </c>
       <c r="T184" s="2" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="U184" s="33" t="s">
         <v>602</v>
@@ -18912,7 +18900,7 @@
         <v>598</v>
       </c>
       <c r="T185" s="2" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="U185" s="33" t="s">
         <v>604</v>
@@ -18924,7 +18912,7 @@
         <v>606</v>
       </c>
       <c r="X185" s="23" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="Y185" s="34" t="s">
         <v>1227</v>
@@ -18967,7 +18955,7 @@
         <v>598</v>
       </c>
       <c r="T186" s="2" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="U186" s="33" t="s">
         <v>607</v>
@@ -18979,7 +18967,7 @@
         <v>609</v>
       </c>
       <c r="X186" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y186" s="40" t="s">
         <v>1263</v>
@@ -19008,32 +18996,32 @@
       <c r="N187" s="33"/>
       <c r="O187" s="33"/>
       <c r="P187" s="2" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="R187" s="2" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="S187" s="2" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="T187" s="2" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="U187" s="33" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="V187" s="33" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="W187" s="14" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="X187" s="27"/>
       <c r="Y187" s="39" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
       <c r="Z187" s="2"/>
     </row>
@@ -19080,7 +19068,7 @@
         <v>614</v>
       </c>
       <c r="W188" s="14" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="X188" s="27"/>
       <c r="Y188" s="14" t="s">
@@ -19132,7 +19120,7 @@
         <v>609</v>
       </c>
       <c r="X189" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y189" s="34" t="s">
         <v>1263</v>
@@ -19485,7 +19473,7 @@
         <v>637</v>
       </c>
       <c r="X196" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y196" s="34" t="s">
         <v>638</v>
@@ -19522,7 +19510,7 @@
         <v>643</v>
       </c>
       <c r="R197" s="2" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="S197" s="2" t="s">
         <v>644</v>
@@ -19540,7 +19528,7 @@
         <v>641</v>
       </c>
       <c r="X197" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y197" s="34" t="s">
         <v>642</v>
@@ -19574,13 +19562,13 @@
         <v>631</v>
       </c>
       <c r="Q198" s="2" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="R198" s="2" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="T198" s="2" t="s">
         <v>634</v>
@@ -19630,7 +19618,7 @@
         <v>1206</v>
       </c>
       <c r="R199" s="2" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="S199" s="2" t="s">
         <v>645</v>
@@ -19648,7 +19636,7 @@
         <v>641</v>
       </c>
       <c r="X199" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y199" s="34" t="s">
         <v>642</v>
@@ -19705,7 +19693,7 @@
         <v>651</v>
       </c>
       <c r="X200" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y200" s="34" t="s">
         <v>652</v>
@@ -19760,7 +19748,7 @@
         <v>656</v>
       </c>
       <c r="X201" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y201" s="34" t="s">
         <v>622</v>
@@ -19815,7 +19803,7 @@
         <v>659</v>
       </c>
       <c r="X202" s="23" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y202" s="34" t="s">
         <v>185</v>
@@ -19875,7 +19863,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
       <c r="C204" s="33"/>
       <c r="D204" s="33" t="s">
@@ -19895,19 +19883,19 @@
       <c r="N204" s="33"/>
       <c r="O204" s="33"/>
       <c r="P204" s="2" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="Q204" s="2" t="s">
         <v>611</v>
       </c>
       <c r="R204" s="2" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
       <c r="S204" s="2" t="s">
         <v>598</v>
       </c>
       <c r="T204" s="2" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
       <c r="U204" s="33" t="s">
         <v>607</v>
@@ -19919,7 +19907,7 @@
         <v>609</v>
       </c>
       <c r="X204" s="41" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Y204" s="40" t="s">
         <v>1263</v>
@@ -19950,7 +19938,7 @@
       <c r="N205" s="33"/>
       <c r="O205" s="33"/>
       <c r="P205" s="2" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="Q205" s="2" t="s">
         <v>611</v>
@@ -19962,19 +19950,19 @@
         <v>598</v>
       </c>
       <c r="T205" s="2" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
       <c r="U205" s="33" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="V205" s="33" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="W205" s="33" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="X205" s="41" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Y205" s="40" t="s">
         <v>622</v>
@@ -19987,7 +19975,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="70" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
       <c r="C206" s="71"/>
       <c r="D206" s="71"/>
@@ -20005,32 +19993,32 @@
       <c r="N206" s="71"/>
       <c r="O206" s="71"/>
       <c r="P206" s="2" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
       <c r="Q206" s="2" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="R206" s="2" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="T206" s="2" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
       <c r="U206" s="71" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="V206" s="71" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
       <c r="W206" s="14" t="s">
         <v>50</v>
       </c>
       <c r="X206" s="14"/>
       <c r="Y206" s="39" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
       <c r="Z206" s="2"/>
     </row>
@@ -20040,7 +20028,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="73" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
       <c r="C207" s="71"/>
       <c r="D207" s="71"/>
@@ -20064,31 +20052,31 @@
         <v>1273</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="Q207" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="R207" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S207" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="T207" s="2" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
       <c r="U207" s="71" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="V207" s="71" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="W207" s="71" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="X207" s="74" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="Y207" s="72"/>
       <c r="Z207" s="2"/>
@@ -20124,22 +20112,22 @@
         <v>597</v>
       </c>
       <c r="Q208" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="R208" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S208" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="T208" s="2" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
       <c r="U208" s="71" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="V208" s="71" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="W208" s="14" t="s">
         <v>50</v>
@@ -20177,29 +20165,29 @@
         <v>597</v>
       </c>
       <c r="Q209" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="R209" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S209" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="T209" s="2" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
       <c r="U209" s="71" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="V209" s="71" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="W209" s="14" t="s">
         <v>50</v>
       </c>
       <c r="X209" s="75"/>
       <c r="Y209" s="39" t="s">
-        <v>1469</v>
+        <v>1458</v>
       </c>
       <c r="Z209" s="2"/>
     </row>
@@ -20230,22 +20218,22 @@
         <v>597</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="R210" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S210" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="T210" s="2" t="s">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="U210" s="71" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="V210" s="71" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="W210" s="14" t="s">
         <v>50</v>
@@ -20283,28 +20271,28 @@
         <v>597</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="R211" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S211" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="T211" s="2" t="s">
-        <v>1478</v>
+        <v>1467</v>
       </c>
       <c r="U211" s="71" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="V211" s="71" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="W211" s="71" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="X211" s="74" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="Y211" s="72"/>
       <c r="Z211" s="2"/>
@@ -20336,22 +20324,22 @@
         <v>597</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="R212" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S212" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="T212" s="2" t="s">
-        <v>1477</v>
+        <v>1466</v>
       </c>
       <c r="U212" s="71" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="V212" s="71" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="W212" s="14" t="s">
         <v>50</v>
@@ -20368,7 +20356,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
       <c r="C213" s="42"/>
       <c r="D213" s="42"/>
@@ -20424,13 +20412,13 @@
         <v>676</v>
       </c>
       <c r="X213" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y213" s="43" t="s">
         <v>330</v>
       </c>
       <c r="Z213" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="214" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -20481,7 +20469,7 @@
       <c r="X214" s="55"/>
       <c r="Y214" s="40"/>
       <c r="Z214" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="215" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -20530,7 +20518,7 @@
       <c r="X215" s="32"/>
       <c r="Y215" s="40"/>
       <c r="Z215" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="216" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -20579,7 +20567,7 @@
       <c r="X216" s="55"/>
       <c r="Y216" s="40"/>
       <c r="Z216" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="217" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -20628,7 +20616,7 @@
       <c r="X217" s="55"/>
       <c r="Y217" s="40"/>
       <c r="Z217" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="218" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20685,13 +20673,13 @@
         <v>699</v>
       </c>
       <c r="X218" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y218" s="34" t="s">
         <v>700</v>
       </c>
       <c r="Z218" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="219" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20744,13 +20732,13 @@
         <v>708</v>
       </c>
       <c r="X219" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y219" s="34" t="s">
         <v>709</v>
       </c>
       <c r="Z219" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="220" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20805,7 +20793,7 @@
         <v>0</v>
       </c>
       <c r="Z220" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="221" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20860,7 +20848,7 @@
         <v>1</v>
       </c>
       <c r="Z221" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="222" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20915,7 +20903,7 @@
         <v>2</v>
       </c>
       <c r="Z222" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="223" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20970,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="Z223" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="224" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21025,7 +21013,7 @@
         <v>1</v>
       </c>
       <c r="Z224" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="225" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21080,7 +21068,7 @@
         <v>2</v>
       </c>
       <c r="Z225" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="226" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21131,13 +21119,13 @@
         <v>724</v>
       </c>
       <c r="X226" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y226" s="34" t="s">
         <v>1228</v>
       </c>
       <c r="Z226" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="227" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21188,13 +21176,13 @@
         <v>727</v>
       </c>
       <c r="X227" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y227" s="34" t="s">
         <v>1229</v>
       </c>
       <c r="Z227" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="228" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21245,13 +21233,13 @@
         <v>731</v>
       </c>
       <c r="X228" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y228" s="34" t="s">
         <v>1230</v>
       </c>
       <c r="Z228" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="229" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21306,7 +21294,7 @@
         <v>199</v>
       </c>
       <c r="Z229" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="230" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21363,7 +21351,7 @@
         <v>742</v>
       </c>
       <c r="Z230" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="231" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21420,7 +21408,7 @@
         <v>746</v>
       </c>
       <c r="Z231" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="232" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21477,7 +21465,7 @@
         <v>750</v>
       </c>
       <c r="Z232" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="233" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21534,7 +21522,7 @@
         <v>754</v>
       </c>
       <c r="Z233" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="234" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21591,7 +21579,7 @@
         <v>758</v>
       </c>
       <c r="Z234" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="235" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21648,7 +21636,7 @@
         <v>762</v>
       </c>
       <c r="Z235" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="236" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21705,7 +21693,7 @@
         <v>766</v>
       </c>
       <c r="Z236" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="237" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21762,7 +21750,7 @@
         <v>770</v>
       </c>
       <c r="Z237" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="238" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21819,7 +21807,7 @@
         <v>774</v>
       </c>
       <c r="Z238" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="239" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21876,7 +21864,7 @@
         <v>778</v>
       </c>
       <c r="Z239" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="240" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21933,7 +21921,7 @@
         <v>782</v>
       </c>
       <c r="Z240" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="241" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21990,7 +21978,7 @@
         <v>786</v>
       </c>
       <c r="Z241" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="242" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22047,7 +22035,7 @@
         <v>1231</v>
       </c>
       <c r="Z242" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="243" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22104,7 +22092,7 @@
         <v>795</v>
       </c>
       <c r="Z243" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="244" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22161,7 +22149,7 @@
         <v>746</v>
       </c>
       <c r="Z244" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="245" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22218,7 +22206,7 @@
         <v>801</v>
       </c>
       <c r="Z245" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="246" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22275,7 +22263,7 @@
         <v>805</v>
       </c>
       <c r="Z246" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="247" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22332,7 +22320,7 @@
         <v>809</v>
       </c>
       <c r="Z247" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="248" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22389,7 +22377,7 @@
         <v>815</v>
       </c>
       <c r="Z248" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="249" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22446,7 +22434,7 @@
         <v>746</v>
       </c>
       <c r="Z249" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="250" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22503,7 +22491,7 @@
         <v>801</v>
       </c>
       <c r="Z250" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="251" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22560,7 +22548,7 @@
         <v>823</v>
       </c>
       <c r="Z251" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="252" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22617,7 +22605,7 @@
         <v>827</v>
       </c>
       <c r="Z252" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="253" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22674,7 +22662,7 @@
         <v>831</v>
       </c>
       <c r="Z253" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="254" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22731,7 +22719,7 @@
         <v>837</v>
       </c>
       <c r="Z254" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="255" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22788,7 +22776,7 @@
         <v>841</v>
       </c>
       <c r="Z255" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="256" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22845,7 +22833,7 @@
         <v>162</v>
       </c>
       <c r="Z256" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="257" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22902,7 +22890,7 @@
         <v>750</v>
       </c>
       <c r="Z257" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="258" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22959,7 +22947,7 @@
         <v>766</v>
       </c>
       <c r="Z258" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="259" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23016,7 +23004,7 @@
         <v>782</v>
       </c>
       <c r="Z259" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="260" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23071,7 +23059,7 @@
         <v>1232</v>
       </c>
       <c r="Z260" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="261" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23118,13 +23106,13 @@
         <v>859</v>
       </c>
       <c r="X261" s="23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y261" s="34" t="s">
         <v>860</v>
       </c>
       <c r="Z261" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="262" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23171,13 +23159,13 @@
         <v>863</v>
       </c>
       <c r="X262" s="23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y262" s="34" t="s">
         <v>864</v>
       </c>
       <c r="Z262" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="263" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23224,13 +23212,13 @@
         <v>867</v>
       </c>
       <c r="X263" s="23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y263" s="34" t="s">
         <v>868</v>
       </c>
       <c r="Z263" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="264" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23277,13 +23265,13 @@
         <v>871</v>
       </c>
       <c r="X264" s="23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y264" s="34" t="s">
         <v>872</v>
       </c>
       <c r="Z264" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="265" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23330,13 +23318,13 @@
         <v>875</v>
       </c>
       <c r="X265" s="23" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y265" s="34" t="s">
         <v>876</v>
       </c>
       <c r="Z265" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="266" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23397,13 +23385,13 @@
         <v>884</v>
       </c>
       <c r="X266" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y266" s="34" t="s">
         <v>885</v>
       </c>
       <c r="Z266" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="267" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23458,7 +23446,7 @@
         <v>73</v>
       </c>
       <c r="Z267" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="268" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23511,7 +23499,7 @@
         <v>77</v>
       </c>
       <c r="Z268" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="269" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23564,7 +23552,7 @@
         <v>897</v>
       </c>
       <c r="Z269" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="270" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23615,7 +23603,7 @@
         <v>898</v>
       </c>
       <c r="Z270" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="271" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23676,13 +23664,13 @@
         <v>906</v>
       </c>
       <c r="X271" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y271" s="34" t="s">
         <v>700</v>
       </c>
       <c r="Z271" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="272" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23721,7 +23709,7 @@
         <v>902</v>
       </c>
       <c r="T272" s="2" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="U272" s="24" t="s">
         <v>904</v>
@@ -23733,13 +23721,13 @@
         <v>906</v>
       </c>
       <c r="X272" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y272" s="34" t="s">
         <v>700</v>
       </c>
       <c r="Z272" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="273" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23792,13 +23780,13 @@
         <v>914</v>
       </c>
       <c r="X273" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y273" s="34" t="s">
         <v>700</v>
       </c>
       <c r="Z273" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="274" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23855,13 +23843,13 @@
         <v>921</v>
       </c>
       <c r="X274" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y274" s="34" t="s">
         <v>872</v>
       </c>
       <c r="Z274" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="275" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23920,7 +23908,7 @@
         <v>916</v>
       </c>
       <c r="Z275" s="2" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="276" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23981,7 +23969,7 @@
         <v>73</v>
       </c>
       <c r="Z276" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="277" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24042,7 +24030,7 @@
         <v>77</v>
       </c>
       <c r="Z277" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="278" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24103,7 +24091,7 @@
         <v>928</v>
       </c>
       <c r="Z278" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="279" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24162,7 +24150,7 @@
         <v>50</v>
       </c>
       <c r="Z279" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="280" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24219,13 +24207,13 @@
         <v>938</v>
       </c>
       <c r="X280" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y280" s="34" t="s">
         <v>939</v>
       </c>
       <c r="Z280" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="281" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24280,13 +24268,13 @@
         <v>942</v>
       </c>
       <c r="X281" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y281" s="34" t="s">
         <v>519</v>
       </c>
       <c r="Z281" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="282" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24341,13 +24329,13 @@
         <v>945</v>
       </c>
       <c r="X282" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y282" s="34" t="s">
         <v>946</v>
       </c>
       <c r="Z282" s="2" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="283" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24402,13 +24390,13 @@
         <v>949</v>
       </c>
       <c r="X283" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y283" s="34" t="s">
         <v>596</v>
       </c>
       <c r="Z283" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="284" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24461,13 +24449,13 @@
         <v>957</v>
       </c>
       <c r="X284" s="23" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Y284" s="34" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="Z284" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="285" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24518,13 +24506,13 @@
         <v>961</v>
       </c>
       <c r="X285" s="23" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Y285" s="34" t="s">
         <v>958</v>
       </c>
       <c r="Z285" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="286" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24575,13 +24563,13 @@
         <v>964</v>
       </c>
       <c r="X286" s="23" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Y286" s="34" t="s">
         <v>965</v>
       </c>
       <c r="Z286" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="287" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24632,13 +24620,13 @@
         <v>968</v>
       </c>
       <c r="X287" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y287" s="34" t="s">
         <v>969</v>
       </c>
       <c r="Z287" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="288" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24689,13 +24677,13 @@
         <v>972</v>
       </c>
       <c r="X288" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y288" s="34" t="s">
         <v>969</v>
       </c>
       <c r="Z288" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="289" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24748,13 +24736,13 @@
         <v>980</v>
       </c>
       <c r="X289" s="42" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Y289" s="34" t="s">
         <v>1233</v>
       </c>
       <c r="Z289" s="2" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="290" spans="1:26" ht="27" x14ac:dyDescent="0.15">
@@ -24868,7 +24856,7 @@
       <c r="X291" s="32"/>
       <c r="Y291" s="56"/>
       <c r="Z291" s="2" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="292" spans="1:26" ht="13.5" x14ac:dyDescent="0.15">
@@ -24996,7 +24984,7 @@
         <v>1003</v>
       </c>
       <c r="Z293" s="2" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="294" spans="1:26" ht="13.5" x14ac:dyDescent="0.15">
@@ -26492,7 +26480,7 @@
         <v>1070</v>
       </c>
       <c r="V319" s="33" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="W319" s="33" t="s">
         <v>1071</v>
@@ -26504,7 +26492,7 @@
         <v>1237</v>
       </c>
       <c r="Z319" s="2" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="320" spans="1:26" ht="27" x14ac:dyDescent="0.15">
@@ -26549,7 +26537,7 @@
         <v>1070</v>
       </c>
       <c r="V320" s="33" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="W320" s="33" t="s">
         <v>1072</v>
@@ -26561,7 +26549,7 @@
         <v>1073</v>
       </c>
       <c r="Z320" s="2" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="321" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -27138,7 +27126,7 @@
         <v>1078</v>
       </c>
       <c r="V331" s="33" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
       <c r="W331" s="14" t="s">
         <v>50</v>
@@ -27463,17 +27451,17 @@
         <v>1060</v>
       </c>
       <c r="U337" s="33" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="V337" s="48" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
       <c r="W337" s="14" t="s">
         <v>50</v>
       </c>
       <c r="X337" s="14"/>
       <c r="Y337" s="14" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="Z337" s="2"/>
     </row>
@@ -28533,7 +28521,7 @@
         <v>1139</v>
       </c>
       <c r="X358" s="23" t="s">
-        <v>1343</v>
+        <v>1534</v>
       </c>
       <c r="Y358" s="34" t="s">
         <v>1240</v>
@@ -28584,7 +28572,7 @@
         <v>1139</v>
       </c>
       <c r="X359" s="23" t="s">
-        <v>1343</v>
+        <v>1534</v>
       </c>
       <c r="Y359" s="34" t="s">
         <v>1240</v>
@@ -28789,7 +28777,7 @@
         <v>50</v>
       </c>
       <c r="X362" s="14" t="s">
-        <v>1348</v>
+        <v>1535</v>
       </c>
       <c r="Y362" s="14" t="s">
         <v>1268</v>
@@ -28866,7 +28854,7 @@
         <v>50</v>
       </c>
       <c r="X363" s="14" t="s">
-        <v>1347</v>
+        <v>1536</v>
       </c>
       <c r="Y363" s="14" t="s">
         <v>1268</v>
@@ -28921,7 +28909,7 @@
         <v>50</v>
       </c>
       <c r="X364" s="14" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="Y364" s="14" t="s">
         <v>1241</v>
@@ -28998,7 +28986,7 @@
         <v>50</v>
       </c>
       <c r="X365" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y365" s="14" t="s">
         <v>1242</v>
@@ -29075,7 +29063,7 @@
         <v>50</v>
       </c>
       <c r="X366" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y366" s="14" t="s">
         <v>1243</v>
@@ -29148,7 +29136,7 @@
         <v>50</v>
       </c>
       <c r="X367" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y367" s="14" t="s">
         <v>1244</v>
@@ -29225,7 +29213,7 @@
         <v>50</v>
       </c>
       <c r="X368" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y368" s="14" t="s">
         <v>1245</v>
@@ -29302,7 +29290,7 @@
         <v>50</v>
       </c>
       <c r="X369" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y369" s="14" t="s">
         <v>1246</v>
@@ -29379,7 +29367,7 @@
         <v>50</v>
       </c>
       <c r="X370" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y370" s="14" t="s">
         <v>1247</v>
@@ -29456,7 +29444,7 @@
         <v>50</v>
       </c>
       <c r="X371" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y371" s="14" t="s">
         <v>1248</v>
@@ -29533,7 +29521,7 @@
         <v>50</v>
       </c>
       <c r="X372" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y372" s="14" t="s">
         <v>1248</v>
@@ -29610,7 +29598,7 @@
         <v>50</v>
       </c>
       <c r="X373" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y373" s="14" t="s">
         <v>1248</v>
@@ -29687,7 +29675,7 @@
         <v>50</v>
       </c>
       <c r="X374" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y374" s="14" t="s">
         <v>1249</v>
@@ -29764,7 +29752,7 @@
         <v>50</v>
       </c>
       <c r="X375" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y375" s="14" t="s">
         <v>1250</v>
@@ -29841,7 +29829,7 @@
         <v>50</v>
       </c>
       <c r="X376" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y376" s="14" t="s">
         <v>1251</v>
@@ -29918,7 +29906,7 @@
         <v>50</v>
       </c>
       <c r="X377" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y377" s="14" t="s">
         <v>1252</v>
@@ -29995,7 +29983,7 @@
         <v>50</v>
       </c>
       <c r="X378" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y378" s="14" t="s">
         <v>1245</v>
@@ -30072,7 +30060,7 @@
         <v>50</v>
       </c>
       <c r="X379" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y379" s="14" t="s">
         <v>1246</v>
@@ -30149,7 +30137,7 @@
         <v>50</v>
       </c>
       <c r="X380" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y380" s="14" t="s">
         <v>1247</v>
@@ -30226,7 +30214,7 @@
         <v>50</v>
       </c>
       <c r="X381" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y381" s="14" t="s">
         <v>1253</v>
@@ -30303,7 +30291,7 @@
         <v>50</v>
       </c>
       <c r="X382" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y382" s="14" t="s">
         <v>1254</v>
@@ -30380,7 +30368,7 @@
         <v>50</v>
       </c>
       <c r="X383" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y383" s="14" t="s">
         <v>1255</v>
@@ -30457,7 +30445,7 @@
         <v>50</v>
       </c>
       <c r="X384" s="14" t="s">
-        <v>1349</v>
+        <v>1537</v>
       </c>
       <c r="Y384" s="14" t="s">
         <v>1256</v>
@@ -30524,7 +30512,7 @@
         <v>50</v>
       </c>
       <c r="X385" s="14" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Y385" s="14" t="s">
         <v>1257</v>
@@ -30591,7 +30579,7 @@
         <v>50</v>
       </c>
       <c r="X386" s="14" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Y386" s="14" t="s">
         <v>1258</v>
@@ -30654,7 +30642,7 @@
         <v>50</v>
       </c>
       <c r="X387" s="14" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Y387" s="14" t="s">
         <v>1259</v>
@@ -30717,7 +30705,7 @@
         <v>50</v>
       </c>
       <c r="X388" s="14" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Y388" s="14" t="s">
         <v>1260</v>
@@ -30764,7 +30752,7 @@
         <v>50</v>
       </c>
       <c r="X389" s="14" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
       <c r="Y389" s="14" t="s">
         <v>1173</v>
@@ -31015,7 +31003,7 @@
         <v>641</v>
       </c>
       <c r="X394" s="33" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y394" s="34" t="s">
         <v>642</v>
@@ -31062,7 +31050,7 @@
         <v>637</v>
       </c>
       <c r="X395" s="33" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y395" s="62" t="s">
         <v>638</v>
@@ -31109,7 +31097,7 @@
         <v>651</v>
       </c>
       <c r="X396" s="33" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y396" s="62" t="s">
         <v>652</v>
@@ -31156,7 +31144,7 @@
         <v>656</v>
       </c>
       <c r="X397" s="33" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y397" s="62" t="s">
         <v>622</v>
@@ -31203,7 +31191,7 @@
         <v>659</v>
       </c>
       <c r="X398" s="33" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y398" s="62" t="s">
         <v>185</v>
@@ -31236,7 +31224,7 @@
       <c r="N399" s="65"/>
       <c r="O399" s="65"/>
       <c r="P399" s="2" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="Q399" s="2" t="s">
         <v>1311</v>
@@ -31291,7 +31279,7 @@
       <c r="N400" s="65"/>
       <c r="O400" s="65"/>
       <c r="P400" s="2" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="Q400" s="2" t="s">
         <v>1311</v>
@@ -31346,32 +31334,32 @@
       <c r="N401" s="80"/>
       <c r="O401" s="80"/>
       <c r="P401" s="2" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="Q401" s="2" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="R401" s="2" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="S401" s="2" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="T401" s="2" t="s">
         <v>1313</v>
       </c>
       <c r="U401" s="80" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="V401" s="80" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="W401" s="14" t="s">
         <v>50</v>
       </c>
       <c r="X401" s="76"/>
       <c r="Y401" s="77" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="Z401" s="2"/>
     </row>
@@ -31381,7 +31369,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="64" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="C402" s="65"/>
       <c r="D402" s="65"/>
@@ -31397,34 +31385,34 @@
       <c r="N402" s="65"/>
       <c r="O402" s="65"/>
       <c r="P402" s="2" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="Q402" s="2" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="R402" s="2" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="S402" s="2" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="T402" s="2" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="U402" s="65" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="V402" s="65" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="W402" s="76" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="X402" s="76" t="s">
-        <v>1404</v>
+        <v>1538</v>
       </c>
       <c r="Y402" s="77" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="Z402" s="2"/>
     </row>
@@ -31448,34 +31436,34 @@
       <c r="N403" s="65"/>
       <c r="O403" s="65"/>
       <c r="P403" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Q403" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R403" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="S403" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="T403" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="U403" s="65" t="s">
+        <v>1377</v>
+      </c>
+      <c r="V403" s="65" t="s">
+        <v>1400</v>
+      </c>
+      <c r="W403" s="76" t="s">
         <v>1401</v>
       </c>
-      <c r="Q403" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="R403" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="S403" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="T403" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="U403" s="65" t="s">
-        <v>1384</v>
-      </c>
-      <c r="V403" s="65" t="s">
-        <v>1408</v>
-      </c>
-      <c r="W403" s="76" t="s">
-        <v>1409</v>
-      </c>
       <c r="X403" s="76" t="s">
-        <v>1404</v>
+        <v>1538</v>
       </c>
       <c r="Y403" s="77" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="Z403" s="2"/>
     </row>
@@ -31499,28 +31487,28 @@
       <c r="N404" s="65"/>
       <c r="O404" s="65"/>
       <c r="P404" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Q404" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R404" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="S404" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="T404" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="U404" s="65" t="s">
+        <v>1379</v>
+      </c>
+      <c r="V404" s="65" t="s">
+        <v>1398</v>
+      </c>
+      <c r="W404" s="76" t="s">
         <v>1401</v>
-      </c>
-      <c r="Q404" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="R404" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="S404" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="T404" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="U404" s="65" t="s">
-        <v>1386</v>
-      </c>
-      <c r="V404" s="65" t="s">
-        <v>1406</v>
-      </c>
-      <c r="W404" s="76" t="s">
-        <v>1409</v>
       </c>
       <c r="X404" s="76"/>
       <c r="Y404" s="77"/>
@@ -31546,28 +31534,28 @@
       <c r="N405" s="65"/>
       <c r="O405" s="65"/>
       <c r="P405" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Q405" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R405" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="S405" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="T405" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="U405" s="65" t="s">
+        <v>1380</v>
+      </c>
+      <c r="V405" s="65" t="s">
+        <v>1399</v>
+      </c>
+      <c r="W405" s="76" t="s">
         <v>1401</v>
-      </c>
-      <c r="Q405" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="R405" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="S405" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="T405" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="U405" s="65" t="s">
-        <v>1387</v>
-      </c>
-      <c r="V405" s="65" t="s">
-        <v>1407</v>
-      </c>
-      <c r="W405" s="76" t="s">
-        <v>1409</v>
       </c>
       <c r="X405" s="76"/>
       <c r="Y405" s="77"/>

--- a/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
+++ b/en/application_framework/application_framework/configuration/default-configuration-list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C703508-4715-4A3F-96CD-DA26D40B51D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8252F3-381A-4064-BF9E-C2A71DE76DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="default-configuration" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configuration'!$A$2:$AA$405</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'default-configuration'!$A$2:$AA$401</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'default-configuration'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5621" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5584" uniqueCount="1524">
   <si>
     <t>■</t>
   </si>
@@ -4427,33 +4427,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ETL</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>nablarch.etl.inputFileBasePath</t>
-  </si>
-  <si>
-    <t>testdata/input</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nablarch.etl.outputFileBasePath</t>
-  </si>
-  <si>
-    <t>testdata/output</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nablarch.etl.sqlLoaderControlFileBasePath</t>
-  </si>
-  <si>
-    <t>nablarch.etl.sqlLoaderOutputFileBasePath</t>
-  </si>
-  <si>
     <t>not_used</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4507,33 +4480,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Environment configuration for use the ETL functions</t>
-  </si>
-  <si>
-    <t>Environment configuration for use the ETL functions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Environment configuration for performing the REST request unit test</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Path of the directory where the input files will be placed(for file input)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Path of the directory where the ctl file will be placed
-(When using Oracle SQL*Loader to load data)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Path of the directory to output the execution log
-(When using Oracle SQL*Loader to load data)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Path of the directory to output the output files(for file output)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>No placeholder</t>
@@ -5131,9 +5079,6 @@
 Web project for Container/main/resources/messages.properties
 RESTful Web service project for Container/main/resources/messages.properties
 Nablarch batch project for Container/main/resources/messages.properties</t>
-  </si>
-  <si>
-    <t>Jakarta Batch-compliant batch project/env.properties</t>
   </si>
 </sst>
 </file>
@@ -5465,7 +5410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5668,9 +5613,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6979,7 +6921,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="57"/>
@@ -7012,7 +6954,7 @@
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="57" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
@@ -7797,7 +7739,7 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z405"/>
+  <dimension ref="A1:Z401"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="20" workbookViewId="0">
       <pane xSplit="17" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozenSplit"/>
@@ -7833,21 +7775,21 @@
       <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="88"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
       <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
@@ -7895,34 +7837,34 @@
         <v>30</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>1520</v>
+        <v>1506</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="15"/>
@@ -8000,13 +7942,13 @@
         <v>39</v>
       </c>
       <c r="X3" s="23" t="s">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="Y3" s="34" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8069,13 +8011,13 @@
         <v>43</v>
       </c>
       <c r="X4" s="23" t="s">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="Y4" s="34" t="s">
         <v>44</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8138,13 +8080,13 @@
         <v>47</v>
       </c>
       <c r="X5" s="23" t="s">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="Y5" s="34" t="s">
         <v>48</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8211,7 +8153,7 @@
         <v>51</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>1487</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8265,10 +8207,10 @@
         <v>1342</v>
       </c>
       <c r="Y7" s="34" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8325,7 +8267,7 @@
         <v>44</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8382,7 +8324,7 @@
         <v>56</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8437,7 +8379,7 @@
         <v>1209</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>1487</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8525,7 +8467,7 @@
         <v>58</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="U12" s="24" t="s">
         <v>59</v>
@@ -8578,20 +8520,20 @@
         <v>58</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="U13" s="24" t="s">
         <v>59</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="W13" s="14" t="s">
         <v>50</v>
       </c>
       <c r="X13" s="27"/>
       <c r="Y13" s="14" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="Z13" s="2"/>
     </row>
@@ -8631,13 +8573,13 @@
         <v>58</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="U14" s="24" t="s">
         <v>59</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="W14" s="14" t="s">
         <v>50</v>
@@ -8684,13 +8626,13 @@
         <v>58</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="U15" s="24" t="s">
         <v>59</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="W15" s="14" t="s">
         <v>50</v>
@@ -8737,13 +8679,13 @@
         <v>58</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="U16" s="24" t="s">
         <v>59</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>50</v>
@@ -8806,7 +8748,7 @@
         <v>73</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8859,7 +8801,7 @@
         <v>77</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8912,7 +8854,7 @@
         <v>81</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8961,7 +8903,7 @@
       <c r="X20" s="32"/>
       <c r="Y20" s="40"/>
       <c r="Z20" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9012,7 +8954,7 @@
         <v>65</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9234,7 +9176,7 @@
         <v>109</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9301,7 +9243,7 @@
         <v>113</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>1490</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9360,7 +9302,7 @@
         <v>109</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9421,7 +9363,7 @@
         <v>1264</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9482,7 +9424,7 @@
         <v>1265</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9543,7 +9485,7 @@
         <v>1265</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9604,7 +9546,7 @@
         <v>1266</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -9665,7 +9607,7 @@
         <v>1333</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>1492</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -9740,7 +9682,7 @@
         <v>135</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>1493</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -9815,7 +9757,7 @@
         <v>139</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -9890,7 +9832,7 @@
         <v>143</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -9965,7 +9907,7 @@
         <v>147</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="135" x14ac:dyDescent="0.15">
@@ -10040,7 +9982,7 @@
         <v>151</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10115,7 +10057,7 @@
         <v>154</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10190,7 +10132,7 @@
         <v>143</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10265,7 +10207,7 @@
         <v>147</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10340,7 +10282,7 @@
         <v>162</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10415,7 +10357,7 @@
         <v>166</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10490,7 +10432,7 @@
         <v>154</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10565,7 +10507,7 @@
         <v>173</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -10640,7 +10582,7 @@
         <v>177</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="94.5" x14ac:dyDescent="0.15">
@@ -10711,13 +10653,13 @@
         <v>184</v>
       </c>
       <c r="X46" s="23" t="s">
-        <v>1528</v>
+        <v>1514</v>
       </c>
       <c r="Y46" s="34" t="s">
         <v>185</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10768,7 +10710,7 @@
       <c r="X47" s="32"/>
       <c r="Y47" s="40"/>
       <c r="Z47" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10823,7 +10765,7 @@
         <v>201</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10876,7 +10818,7 @@
         <v>204</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10929,7 +10871,7 @@
         <v>208</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -10980,7 +10922,7 @@
       <c r="X51" s="32"/>
       <c r="Y51" s="40"/>
       <c r="Z51" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -11029,7 +10971,7 @@
       <c r="X52" s="32"/>
       <c r="Y52" s="40"/>
       <c r="Z52" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11084,7 +11026,7 @@
         <v>228</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11137,7 +11079,7 @@
         <v>232</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11190,7 +11132,7 @@
         <v>235</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11243,7 +11185,7 @@
         <v>239</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11296,7 +11238,7 @@
         <v>243</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11349,7 +11291,7 @@
         <v>247</v>
       </c>
       <c r="Z58" s="2" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11402,7 +11344,7 @@
         <v>251</v>
       </c>
       <c r="Z59" s="2" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11455,7 +11397,7 @@
         <v>254</v>
       </c>
       <c r="Z60" s="2" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11508,7 +11450,7 @@
         <v>232</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11561,7 +11503,7 @@
         <v>239</v>
       </c>
       <c r="Z62" s="2" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11614,7 +11556,7 @@
         <v>247</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11667,7 +11609,7 @@
         <v>251</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11720,7 +11662,7 @@
         <v>261</v>
       </c>
       <c r="Z65" s="2" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11773,7 +11715,7 @@
         <v>265</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11826,7 +11768,7 @@
         <v>268</v>
       </c>
       <c r="Z67" s="2" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11879,7 +11821,7 @@
         <v>265</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="69" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11932,7 +11874,7 @@
         <v>100</v>
       </c>
       <c r="Z69" s="2" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -11985,7 +11927,7 @@
         <v>274</v>
       </c>
       <c r="Z70" s="2" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12038,7 +11980,7 @@
         <v>232</v>
       </c>
       <c r="Z71" s="2" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12091,7 +12033,7 @@
         <v>265</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="73" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12144,7 +12086,7 @@
         <v>279</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12197,7 +12139,7 @@
         <v>239</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="75" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12250,7 +12192,7 @@
         <v>265</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="76" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -12303,7 +12245,7 @@
         <v>284</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="77" spans="1:26" ht="108" x14ac:dyDescent="0.15">
@@ -12374,7 +12316,7 @@
         <v>292</v>
       </c>
       <c r="X77" s="23" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="Y77" s="34" t="s">
         <v>293</v>
@@ -12449,7 +12391,7 @@
         <v>301</v>
       </c>
       <c r="X78" s="23" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="Y78" s="34" t="s">
         <v>302</v>
@@ -12522,7 +12464,7 @@
         <v>306</v>
       </c>
       <c r="X79" s="23" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="Y79" s="34" t="s">
         <v>307</v>
@@ -12595,7 +12537,7 @@
         <v>313</v>
       </c>
       <c r="X80" s="23" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="Y80" s="34" t="s">
         <v>314</v>
@@ -12741,14 +12683,14 @@
         <v>325</v>
       </c>
       <c r="X82" s="23" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="Y82" s="34" t="s">
         <v>326</v>
       </c>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:26" ht="135" x14ac:dyDescent="0.15">
       <c r="A83" s="21">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -12817,7 +12759,7 @@
         <v>1340</v>
       </c>
       <c r="Y83" s="34" t="s">
-        <v>1530</v>
+        <v>1516</v>
       </c>
       <c r="Z83" s="2"/>
     </row>
@@ -12873,7 +12815,7 @@
         <v>339</v>
       </c>
       <c r="Z84" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -12926,7 +12868,7 @@
         <v>342</v>
       </c>
       <c r="Z85" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -12979,7 +12921,7 @@
         <v>162</v>
       </c>
       <c r="Z86" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13032,7 +12974,7 @@
         <v>339</v>
       </c>
       <c r="Z87" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="108" x14ac:dyDescent="0.15">
@@ -13057,13 +12999,13 @@
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
       <c r="P88" s="2" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>1179</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>181</v>
@@ -13081,13 +13023,13 @@
         <v>348</v>
       </c>
       <c r="X88" s="33" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="Y88" s="34" t="s">
         <v>1234</v>
       </c>
       <c r="Z88" s="2" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="108" x14ac:dyDescent="0.15">
@@ -13138,13 +13080,13 @@
         <v>1273</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>1343</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>1344</v>
@@ -13156,13 +13098,13 @@
         <v>1346</v>
       </c>
       <c r="V89" s="33" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="W89" s="33" t="s">
         <v>1347</v>
       </c>
       <c r="X89" s="33" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="Y89" s="34" t="s">
         <v>1265</v>
@@ -13217,13 +13159,13 @@
         <v>1273</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>1179</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>1348</v>
@@ -13239,13 +13181,13 @@
         <v>1350</v>
       </c>
       <c r="X90" s="33" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="Y90" s="34" t="s">
         <v>1234</v>
       </c>
       <c r="Z90" s="2" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13270,13 +13212,13 @@
       <c r="N91" s="23"/>
       <c r="O91" s="23"/>
       <c r="P91" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>349</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>351</v>
@@ -13296,7 +13238,7 @@
       <c r="X91" s="32"/>
       <c r="Y91" s="40"/>
       <c r="Z91" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13345,7 +13287,7 @@
       <c r="X92" s="32"/>
       <c r="Y92" s="40"/>
       <c r="Z92" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13394,7 +13336,7 @@
       <c r="X93" s="32"/>
       <c r="Y93" s="40"/>
       <c r="Z93" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13417,7 +13359,7 @@
       <c r="N94" s="23"/>
       <c r="O94" s="23"/>
       <c r="P94" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>357</v>
@@ -13443,7 +13385,7 @@
       <c r="X94" s="32"/>
       <c r="Y94" s="40"/>
       <c r="Z94" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13451,7 +13393,7 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B95" s="69"/>
+      <c r="B95" s="68"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
       <c r="E95" s="33"/>
@@ -13466,16 +13408,16 @@
       <c r="N95" s="33"/>
       <c r="O95" s="33"/>
       <c r="P95" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="R95" s="2" t="s">
         <v>350</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="T95" s="2" t="s">
         <v>352</v>
@@ -13487,7 +13429,7 @@
         <v>360</v>
       </c>
       <c r="W95" s="33" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="X95" s="33"/>
       <c r="Y95" s="34"/>
@@ -13498,7 +13440,7 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B96" s="69"/>
+      <c r="B96" s="68"/>
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
       <c r="E96" s="33"/>
@@ -13513,16 +13455,16 @@
       <c r="N96" s="33"/>
       <c r="O96" s="33"/>
       <c r="P96" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="R96" s="2" t="s">
         <v>350</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>352</v>
@@ -13534,7 +13476,7 @@
         <v>363</v>
       </c>
       <c r="W96" s="33" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="X96" s="33"/>
       <c r="Y96" s="34"/>
@@ -13545,7 +13487,7 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B97" s="69"/>
+      <c r="B97" s="68"/>
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
       <c r="E97" s="33"/>
@@ -13560,16 +13502,16 @@
       <c r="N97" s="33"/>
       <c r="O97" s="33"/>
       <c r="P97" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="R97" s="2" t="s">
         <v>350</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>352</v>
@@ -13581,7 +13523,7 @@
         <v>366</v>
       </c>
       <c r="W97" s="33" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="X97" s="33"/>
       <c r="Y97" s="34"/>
@@ -13633,7 +13575,7 @@
       <c r="X98" s="32"/>
       <c r="Y98" s="40"/>
       <c r="Z98" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -13682,7 +13624,7 @@
       <c r="X99" s="32"/>
       <c r="Y99" s="40"/>
       <c r="Z99" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -13731,7 +13673,7 @@
       <c r="X100" s="32"/>
       <c r="Y100" s="40"/>
       <c r="Z100" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -15676,7 +15618,7 @@
       <c r="X127" s="32"/>
       <c r="Y127" s="40"/>
       <c r="Z127" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15727,7 +15669,7 @@
       <c r="X128" s="32"/>
       <c r="Y128" s="40"/>
       <c r="Z128" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15780,7 +15722,7 @@
       </c>
       <c r="Y129" s="34"/>
       <c r="Z129" s="2" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="130" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15831,7 +15773,7 @@
       <c r="X130" s="32"/>
       <c r="Y130" s="40"/>
       <c r="Z130" s="2" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15880,7 +15822,7 @@
       <c r="X131" s="32"/>
       <c r="Y131" s="40"/>
       <c r="Z131" s="2" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="132" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15929,7 +15871,7 @@
       <c r="X132" s="32"/>
       <c r="Y132" s="40"/>
       <c r="Z132" s="2" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="133" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -15978,7 +15920,7 @@
       <c r="X133" s="32"/>
       <c r="Y133" s="40"/>
       <c r="Z133" s="2" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16027,7 +15969,7 @@
       <c r="X134" s="32"/>
       <c r="Y134" s="40"/>
       <c r="Z134" s="2" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16076,7 +16018,7 @@
       <c r="X135" s="32"/>
       <c r="Y135" s="40"/>
       <c r="Z135" s="2" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="136" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16125,7 +16067,7 @@
       <c r="X136" s="32"/>
       <c r="Y136" s="40"/>
       <c r="Z136" s="2" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="137" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16174,7 +16116,7 @@
       <c r="X137" s="32"/>
       <c r="Y137" s="40"/>
       <c r="Z137" s="2" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="138" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16223,7 +16165,7 @@
       <c r="X138" s="32"/>
       <c r="Y138" s="40"/>
       <c r="Z138" s="2" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="139" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16272,7 +16214,7 @@
       <c r="X139" s="32"/>
       <c r="Y139" s="40"/>
       <c r="Z139" s="2" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="140" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16321,7 +16263,7 @@
       <c r="X140" s="32"/>
       <c r="Y140" s="40"/>
       <c r="Z140" s="2" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="141" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16370,7 +16312,7 @@
       <c r="X141" s="32"/>
       <c r="Y141" s="40"/>
       <c r="Z141" s="2" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="142" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16419,7 +16361,7 @@
       <c r="X142" s="32"/>
       <c r="Y142" s="40"/>
       <c r="Z142" s="2" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="143" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16468,7 +16410,7 @@
       <c r="X143" s="32"/>
       <c r="Y143" s="40"/>
       <c r="Z143" s="2" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="144" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16517,7 +16459,7 @@
       <c r="X144" s="32"/>
       <c r="Y144" s="40"/>
       <c r="Z144" s="2" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="145" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16566,7 +16508,7 @@
       <c r="X145" s="32"/>
       <c r="Y145" s="40"/>
       <c r="Z145" s="2" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -16613,7 +16555,7 @@
       </c>
       <c r="O146" s="23"/>
       <c r="P146" s="2" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>492</v>
@@ -16856,7 +16798,7 @@
         <v>510</v>
       </c>
       <c r="X149" s="23" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="Y149" s="34" t="s">
         <v>511</v>
@@ -16903,7 +16845,7 @@
       </c>
       <c r="O150" s="23"/>
       <c r="P150" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>512</v>
@@ -16912,10 +16854,10 @@
         <v>513</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>1531</v>
+        <v>1517</v>
       </c>
       <c r="U150" s="33" t="s">
         <v>1352</v>
@@ -16927,7 +16869,7 @@
         <v>1353</v>
       </c>
       <c r="X150" s="23" t="s">
-        <v>1532</v>
+        <v>1518</v>
       </c>
       <c r="Y150" s="34" t="s">
         <v>1216</v>
@@ -16972,7 +16914,7 @@
       </c>
       <c r="O151" s="23"/>
       <c r="P151" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>512</v>
@@ -16984,7 +16926,7 @@
         <v>1351</v>
       </c>
       <c r="T151" s="2" t="s">
-        <v>1531</v>
+        <v>1517</v>
       </c>
       <c r="U151" s="33" t="s">
         <v>1354</v>
@@ -16996,7 +16938,7 @@
         <v>1355</v>
       </c>
       <c r="X151" s="23" t="s">
-        <v>1532</v>
+        <v>1518</v>
       </c>
       <c r="Y151" s="34" t="s">
         <v>1217</v>
@@ -17041,7 +16983,7 @@
       </c>
       <c r="O152" s="23"/>
       <c r="P152" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>1202</v>
@@ -17053,7 +16995,7 @@
         <v>1351</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>1531</v>
+        <v>1517</v>
       </c>
       <c r="U152" s="33" t="s">
         <v>1356</v>
@@ -17065,7 +17007,7 @@
         <v>1357</v>
       </c>
       <c r="X152" s="23" t="s">
-        <v>1532</v>
+        <v>1518</v>
       </c>
       <c r="Y152" s="34" t="s">
         <v>1218</v>
@@ -17110,7 +17052,7 @@
       </c>
       <c r="O153" s="23"/>
       <c r="P153" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q153" s="2" t="s">
         <v>512</v>
@@ -17122,7 +17064,7 @@
         <v>1351</v>
       </c>
       <c r="T153" s="2" t="s">
-        <v>1531</v>
+        <v>1517</v>
       </c>
       <c r="U153" s="33" t="s">
         <v>1358</v>
@@ -17134,7 +17076,7 @@
         <v>1359</v>
       </c>
       <c r="X153" s="23" t="s">
-        <v>1532</v>
+        <v>1518</v>
       </c>
       <c r="Y153" s="34" t="s">
         <v>517</v>
@@ -17179,7 +17121,7 @@
       </c>
       <c r="O154" s="23"/>
       <c r="P154" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q154" s="2" t="s">
         <v>512</v>
@@ -17191,7 +17133,7 @@
         <v>1351</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>1531</v>
+        <v>1517</v>
       </c>
       <c r="U154" s="33" t="s">
         <v>1360</v>
@@ -17203,10 +17145,10 @@
         <v>1361</v>
       </c>
       <c r="X154" s="23" t="s">
-        <v>1532</v>
+        <v>1518</v>
       </c>
       <c r="Y154" s="34" t="s">
-        <v>1533</v>
+        <v>1519</v>
       </c>
       <c r="Z154" s="2"/>
     </row>
@@ -17234,7 +17176,7 @@
       <c r="N155" s="33"/>
       <c r="O155" s="33"/>
       <c r="P155" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q155" s="2" t="s">
         <v>512</v>
@@ -17246,7 +17188,7 @@
         <v>1351</v>
       </c>
       <c r="T155" s="2" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="U155" s="33" t="s">
         <v>1352</v>
@@ -17258,7 +17200,7 @@
         <v>1353</v>
       </c>
       <c r="X155" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y155" s="34" t="s">
         <v>1216</v>
@@ -17289,7 +17231,7 @@
       <c r="N156" s="33"/>
       <c r="O156" s="33"/>
       <c r="P156" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q156" s="2" t="s">
         <v>512</v>
@@ -17301,7 +17243,7 @@
         <v>1351</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="U156" s="33" t="s">
         <v>1354</v>
@@ -17313,7 +17255,7 @@
         <v>1355</v>
       </c>
       <c r="X156" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y156" s="34" t="s">
         <v>1217</v>
@@ -17344,7 +17286,7 @@
       <c r="N157" s="33"/>
       <c r="O157" s="33"/>
       <c r="P157" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q157" s="2" t="s">
         <v>1202</v>
@@ -17356,7 +17298,7 @@
         <v>1351</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="U157" s="33" t="s">
         <v>1356</v>
@@ -17368,7 +17310,7 @@
         <v>1357</v>
       </c>
       <c r="X157" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y157" s="34" t="s">
         <v>1218</v>
@@ -17399,7 +17341,7 @@
       <c r="N158" s="33"/>
       <c r="O158" s="33"/>
       <c r="P158" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q158" s="2" t="s">
         <v>512</v>
@@ -17411,7 +17353,7 @@
         <v>1351</v>
       </c>
       <c r="T158" s="2" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="U158" s="33" t="s">
         <v>1358</v>
@@ -17423,7 +17365,7 @@
         <v>1359</v>
       </c>
       <c r="X158" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y158" s="34" t="s">
         <v>517</v>
@@ -17454,7 +17396,7 @@
       <c r="N159" s="33"/>
       <c r="O159" s="33"/>
       <c r="P159" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q159" s="2" t="s">
         <v>512</v>
@@ -17466,7 +17408,7 @@
         <v>1351</v>
       </c>
       <c r="T159" s="2" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="U159" s="33" t="s">
         <v>1360</v>
@@ -17478,7 +17420,7 @@
         <v>1361</v>
       </c>
       <c r="X159" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y159" s="34" t="s">
         <v>1227</v>
@@ -17509,7 +17451,7 @@
       <c r="N160" s="33"/>
       <c r="O160" s="33"/>
       <c r="P160" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q160" s="2" t="s">
         <v>512</v>
@@ -17521,19 +17463,19 @@
         <v>1351</v>
       </c>
       <c r="T160" s="2" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="U160" s="33" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="V160" s="33" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
       <c r="W160" s="33" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
       <c r="X160" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y160" s="34" t="s">
         <v>1227</v>
@@ -17564,7 +17506,7 @@
       <c r="N161" s="33"/>
       <c r="O161" s="33"/>
       <c r="P161" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q161" s="2" t="s">
         <v>512</v>
@@ -17576,19 +17518,19 @@
         <v>1351</v>
       </c>
       <c r="T161" s="2" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="U161" s="33" t="s">
         <v>1362</v>
       </c>
       <c r="V161" s="33" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="W161" s="33" t="s">
         <v>1363</v>
       </c>
       <c r="X161" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y161" s="34" t="s">
         <v>1364</v>
@@ -17619,7 +17561,7 @@
       <c r="N162" s="33"/>
       <c r="O162" s="33"/>
       <c r="P162" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q162" s="2" t="s">
         <v>512</v>
@@ -17631,19 +17573,19 @@
         <v>1351</v>
       </c>
       <c r="T162" s="2" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="U162" s="33" t="s">
         <v>1365</v>
       </c>
       <c r="V162" s="33" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="W162" s="33" t="s">
         <v>1366</v>
       </c>
       <c r="X162" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y162" s="34" t="s">
         <v>1266</v>
@@ -17674,7 +17616,7 @@
       <c r="N163" s="33"/>
       <c r="O163" s="33"/>
       <c r="P163" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q163" s="2" t="s">
         <v>512</v>
@@ -17686,19 +17628,19 @@
         <v>1351</v>
       </c>
       <c r="T163" s="2" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="U163" s="33" t="s">
         <v>1367</v>
       </c>
       <c r="V163" s="33" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="W163" s="33" t="s">
         <v>1368</v>
       </c>
       <c r="X163" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y163" s="34" t="s">
         <v>1369</v>
@@ -17729,7 +17671,7 @@
       <c r="N164" s="33"/>
       <c r="O164" s="33"/>
       <c r="P164" s="2" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="Q164" s="2" t="s">
         <v>512</v>
@@ -17741,19 +17683,19 @@
         <v>1351</v>
       </c>
       <c r="T164" s="2" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="U164" s="33" t="s">
         <v>1370</v>
       </c>
       <c r="V164" s="33" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="W164" s="33" t="s">
         <v>1371</v>
       </c>
       <c r="X164" s="33" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="Y164" s="34" t="s">
         <v>1372</v>
@@ -17766,7 +17708,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="22" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="C165" s="23" t="s">
         <v>1273</v>
@@ -17786,7 +17728,7 @@
       <c r="N165" s="23"/>
       <c r="O165" s="23"/>
       <c r="P165" s="2" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="Q165" s="2" t="s">
         <v>1204</v>
@@ -17813,7 +17755,7 @@
         <v>1342</v>
       </c>
       <c r="Y165" s="34" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="Z165" s="2" t="s">
         <v>1334</v>
@@ -17825,7 +17767,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
       <c r="C166" s="23" t="s">
         <v>1273</v>
@@ -17860,10 +17802,10 @@
         <v>525</v>
       </c>
       <c r="U166" s="33" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
       <c r="V166" s="33" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
       <c r="W166" s="36" t="s">
         <v>50</v>
@@ -17873,7 +17815,7 @@
         <v>1219</v>
       </c>
       <c r="Z166" s="2" t="s">
-        <v>1469</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -18074,7 +18016,7 @@
         <v>525</v>
       </c>
       <c r="U170" s="33" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="V170" s="33" t="s">
         <v>529</v>
@@ -18309,7 +18251,7 @@
         <v>185</v>
       </c>
       <c r="Z174" s="2" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="175" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -18366,7 +18308,7 @@
         <v>561</v>
       </c>
       <c r="Z175" s="2" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="176" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -18699,7 +18641,7 @@
         <v>1339</v>
       </c>
       <c r="Y181" s="34" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="Z181" s="2"/>
     </row>
@@ -18787,7 +18729,7 @@
         <v>597</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="R183" s="2" t="s">
         <v>599</v>
@@ -18796,7 +18738,7 @@
         <v>598</v>
       </c>
       <c r="T183" s="2" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="U183" s="33" t="s">
         <v>600</v>
@@ -18849,7 +18791,7 @@
         <v>598</v>
       </c>
       <c r="T184" s="2" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="U184" s="33" t="s">
         <v>602</v>
@@ -18900,7 +18842,7 @@
         <v>598</v>
       </c>
       <c r="T185" s="2" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="U185" s="33" t="s">
         <v>604</v>
@@ -18955,7 +18897,7 @@
         <v>598</v>
       </c>
       <c r="T186" s="2" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="U186" s="33" t="s">
         <v>607</v>
@@ -18996,32 +18938,32 @@
       <c r="N187" s="33"/>
       <c r="O187" s="33"/>
       <c r="P187" s="2" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="R187" s="2" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
       <c r="S187" s="2" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="T187" s="2" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="U187" s="33" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="V187" s="33" t="s">
-        <v>1515</v>
+        <v>1501</v>
       </c>
       <c r="W187" s="14" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="X187" s="27"/>
       <c r="Y187" s="39" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="Z187" s="2"/>
     </row>
@@ -19068,7 +19010,7 @@
         <v>614</v>
       </c>
       <c r="W188" s="14" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="X188" s="27"/>
       <c r="Y188" s="14" t="s">
@@ -19510,7 +19452,7 @@
         <v>643</v>
       </c>
       <c r="R197" s="2" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="S197" s="2" t="s">
         <v>644</v>
@@ -19562,13 +19504,13 @@
         <v>631</v>
       </c>
       <c r="Q198" s="2" t="s">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="R198" s="2" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="T198" s="2" t="s">
         <v>634</v>
@@ -19618,7 +19560,7 @@
         <v>1206</v>
       </c>
       <c r="R199" s="2" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
       <c r="S199" s="2" t="s">
         <v>645</v>
@@ -19863,7 +19805,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
       <c r="C204" s="33"/>
       <c r="D204" s="33" t="s">
@@ -19883,19 +19825,19 @@
       <c r="N204" s="33"/>
       <c r="O204" s="33"/>
       <c r="P204" s="2" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="Q204" s="2" t="s">
         <v>611</v>
       </c>
       <c r="R204" s="2" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
       <c r="S204" s="2" t="s">
         <v>598</v>
       </c>
       <c r="T204" s="2" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="U204" s="33" t="s">
         <v>607</v>
@@ -19938,7 +19880,7 @@
       <c r="N205" s="33"/>
       <c r="O205" s="33"/>
       <c r="P205" s="2" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="Q205" s="2" t="s">
         <v>611</v>
@@ -19950,16 +19892,16 @@
         <v>598</v>
       </c>
       <c r="T205" s="2" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="U205" s="33" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="V205" s="33" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
       <c r="W205" s="33" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="X205" s="41" t="s">
         <v>1338</v>
@@ -19974,51 +19916,51 @@
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="B206" s="70" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C206" s="71"/>
-      <c r="D206" s="71"/>
-      <c r="E206" s="71"/>
-      <c r="F206" s="71"/>
-      <c r="G206" s="71"/>
-      <c r="H206" s="71"/>
-      <c r="I206" s="71"/>
-      <c r="J206" s="71"/>
-      <c r="K206" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="L206" s="71"/>
-      <c r="M206" s="71"/>
-      <c r="N206" s="71"/>
-      <c r="O206" s="71"/>
+      <c r="B206" s="69" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C206" s="70"/>
+      <c r="D206" s="70"/>
+      <c r="E206" s="70"/>
+      <c r="F206" s="70"/>
+      <c r="G206" s="70"/>
+      <c r="H206" s="70"/>
+      <c r="I206" s="70"/>
+      <c r="J206" s="70"/>
+      <c r="K206" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L206" s="70"/>
+      <c r="M206" s="70"/>
+      <c r="N206" s="70"/>
+      <c r="O206" s="70"/>
       <c r="P206" s="2" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="Q206" s="2" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="R206" s="2" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="T206" s="2" t="s">
-        <v>1462</v>
-      </c>
-      <c r="U206" s="71" t="s">
-        <v>1440</v>
-      </c>
-      <c r="V206" s="71" t="s">
-        <v>1441</v>
+        <v>1448</v>
+      </c>
+      <c r="U206" s="70" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V206" s="70" t="s">
+        <v>1427</v>
       </c>
       <c r="W206" s="14" t="s">
         <v>50</v>
       </c>
       <c r="X206" s="14"/>
       <c r="Y206" s="39" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="Z206" s="2"/>
     </row>
@@ -20027,58 +19969,58 @@
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="B207" s="73" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C207" s="71"/>
-      <c r="D207" s="71"/>
-      <c r="E207" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F207" s="71"/>
-      <c r="G207" s="71"/>
-      <c r="H207" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I207" s="71"/>
-      <c r="J207" s="71"/>
-      <c r="K207" s="71"/>
-      <c r="L207" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="M207" s="71"/>
-      <c r="N207" s="71"/>
-      <c r="O207" s="71" t="s">
+      <c r="B207" s="72" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C207" s="70"/>
+      <c r="D207" s="70"/>
+      <c r="E207" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F207" s="70"/>
+      <c r="G207" s="70"/>
+      <c r="H207" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I207" s="70"/>
+      <c r="J207" s="70"/>
+      <c r="K207" s="70"/>
+      <c r="L207" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M207" s="70"/>
+      <c r="N207" s="70"/>
+      <c r="O207" s="70" t="s">
         <v>1273</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="Q207" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="R207" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S207" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="T207" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="U207" s="71" t="s">
-        <v>1452</v>
-      </c>
-      <c r="V207" s="71" t="s">
-        <v>1453</v>
-      </c>
-      <c r="W207" s="71" t="s">
-        <v>1454</v>
-      </c>
-      <c r="X207" s="74" t="s">
-        <v>1455</v>
-      </c>
-      <c r="Y207" s="72"/>
+        <v>1449</v>
+      </c>
+      <c r="U207" s="70" t="s">
+        <v>1438</v>
+      </c>
+      <c r="V207" s="70" t="s">
+        <v>1439</v>
+      </c>
+      <c r="W207" s="70" t="s">
+        <v>1440</v>
+      </c>
+      <c r="X207" s="73" t="s">
+        <v>1441</v>
+      </c>
+      <c r="Y207" s="71"/>
       <c r="Z207" s="2"/>
     </row>
     <row r="208" spans="1:26" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -20086,48 +20028,48 @@
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
-      <c r="B208" s="85"/>
-      <c r="C208" s="71"/>
-      <c r="D208" s="71"/>
-      <c r="E208" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F208" s="71"/>
-      <c r="G208" s="71"/>
-      <c r="H208" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I208" s="71"/>
-      <c r="J208" s="71"/>
-      <c r="K208" s="71"/>
-      <c r="L208" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="M208" s="71"/>
-      <c r="N208" s="71"/>
-      <c r="O208" s="71" t="s">
+      <c r="B208" s="84"/>
+      <c r="C208" s="70"/>
+      <c r="D208" s="70"/>
+      <c r="E208" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F208" s="70"/>
+      <c r="G208" s="70"/>
+      <c r="H208" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I208" s="70"/>
+      <c r="J208" s="70"/>
+      <c r="K208" s="70"/>
+      <c r="L208" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M208" s="70"/>
+      <c r="N208" s="70"/>
+      <c r="O208" s="70" t="s">
         <v>1273</v>
       </c>
       <c r="P208" s="2" t="s">
         <v>597</v>
       </c>
       <c r="Q208" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="R208" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S208" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="T208" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="U208" s="71" t="s">
-        <v>1456</v>
-      </c>
-      <c r="V208" s="71" t="s">
-        <v>1457</v>
+        <v>1449</v>
+      </c>
+      <c r="U208" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="V208" s="70" t="s">
+        <v>1443</v>
       </c>
       <c r="W208" s="14" t="s">
         <v>50</v>
@@ -20143,51 +20085,51 @@
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="B209" s="84"/>
-      <c r="C209" s="71"/>
-      <c r="D209" s="71"/>
-      <c r="E209" s="71"/>
-      <c r="F209" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G209" s="71"/>
-      <c r="H209" s="71"/>
-      <c r="I209" s="71"/>
-      <c r="J209" s="71"/>
-      <c r="K209" s="71"/>
-      <c r="L209" s="71"/>
-      <c r="M209" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="N209" s="71"/>
-      <c r="O209" s="71"/>
+      <c r="B209" s="83"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="70"/>
+      <c r="F209" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G209" s="70"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="70"/>
+      <c r="J209" s="70"/>
+      <c r="K209" s="70"/>
+      <c r="L209" s="70"/>
+      <c r="M209" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N209" s="70"/>
+      <c r="O209" s="70"/>
       <c r="P209" s="2" t="s">
         <v>597</v>
       </c>
       <c r="Q209" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="R209" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S209" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="T209" s="2" t="s">
         <v>1451</v>
       </c>
-      <c r="T209" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="U209" s="71" t="s">
-        <v>1452</v>
-      </c>
-      <c r="V209" s="71" t="s">
-        <v>1453</v>
+      <c r="U209" s="70" t="s">
+        <v>1438</v>
+      </c>
+      <c r="V209" s="70" t="s">
+        <v>1439</v>
       </c>
       <c r="W209" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="X209" s="75"/>
+      <c r="X209" s="74"/>
       <c r="Y209" s="39" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="Z209" s="2"/>
     </row>
@@ -20196,44 +20138,44 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="B210" s="82"/>
-      <c r="C210" s="71"/>
-      <c r="D210" s="71"/>
-      <c r="E210" s="71"/>
-      <c r="F210" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G210" s="71"/>
-      <c r="H210" s="71"/>
-      <c r="I210" s="71"/>
-      <c r="J210" s="71"/>
-      <c r="K210" s="71"/>
-      <c r="L210" s="71"/>
-      <c r="M210" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="N210" s="71"/>
-      <c r="O210" s="71"/>
+      <c r="B210" s="81"/>
+      <c r="C210" s="70"/>
+      <c r="D210" s="70"/>
+      <c r="E210" s="70"/>
+      <c r="F210" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G210" s="70"/>
+      <c r="H210" s="70"/>
+      <c r="I210" s="70"/>
+      <c r="J210" s="70"/>
+      <c r="K210" s="70"/>
+      <c r="L210" s="70"/>
+      <c r="M210" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N210" s="70"/>
+      <c r="O210" s="70"/>
       <c r="P210" s="2" t="s">
         <v>597</v>
       </c>
       <c r="Q210" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="R210" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S210" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="T210" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="U210" s="71" t="s">
-        <v>1456</v>
-      </c>
-      <c r="V210" s="71" t="s">
-        <v>1457</v>
+        <v>1450</v>
+      </c>
+      <c r="U210" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="V210" s="70" t="s">
+        <v>1443</v>
       </c>
       <c r="W210" s="14" t="s">
         <v>50</v>
@@ -20249,52 +20191,52 @@
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
-      <c r="B211" s="83"/>
-      <c r="C211" s="71"/>
-      <c r="D211" s="71"/>
-      <c r="E211" s="71"/>
-      <c r="F211" s="71"/>
-      <c r="G211" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H211" s="71"/>
-      <c r="I211" s="71"/>
-      <c r="J211" s="71"/>
-      <c r="K211" s="71"/>
-      <c r="L211" s="71"/>
-      <c r="M211" s="71"/>
-      <c r="N211" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="O211" s="71"/>
+      <c r="B211" s="82"/>
+      <c r="C211" s="70"/>
+      <c r="D211" s="70"/>
+      <c r="E211" s="70"/>
+      <c r="F211" s="70"/>
+      <c r="G211" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H211" s="70"/>
+      <c r="I211" s="70"/>
+      <c r="J211" s="70"/>
+      <c r="K211" s="70"/>
+      <c r="L211" s="70"/>
+      <c r="M211" s="70"/>
+      <c r="N211" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="O211" s="70"/>
       <c r="P211" s="2" t="s">
         <v>597</v>
       </c>
       <c r="Q211" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="R211" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S211" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="T211" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="U211" s="71" t="s">
-        <v>1452</v>
-      </c>
-      <c r="V211" s="71" t="s">
         <v>1453</v>
       </c>
-      <c r="W211" s="71" t="s">
-        <v>1454</v>
-      </c>
-      <c r="X211" s="74" t="s">
-        <v>1455</v>
-      </c>
-      <c r="Y211" s="72"/>
+      <c r="U211" s="70" t="s">
+        <v>1438</v>
+      </c>
+      <c r="V211" s="70" t="s">
+        <v>1439</v>
+      </c>
+      <c r="W211" s="70" t="s">
+        <v>1440</v>
+      </c>
+      <c r="X211" s="73" t="s">
+        <v>1441</v>
+      </c>
+      <c r="Y211" s="71"/>
       <c r="Z211" s="2"/>
     </row>
     <row r="212" spans="1:26" s="50" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -20302,44 +20244,44 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="B212" s="70"/>
-      <c r="C212" s="71"/>
-      <c r="D212" s="71"/>
-      <c r="E212" s="71"/>
-      <c r="F212" s="71"/>
-      <c r="G212" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H212" s="71"/>
-      <c r="I212" s="71"/>
-      <c r="J212" s="71"/>
-      <c r="K212" s="71"/>
-      <c r="L212" s="71"/>
-      <c r="M212" s="71"/>
-      <c r="N212" s="71" t="s">
-        <v>1273</v>
-      </c>
-      <c r="O212" s="71"/>
+      <c r="B212" s="69"/>
+      <c r="C212" s="70"/>
+      <c r="D212" s="70"/>
+      <c r="E212" s="70"/>
+      <c r="F212" s="70"/>
+      <c r="G212" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H212" s="70"/>
+      <c r="I212" s="70"/>
+      <c r="J212" s="70"/>
+      <c r="K212" s="70"/>
+      <c r="L212" s="70"/>
+      <c r="M212" s="70"/>
+      <c r="N212" s="70" t="s">
+        <v>1273</v>
+      </c>
+      <c r="O212" s="70"/>
       <c r="P212" s="2" t="s">
         <v>597</v>
       </c>
       <c r="Q212" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="R212" s="2" t="s">
         <v>599</v>
       </c>
       <c r="S212" s="2" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
       <c r="T212" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="U212" s="71" t="s">
-        <v>1456</v>
-      </c>
-      <c r="V212" s="71" t="s">
-        <v>1457</v>
+        <v>1452</v>
+      </c>
+      <c r="U212" s="70" t="s">
+        <v>1442</v>
+      </c>
+      <c r="V212" s="70" t="s">
+        <v>1443</v>
       </c>
       <c r="W212" s="14" t="s">
         <v>50</v>
@@ -20356,7 +20298,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
       <c r="C213" s="42"/>
       <c r="D213" s="42"/>
@@ -20418,7 +20360,7 @@
         <v>330</v>
       </c>
       <c r="Z213" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="214" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -20469,7 +20411,7 @@
       <c r="X214" s="55"/>
       <c r="Y214" s="40"/>
       <c r="Z214" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="215" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -20518,7 +20460,7 @@
       <c r="X215" s="32"/>
       <c r="Y215" s="40"/>
       <c r="Z215" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="216" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -20567,7 +20509,7 @@
       <c r="X216" s="55"/>
       <c r="Y216" s="40"/>
       <c r="Z216" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="217" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -20616,7 +20558,7 @@
       <c r="X217" s="55"/>
       <c r="Y217" s="40"/>
       <c r="Z217" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="218" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20679,7 +20621,7 @@
         <v>700</v>
       </c>
       <c r="Z218" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="219" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20738,7 +20680,7 @@
         <v>709</v>
       </c>
       <c r="Z219" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="220" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20793,7 +20735,7 @@
         <v>0</v>
       </c>
       <c r="Z220" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="221" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20848,7 +20790,7 @@
         <v>1</v>
       </c>
       <c r="Z221" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="222" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20903,7 +20845,7 @@
         <v>2</v>
       </c>
       <c r="Z222" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="223" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -20958,7 +20900,7 @@
         <v>0</v>
       </c>
       <c r="Z223" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="224" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21013,7 +20955,7 @@
         <v>1</v>
       </c>
       <c r="Z224" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="225" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21068,7 +21010,7 @@
         <v>2</v>
       </c>
       <c r="Z225" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="226" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21125,7 +21067,7 @@
         <v>1228</v>
       </c>
       <c r="Z226" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="227" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21182,7 +21124,7 @@
         <v>1229</v>
       </c>
       <c r="Z227" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="228" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21239,7 +21181,7 @@
         <v>1230</v>
       </c>
       <c r="Z228" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="229" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -21294,7 +21236,7 @@
         <v>199</v>
       </c>
       <c r="Z229" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="230" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21351,7 +21293,7 @@
         <v>742</v>
       </c>
       <c r="Z230" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="231" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21408,7 +21350,7 @@
         <v>746</v>
       </c>
       <c r="Z231" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="232" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21465,7 +21407,7 @@
         <v>750</v>
       </c>
       <c r="Z232" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="233" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21522,7 +21464,7 @@
         <v>754</v>
       </c>
       <c r="Z233" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="234" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21579,7 +21521,7 @@
         <v>758</v>
       </c>
       <c r="Z234" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="235" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21636,7 +21578,7 @@
         <v>762</v>
       </c>
       <c r="Z235" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="236" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21693,7 +21635,7 @@
         <v>766</v>
       </c>
       <c r="Z236" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="237" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21750,7 +21692,7 @@
         <v>770</v>
       </c>
       <c r="Z237" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="238" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21807,7 +21749,7 @@
         <v>774</v>
       </c>
       <c r="Z238" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="239" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21864,7 +21806,7 @@
         <v>778</v>
       </c>
       <c r="Z239" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="240" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21921,7 +21863,7 @@
         <v>782</v>
       </c>
       <c r="Z240" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="241" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -21978,7 +21920,7 @@
         <v>786</v>
       </c>
       <c r="Z241" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="242" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22035,7 +21977,7 @@
         <v>1231</v>
       </c>
       <c r="Z242" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="243" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22092,7 +22034,7 @@
         <v>795</v>
       </c>
       <c r="Z243" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="244" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22149,7 +22091,7 @@
         <v>746</v>
       </c>
       <c r="Z244" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="245" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22206,7 +22148,7 @@
         <v>801</v>
       </c>
       <c r="Z245" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="246" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22263,7 +22205,7 @@
         <v>805</v>
       </c>
       <c r="Z246" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="247" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22320,7 +22262,7 @@
         <v>809</v>
       </c>
       <c r="Z247" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="248" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22377,7 +22319,7 @@
         <v>815</v>
       </c>
       <c r="Z248" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="249" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22434,7 +22376,7 @@
         <v>746</v>
       </c>
       <c r="Z249" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="250" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22491,7 +22433,7 @@
         <v>801</v>
       </c>
       <c r="Z250" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="251" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22548,7 +22490,7 @@
         <v>823</v>
       </c>
       <c r="Z251" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="252" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22605,7 +22547,7 @@
         <v>827</v>
       </c>
       <c r="Z252" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="253" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22662,7 +22604,7 @@
         <v>831</v>
       </c>
       <c r="Z253" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="254" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22719,7 +22661,7 @@
         <v>837</v>
       </c>
       <c r="Z254" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="255" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22776,7 +22718,7 @@
         <v>841</v>
       </c>
       <c r="Z255" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="256" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22833,7 +22775,7 @@
         <v>162</v>
       </c>
       <c r="Z256" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="257" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22890,7 +22832,7 @@
         <v>750</v>
       </c>
       <c r="Z257" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="258" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -22947,7 +22889,7 @@
         <v>766</v>
       </c>
       <c r="Z258" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="259" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23004,7 +22946,7 @@
         <v>782</v>
       </c>
       <c r="Z259" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="260" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23059,7 +23001,7 @@
         <v>1232</v>
       </c>
       <c r="Z260" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="261" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23112,7 +23054,7 @@
         <v>860</v>
       </c>
       <c r="Z261" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="262" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23165,7 +23107,7 @@
         <v>864</v>
       </c>
       <c r="Z262" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="263" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23218,7 +23160,7 @@
         <v>868</v>
       </c>
       <c r="Z263" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="264" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23271,7 +23213,7 @@
         <v>872</v>
       </c>
       <c r="Z264" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="265" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23324,7 +23266,7 @@
         <v>876</v>
       </c>
       <c r="Z265" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="266" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23391,7 +23333,7 @@
         <v>885</v>
       </c>
       <c r="Z266" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="267" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23446,7 +23388,7 @@
         <v>73</v>
       </c>
       <c r="Z267" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="268" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23499,7 +23441,7 @@
         <v>77</v>
       </c>
       <c r="Z268" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="269" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23552,7 +23494,7 @@
         <v>897</v>
       </c>
       <c r="Z269" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="270" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23603,7 +23545,7 @@
         <v>898</v>
       </c>
       <c r="Z270" s="2" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="271" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23670,7 +23612,7 @@
         <v>700</v>
       </c>
       <c r="Z271" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="272" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23709,7 +23651,7 @@
         <v>902</v>
       </c>
       <c r="T272" s="2" t="s">
-        <v>1525</v>
+        <v>1511</v>
       </c>
       <c r="U272" s="24" t="s">
         <v>904</v>
@@ -23727,7 +23669,7 @@
         <v>700</v>
       </c>
       <c r="Z272" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="273" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23786,7 +23728,7 @@
         <v>700</v>
       </c>
       <c r="Z273" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="274" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23849,7 +23791,7 @@
         <v>872</v>
       </c>
       <c r="Z274" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="275" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23908,7 +23850,7 @@
         <v>916</v>
       </c>
       <c r="Z275" s="2" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="276" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -23969,7 +23911,7 @@
         <v>73</v>
       </c>
       <c r="Z276" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="277" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24030,7 +23972,7 @@
         <v>77</v>
       </c>
       <c r="Z277" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="278" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24091,7 +24033,7 @@
         <v>928</v>
       </c>
       <c r="Z278" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="279" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24150,7 +24092,7 @@
         <v>50</v>
       </c>
       <c r="Z279" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="280" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24213,7 +24155,7 @@
         <v>939</v>
       </c>
       <c r="Z280" s="2" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="281" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24274,7 +24216,7 @@
         <v>519</v>
       </c>
       <c r="Z281" s="2" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="282" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24335,7 +24277,7 @@
         <v>946</v>
       </c>
       <c r="Z282" s="2" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="283" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24396,7 +24338,7 @@
         <v>596</v>
       </c>
       <c r="Z283" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="284" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24452,10 +24394,10 @@
         <v>1336</v>
       </c>
       <c r="Y284" s="34" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="Z284" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="285" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24512,7 +24454,7 @@
         <v>958</v>
       </c>
       <c r="Z285" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="286" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24569,7 +24511,7 @@
         <v>965</v>
       </c>
       <c r="Z286" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="287" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24626,7 +24568,7 @@
         <v>969</v>
       </c>
       <c r="Z287" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="288" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24683,7 +24625,7 @@
         <v>969</v>
       </c>
       <c r="Z288" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="289" spans="1:26" ht="67.5" x14ac:dyDescent="0.15">
@@ -24742,7 +24684,7 @@
         <v>1233</v>
       </c>
       <c r="Z289" s="2" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="290" spans="1:26" ht="27" x14ac:dyDescent="0.15">
@@ -24856,7 +24798,7 @@
       <c r="X291" s="32"/>
       <c r="Y291" s="56"/>
       <c r="Z291" s="2" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="292" spans="1:26" ht="13.5" x14ac:dyDescent="0.15">
@@ -24984,7 +24926,7 @@
         <v>1003</v>
       </c>
       <c r="Z293" s="2" t="s">
-        <v>1514</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="294" spans="1:26" ht="13.5" x14ac:dyDescent="0.15">
@@ -26480,7 +26422,7 @@
         <v>1070</v>
       </c>
       <c r="V319" s="33" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
       <c r="W319" s="33" t="s">
         <v>1071</v>
@@ -26492,7 +26434,7 @@
         <v>1237</v>
       </c>
       <c r="Z319" s="2" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="320" spans="1:26" ht="27" x14ac:dyDescent="0.15">
@@ -26537,7 +26479,7 @@
         <v>1070</v>
       </c>
       <c r="V320" s="33" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
       <c r="W320" s="33" t="s">
         <v>1072</v>
@@ -26549,7 +26491,7 @@
         <v>1073</v>
       </c>
       <c r="Z320" s="2" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="321" spans="1:26" ht="54" x14ac:dyDescent="0.15">
@@ -27126,7 +27068,7 @@
         <v>1078</v>
       </c>
       <c r="V331" s="33" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
       <c r="W331" s="14" t="s">
         <v>50</v>
@@ -27451,17 +27393,17 @@
         <v>1060</v>
       </c>
       <c r="U337" s="33" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="V337" s="48" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="W337" s="14" t="s">
         <v>50</v>
       </c>
       <c r="X337" s="14"/>
       <c r="Y337" s="14" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="Z337" s="2"/>
     </row>
@@ -28521,7 +28463,7 @@
         <v>1139</v>
       </c>
       <c r="X358" s="23" t="s">
-        <v>1534</v>
+        <v>1520</v>
       </c>
       <c r="Y358" s="34" t="s">
         <v>1240</v>
@@ -28572,7 +28514,7 @@
         <v>1139</v>
       </c>
       <c r="X359" s="23" t="s">
-        <v>1534</v>
+        <v>1520</v>
       </c>
       <c r="Y359" s="34" t="s">
         <v>1240</v>
@@ -28777,7 +28719,7 @@
         <v>50</v>
       </c>
       <c r="X362" s="14" t="s">
-        <v>1535</v>
+        <v>1521</v>
       </c>
       <c r="Y362" s="14" t="s">
         <v>1268</v>
@@ -28854,7 +28796,7 @@
         <v>50</v>
       </c>
       <c r="X363" s="14" t="s">
-        <v>1536</v>
+        <v>1522</v>
       </c>
       <c r="Y363" s="14" t="s">
         <v>1268</v>
@@ -28863,7 +28805,7 @@
     </row>
     <row r="364" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="2">
-        <f t="shared" ref="A364:A405" si="6">ROW()-2</f>
+        <f t="shared" ref="A364:A401" si="6">ROW()-2</f>
         <v>362</v>
       </c>
       <c r="B364" s="26"/>
@@ -28986,7 +28928,7 @@
         <v>50</v>
       </c>
       <c r="X365" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y365" s="14" t="s">
         <v>1242</v>
@@ -29063,7 +29005,7 @@
         <v>50</v>
       </c>
       <c r="X366" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y366" s="14" t="s">
         <v>1243</v>
@@ -29136,7 +29078,7 @@
         <v>50</v>
       </c>
       <c r="X367" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y367" s="14" t="s">
         <v>1244</v>
@@ -29213,7 +29155,7 @@
         <v>50</v>
       </c>
       <c r="X368" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y368" s="14" t="s">
         <v>1245</v>
@@ -29290,7 +29232,7 @@
         <v>50</v>
       </c>
       <c r="X369" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y369" s="14" t="s">
         <v>1246</v>
@@ -29367,7 +29309,7 @@
         <v>50</v>
       </c>
       <c r="X370" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y370" s="14" t="s">
         <v>1247</v>
@@ -29444,7 +29386,7 @@
         <v>50</v>
       </c>
       <c r="X371" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y371" s="14" t="s">
         <v>1248</v>
@@ -29521,7 +29463,7 @@
         <v>50</v>
       </c>
       <c r="X372" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y372" s="14" t="s">
         <v>1248</v>
@@ -29598,7 +29540,7 @@
         <v>50</v>
       </c>
       <c r="X373" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y373" s="14" t="s">
         <v>1248</v>
@@ -29675,7 +29617,7 @@
         <v>50</v>
       </c>
       <c r="X374" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y374" s="14" t="s">
         <v>1249</v>
@@ -29752,7 +29694,7 @@
         <v>50</v>
       </c>
       <c r="X375" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y375" s="14" t="s">
         <v>1250</v>
@@ -29829,7 +29771,7 @@
         <v>50</v>
       </c>
       <c r="X376" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y376" s="14" t="s">
         <v>1251</v>
@@ -29906,7 +29848,7 @@
         <v>50</v>
       </c>
       <c r="X377" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y377" s="14" t="s">
         <v>1252</v>
@@ -29983,7 +29925,7 @@
         <v>50</v>
       </c>
       <c r="X378" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y378" s="14" t="s">
         <v>1245</v>
@@ -30060,7 +30002,7 @@
         <v>50</v>
       </c>
       <c r="X379" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y379" s="14" t="s">
         <v>1246</v>
@@ -30137,7 +30079,7 @@
         <v>50</v>
       </c>
       <c r="X380" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y380" s="14" t="s">
         <v>1247</v>
@@ -30214,7 +30156,7 @@
         <v>50</v>
       </c>
       <c r="X381" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y381" s="14" t="s">
         <v>1253</v>
@@ -30291,7 +30233,7 @@
         <v>50</v>
       </c>
       <c r="X382" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y382" s="14" t="s">
         <v>1254</v>
@@ -30368,7 +30310,7 @@
         <v>50</v>
       </c>
       <c r="X383" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y383" s="14" t="s">
         <v>1255</v>
@@ -30445,7 +30387,7 @@
         <v>50</v>
       </c>
       <c r="X384" s="14" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="Y384" s="14" t="s">
         <v>1256</v>
@@ -30752,7 +30694,7 @@
         <v>50</v>
       </c>
       <c r="X389" s="14" t="s">
-        <v>1480</v>
+        <v>1466</v>
       </c>
       <c r="Y389" s="14" t="s">
         <v>1173</v>
@@ -31224,7 +31166,7 @@
       <c r="N399" s="65"/>
       <c r="O399" s="65"/>
       <c r="P399" s="2" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="Q399" s="2" t="s">
         <v>1311</v>
@@ -31279,7 +31221,7 @@
       <c r="N400" s="65"/>
       <c r="O400" s="65"/>
       <c r="P400" s="2" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="Q400" s="2" t="s">
         <v>1311</v>
@@ -31310,264 +31252,66 @@
       </c>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" s="81" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A401" s="78">
+    <row r="401" spans="1:26" s="80" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A401" s="77">
         <f t="shared" si="6"/>
         <v>399</v>
       </c>
-      <c r="B401" s="79"/>
-      <c r="C401" s="80"/>
-      <c r="D401" s="80" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E401" s="80"/>
-      <c r="F401" s="80"/>
-      <c r="G401" s="80"/>
-      <c r="H401" s="80"/>
-      <c r="I401" s="80"/>
-      <c r="J401" s="80"/>
-      <c r="K401" s="80" t="s">
-        <v>1273</v>
-      </c>
-      <c r="L401" s="80"/>
-      <c r="M401" s="80"/>
-      <c r="N401" s="80"/>
-      <c r="O401" s="80"/>
+      <c r="B401" s="78"/>
+      <c r="C401" s="79"/>
+      <c r="D401" s="79" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E401" s="79"/>
+      <c r="F401" s="79"/>
+      <c r="G401" s="79"/>
+      <c r="H401" s="79"/>
+      <c r="I401" s="79"/>
+      <c r="J401" s="79"/>
+      <c r="K401" s="79" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L401" s="79"/>
+      <c r="M401" s="79"/>
+      <c r="N401" s="79"/>
+      <c r="O401" s="79"/>
       <c r="P401" s="2" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="Q401" s="2" t="s">
-        <v>1481</v>
+        <v>1467</v>
       </c>
       <c r="R401" s="2" t="s">
-        <v>1485</v>
+        <v>1471</v>
       </c>
       <c r="S401" s="2" t="s">
-        <v>1482</v>
+        <v>1468</v>
       </c>
       <c r="T401" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="U401" s="80" t="s">
-        <v>1483</v>
-      </c>
-      <c r="V401" s="80" t="s">
-        <v>1486</v>
+      <c r="U401" s="79" t="s">
+        <v>1469</v>
+      </c>
+      <c r="V401" s="79" t="s">
+        <v>1472</v>
       </c>
       <c r="W401" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="X401" s="76"/>
-      <c r="Y401" s="77" t="s">
-        <v>1484</v>
+      <c r="X401" s="75"/>
+      <c r="Y401" s="76" t="s">
+        <v>1470</v>
       </c>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A402" s="63">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="B402" s="64" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C402" s="65"/>
-      <c r="D402" s="65"/>
-      <c r="E402" s="65"/>
-      <c r="F402" s="65"/>
-      <c r="G402" s="65"/>
-      <c r="H402" s="65"/>
-      <c r="I402" s="65"/>
-      <c r="J402" s="65"/>
-      <c r="K402" s="65"/>
-      <c r="L402" s="65"/>
-      <c r="M402" s="65"/>
-      <c r="N402" s="65"/>
-      <c r="O402" s="65"/>
-      <c r="P402" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="Q402" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="R402" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="S402" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="T402" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="U402" s="65" t="s">
-        <v>1375</v>
-      </c>
-      <c r="V402" s="65" t="s">
-        <v>1397</v>
-      </c>
-      <c r="W402" s="76" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X402" s="76" t="s">
-        <v>1538</v>
-      </c>
-      <c r="Y402" s="77" t="s">
-        <v>1376</v>
-      </c>
-      <c r="Z402" s="2"/>
-    </row>
-    <row r="403" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A403" s="63">
-        <f t="shared" si="6"/>
-        <v>401</v>
-      </c>
-      <c r="B403" s="68"/>
-      <c r="C403" s="65"/>
-      <c r="D403" s="65"/>
-      <c r="E403" s="65"/>
-      <c r="F403" s="65"/>
-      <c r="G403" s="65"/>
-      <c r="H403" s="65"/>
-      <c r="I403" s="65"/>
-      <c r="J403" s="65"/>
-      <c r="K403" s="65"/>
-      <c r="L403" s="65"/>
-      <c r="M403" s="65"/>
-      <c r="N403" s="65"/>
-      <c r="O403" s="65"/>
-      <c r="P403" s="2" t="s">
-        <v>1394</v>
-      </c>
-      <c r="Q403" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="R403" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="S403" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="T403" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="U403" s="65" t="s">
-        <v>1377</v>
-      </c>
-      <c r="V403" s="65" t="s">
-        <v>1400</v>
-      </c>
-      <c r="W403" s="76" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X403" s="76" t="s">
-        <v>1538</v>
-      </c>
-      <c r="Y403" s="77" t="s">
-        <v>1378</v>
-      </c>
-      <c r="Z403" s="2"/>
-    </row>
-    <row r="404" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A404" s="63">
-        <f t="shared" si="6"/>
-        <v>402</v>
-      </c>
-      <c r="B404" s="68"/>
-      <c r="C404" s="65"/>
-      <c r="D404" s="65"/>
-      <c r="E404" s="65"/>
-      <c r="F404" s="65"/>
-      <c r="G404" s="65"/>
-      <c r="H404" s="65"/>
-      <c r="I404" s="65"/>
-      <c r="J404" s="65"/>
-      <c r="K404" s="65"/>
-      <c r="L404" s="65"/>
-      <c r="M404" s="65"/>
-      <c r="N404" s="65"/>
-      <c r="O404" s="65"/>
-      <c r="P404" s="2" t="s">
-        <v>1394</v>
-      </c>
-      <c r="Q404" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="R404" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="S404" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="T404" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="U404" s="65" t="s">
-        <v>1379</v>
-      </c>
-      <c r="V404" s="65" t="s">
-        <v>1398</v>
-      </c>
-      <c r="W404" s="76" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X404" s="76"/>
-      <c r="Y404" s="77"/>
-      <c r="Z404" s="2"/>
-    </row>
-    <row r="405" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A405" s="63">
-        <f t="shared" si="6"/>
-        <v>403</v>
-      </c>
-      <c r="B405" s="67"/>
-      <c r="C405" s="65"/>
-      <c r="D405" s="65"/>
-      <c r="E405" s="65"/>
-      <c r="F405" s="65"/>
-      <c r="G405" s="65"/>
-      <c r="H405" s="65"/>
-      <c r="I405" s="65"/>
-      <c r="J405" s="65"/>
-      <c r="K405" s="65"/>
-      <c r="L405" s="65"/>
-      <c r="M405" s="65"/>
-      <c r="N405" s="65"/>
-      <c r="O405" s="65"/>
-      <c r="P405" s="2" t="s">
-        <v>1394</v>
-      </c>
-      <c r="Q405" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="R405" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="S405" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="T405" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="U405" s="65" t="s">
-        <v>1380</v>
-      </c>
-      <c r="V405" s="65" t="s">
-        <v>1399</v>
-      </c>
-      <c r="W405" s="76" t="s">
-        <v>1401</v>
-      </c>
-      <c r="X405" s="76"/>
-      <c r="Y405" s="77"/>
-      <c r="Z405" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA405" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:AA401" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B4 P4:P271 P274:P405">
+  <conditionalFormatting sqref="B4 P4:P271 P274:P401">
     <cfRule type="cellIs" dxfId="64" priority="914" operator="equal">
       <formula>$P3</formula>
     </cfRule>
@@ -31732,7 +31476,7 @@
       <formula>$P172</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4 Q5:T271 Q274:T405 Z5:Z271 Z274:Z405">
+  <conditionalFormatting sqref="Q4 Q5:T271 Z5:Z271 Q274:T401 Z274:Z401">
     <cfRule type="cellIs" dxfId="31" priority="330" operator="equal">
       <formula>Q3</formula>
     </cfRule>
